--- a/data_files/data_integrity.xlsx
+++ b/data_files/data_integrity.xlsx
@@ -9,9 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24510" windowHeight="12270" activeTab="3"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12300" firstSheet="1" activeTab="4"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="394">
   <si>
     <t>Filename</t>
   </si>
@@ -129,9 +128,6 @@
     <t>Owl City</t>
   </si>
   <si>
-    <t>All Thing Bright And Beautiful - Deluxe</t>
-  </si>
-  <si>
     <t>Alligator Sky</t>
   </si>
   <si>
@@ -564,9 +560,6 @@
     <t>Marijuana.mp3</t>
   </si>
   <si>
-    <t>Electric Music For The Mind And The Mind</t>
-  </si>
-  <si>
     <t>Marijuana</t>
   </si>
   <si>
@@ -1050,9 +1043,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>A Hundred Miles Or More</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -1065,24 +1055,15 @@
     <t>The Greatest Hits - CD 1/2</t>
   </si>
   <si>
-    <t>All Thing Bright And Beautiful</t>
-  </si>
-  <si>
     <t>Deluxe</t>
   </si>
   <si>
     <t>Single</t>
   </si>
   <si>
-    <t>As Good As It Gets</t>
-  </si>
-  <si>
     <t>Big Jet Plane</t>
   </si>
   <si>
-    <t>EP</t>
-  </si>
-  <si>
     <t>Continued Silence</t>
   </si>
   <si>
@@ -1158,24 +1139,6 @@
     <t>Live In Texas</t>
   </si>
   <si>
-    <t>Live!</t>
-  </si>
-  <si>
-    <t>Not Enough Shouting</t>
-  </si>
-  <si>
-    <t>One More from the Road</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Primitive Man</t>
-  </si>
-  <si>
-    <t>Bonus Tracks</t>
-  </si>
-  <si>
     <t>Data improvised (guessed)</t>
   </si>
   <si>
@@ -1225,6 +1188,24 @@
   </si>
   <si>
     <t>artist_id</t>
+  </si>
+  <si>
+    <t>10 Years Of Hits A Hundred Miles or More</t>
+  </si>
+  <si>
+    <t>All Things Bright And Beautiful - Deluxe</t>
+  </si>
+  <si>
+    <t>All Things Bright And Beautiful</t>
+  </si>
+  <si>
+    <t>[EP]</t>
+  </si>
+  <si>
+    <t>Electric Music For The Mind And Body</t>
+  </si>
+  <si>
+    <t>From Detroit to St. Germain</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,12 +1252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1313,13 +1288,14 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,11 +1603,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" workbookViewId="2">
+    <sheetView workbookViewId="1">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1674,820 +1649,820 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="G2" s="4">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="H2">
-        <v>1446</v>
+        <v>5366</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="H3">
-        <v>5677</v>
+        <v>4444</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G4" s="4">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="H4">
-        <v>3692</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>356</v>
+        <v>3258</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="G5" s="4">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="H5">
-        <v>6488</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>383</v>
+        <v>10086</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="G6" s="4">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="H6">
-        <v>4444</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="G7" s="4">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="H7">
-        <v>3258</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="H8">
-        <v>8776</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>357</v>
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="H9">
-        <v>7271</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4">
-        <v>142</v>
+        <v>512</v>
       </c>
       <c r="H10">
-        <v>5771</v>
+        <v>20045</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4">
-        <v>1111</v>
+        <v>397</v>
       </c>
       <c r="H11">
-        <v>34731</v>
+        <v>11596</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>135</v>
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="H12">
-        <v>6588</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="H13">
-        <v>4929</v>
+        <v>12854</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="G14" s="4">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="H14">
-        <v>8874</v>
+        <v>10236</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="4">
         <v>149</v>
       </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="4">
-        <v>238</v>
-      </c>
       <c r="H15">
-        <v>9330</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="H16">
-        <v>4006</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="H17">
-        <v>3951</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>334</v>
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="H18">
-        <v>9109</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>335</v>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
       </c>
       <c r="G19" s="4">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="H19">
-        <v>2269</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G20" s="4">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="H20">
-        <v>11766</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G21" s="4">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="H21">
-        <v>12854</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>144</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="G22" s="4">
-        <v>359</v>
+        <v>145</v>
       </c>
       <c r="H22">
-        <v>14107</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4">
-        <v>302</v>
+        <v>123</v>
       </c>
       <c r="H23">
-        <v>11841</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="G24" s="4">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="H24">
-        <v>10569</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>179</v>
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="H25">
-        <v>3575</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G26" s="4">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H26">
-        <v>8959</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="G27" s="4">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="H27">
-        <v>4347</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G28" s="4">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="H28">
-        <v>11442</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G29" s="4">
-        <v>512</v>
+        <v>114</v>
       </c>
       <c r="H29">
-        <v>20045</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="H30">
-        <v>10605</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" t="s">
-        <v>221</v>
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="G31" s="4">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="H31">
-        <v>11546</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G32" s="4">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H32">
-        <v>7553</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2495,19 +2470,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G33" s="4">
         <v>197</v>
@@ -2518,314 +2493,314 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
+        <v>306</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G34" s="4">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H34">
-        <v>9069</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="G35" s="4">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H35">
-        <v>6904</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D36" t="s">
-        <v>236</v>
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="G36" s="4">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="H36">
-        <v>5011</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G37" s="4">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="H37">
-        <v>4722</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>370</v>
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="E38">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G38" s="4">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H38">
-        <v>6914</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="G39" s="4">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="H39">
-        <v>8263</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G40" s="4">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="H40">
-        <v>8646</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="G41" s="4">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="H41">
-        <v>8028</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="G42" s="4">
-        <v>277</v>
+        <v>439</v>
       </c>
       <c r="H42">
-        <v>8667</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="H43">
-        <v>12468</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="G44" s="4">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="H44">
-        <v>7414</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" t="s">
-        <v>318</v>
+        <v>12</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G45" s="4">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H45">
-        <v>7990</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2833,13 +2808,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E46">
         <v>11</v>
@@ -2859,13 +2834,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -2882,652 +2857,652 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="C48" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D48" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48" s="4">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="H48">
-        <v>2906</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="C49" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G49" s="4">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H49">
-        <v>4015</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="G50" s="4">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="H50">
-        <v>11596</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="G51" s="4">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="H51">
-        <v>11972</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H52">
-        <v>9880</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G53" s="4">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="H53">
-        <v>9851</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>302</v>
+        <v>117</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G54" s="4">
-        <v>816</v>
+        <v>276</v>
       </c>
       <c r="H54">
-        <v>25506</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="G55" s="4">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H55">
-        <v>9784</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>264</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="G56" s="4">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H56">
-        <v>9081</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G57" s="4">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="H57">
-        <v>11428</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G58" s="4">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="H58">
-        <v>11141</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="G59" s="4">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="H59">
-        <v>5550</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="G60" s="4">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="H60">
-        <v>11870</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>266</v>
+        <v>92</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" t="s">
-        <v>143</v>
+        <v>305</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G61" s="4">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="H61">
-        <v>10236</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G62" s="4">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="H62">
-        <v>3368</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G63" s="4">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H63">
-        <v>3463</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G64" s="4">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="H64">
-        <v>9222</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" t="s">
         <v>137</v>
       </c>
-      <c r="C65" t="s">
-        <v>34</v>
-      </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="E65">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G65" s="4">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="H65">
-        <v>6176</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="G66" s="4">
-        <v>319</v>
+        <v>816</v>
       </c>
       <c r="H66">
-        <v>7496</v>
+        <v>25506</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="G67" s="4">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H67">
-        <v>10086</v>
+        <v>12468</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="G68" s="4">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="H68">
-        <v>10384</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G69" s="4">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="H69">
-        <v>9158</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="G70" s="4">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="H70">
-        <v>5366</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" t="s">
-        <v>208</v>
+        <v>88</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="G71" s="4">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="H71">
-        <v>3818</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>319</v>
+        <v>198</v>
+      </c>
+      <c r="D72" t="s">
+        <v>199</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="G72" s="4">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="H72">
-        <v>2551</v>
+        <v>10569</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3535,19 +3510,19 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G73" s="4">
         <v>262</v>
@@ -3558,577 +3533,580 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="G74" s="4">
-        <v>206</v>
+        <v>359</v>
       </c>
       <c r="H74">
-        <v>6465</v>
+        <v>14107</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G75" s="4">
-        <v>439</v>
+        <v>300</v>
       </c>
       <c r="H75">
-        <v>6865</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="G76" s="4">
-        <v>400</v>
+        <v>217</v>
       </c>
       <c r="H76">
-        <v>6251</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G77" s="4">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H77">
-        <v>8359</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G78" s="4">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H78">
-        <v>10894</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="E79">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G79" s="4">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="H79">
-        <v>2884</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G80" s="4">
-        <v>149</v>
+        <v>1111</v>
       </c>
       <c r="H80">
-        <v>4094</v>
+        <v>34731</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="G81" s="4">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="H81">
-        <v>9874</v>
+        <v>11972</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="G82" s="4">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="H82">
-        <v>3409</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="G83" s="4">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H83">
-        <v>3408</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G84" s="4">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="H84">
-        <v>5601</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="G85" s="4">
-        <v>213</v>
+        <v>369</v>
       </c>
       <c r="H85">
-        <v>3338</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>227</v>
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" t="s">
+        <v>65</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G86" s="4">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="H86">
-        <v>9693</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="G87" s="4">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="H87">
-        <v>8382</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
-      </c>
-      <c r="C88" t="s">
-        <v>289</v>
-      </c>
-      <c r="D88" t="s">
-        <v>290</v>
+        <v>313</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>337</v>
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>44</v>
       </c>
       <c r="G88" s="4">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="H88">
-        <v>5984</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" t="s">
-        <v>289</v>
+        <v>133</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>293</v>
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
       </c>
       <c r="G89" s="4">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="H89">
-        <v>4444</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>374</v>
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s">
+        <v>255</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="G90" s="4">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="H90">
-        <v>7608</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G91" s="4">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="H91">
-        <v>5025</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>303</v>
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>262</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>305</v>
+        <v>29</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
       </c>
       <c r="E92">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="G92" s="4">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="H92">
-        <v>7862</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="G93" s="4">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="H93">
-        <v>4866</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G94" s="4">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="H94">
-        <v>5686</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="G95" s="4">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="H95">
-        <v>4594</v>
+        <v>9874</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H95">
+    <sortCondition ref="C2:C95"/>
+  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4140,901 +4118,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="11"/>
+      <c r="F2" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="F3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="11"/>
+      <c r="F4" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="11"/>
+      <c r="F5" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="F6" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C41" s="9" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="9" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C43" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
+      <c r="C44" s="14">
+        <v>38875</v>
+      </c>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="12">
-        <v>38875</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
+      <c r="A45" s="11"/>
+      <c r="B45" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
+      <c r="A48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
+      <c r="A51" s="11"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
+      <c r="A52" s="11"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
+      <c r="A53" s="11"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
+      <c r="A54" s="11"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
+      <c r="A56" s="11"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
+      <c r="A57" s="11"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
+      <c r="A58" s="11"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
+      <c r="A59" s="11"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
+      <c r="A60" s="11"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
+      <c r="A61" s="11"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
+      <c r="A62" s="11"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
+      <c r="A63" s="11"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
+      <c r="A64" s="11"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
+      <c r="A65" s="11"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
+      <c r="A66" s="11"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
+      <c r="A67" s="11"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
+      <c r="A68" s="11"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
+      <c r="A69" s="11"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
+      <c r="A70" s="11"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
+      <c r="A71" s="11"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
+      <c r="A72" s="11"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
+      <c r="A73" s="11"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
+      <c r="A74" s="11"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
+      <c r="A75" s="11"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5046,17 +4719,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5105,11 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2">
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -5131,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5139,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5147,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5155,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5163,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5179,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5187,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5195,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5203,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5219,7 +4888,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5227,7 +4896,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5235,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5243,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5251,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5259,7 +4928,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5267,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5275,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5283,7 +4952,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5291,7 +4960,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5299,7 +4968,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5307,7 +4976,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5315,7 +4984,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5323,7 +4992,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5331,7 +5000,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -5347,7 +5016,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -5355,7 +5024,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -5363,7 +5032,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -5371,7 +5040,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5379,7 +5048,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -5387,7 +5056,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -5395,7 +5064,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -5403,7 +5072,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -5411,7 +5080,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -5419,7 +5088,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -5427,7 +5096,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -5435,7 +5104,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -5443,7 +5112,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -5451,7 +5120,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -5459,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -5467,7 +5136,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -5475,7 +5144,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -5483,7 +5152,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -5491,7 +5160,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -5499,7 +5168,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -5507,7 +5176,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -5515,7 +5184,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -5523,7 +5192,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -5539,7 +5208,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -5547,7 +5216,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -5555,7 +5224,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -5563,7 +5232,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -5571,7 +5240,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -5579,7 +5248,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -5587,7 +5256,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -5595,7 +5264,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -5603,7 +5272,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -5611,7 +5280,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -5619,7 +5288,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -5627,7 +5296,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -5635,7 +5304,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -5643,7 +5312,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -5651,7 +5320,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -5659,7 +5328,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -5667,7 +5336,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -5675,7 +5344,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -5683,7 +5352,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -5691,7 +5360,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -5699,7 +5368,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -5707,7 +5376,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -5715,7 +5384,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5725,479 +5394,338 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>Sheet1!A2</f>
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>Sheet1!A3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>Sheet1!A4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>Sheet1!A5</f>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>Sheet1!A6</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>Sheet1!A7</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>Sheet1!A8</f>
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>Sheet1!A9</f>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>Sheet1!A10</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>Sheet1!A11</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>Sheet1!A12</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>Sheet1!A13</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>Sheet1!A14</f>
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="C15" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>Sheet1!A15</f>
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>Sheet1!A16</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>Sheet1!A17</f>
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
-      <c r="C18" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>Sheet1!A18</f>
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>Sheet1!A19</f>
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>11</v>
       </c>
-      <c r="C20" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>Sheet1!A20</f>
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>Sheet1!A21</f>
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
-      <c r="C22" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>Sheet1!A22</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>Sheet1!A23</f>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>13</v>
       </c>
-      <c r="C24" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>Sheet1!A24</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
-      <c r="C25" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>Sheet1!A25</f>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
-      <c r="C26" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
-      <c r="C27" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>Sheet1!A26</f>
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>17</v>
       </c>
-      <c r="C28" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>Sheet1!A27</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>18</v>
       </c>
-      <c r="C29" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
         <v>19</v>
       </c>
-      <c r="C30" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>Sheet1!A28</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>20</v>
       </c>
-      <c r="C31" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32">
         <v>21</v>
       </c>
-      <c r="C32" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>Sheet1!A29</f>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>22</v>
       </c>
-      <c r="C33" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>Sheet1!A30</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>23</v>
       </c>
-      <c r="C34" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>Sheet1!A31</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>24</v>
       </c>
-      <c r="C35" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>Sheet1!A32</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>25</v>
       </c>
-      <c r="C36" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>Sheet1!A33</f>
         <v>33</v>
@@ -6205,168 +5733,116 @@
       <c r="B37">
         <v>26</v>
       </c>
-      <c r="C37" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>Sheet1!A34</f>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>27</v>
       </c>
-      <c r="C38" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>Sheet1!A35</f>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>28</v>
       </c>
-      <c r="C39" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>Sheet1!A36</f>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>29</v>
       </c>
-      <c r="C40" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>Sheet1!A37</f>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B41">
         <v>30</v>
       </c>
-      <c r="C41" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>Sheet1!A38</f>
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B42">
         <v>31</v>
       </c>
-      <c r="C42" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>Sheet1!A39</f>
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>32</v>
       </c>
-      <c r="C43" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>Sheet1!A40</f>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>19</v>
       </c>
-      <c r="C44" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>Sheet1!A41</f>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>19</v>
       </c>
-      <c r="C45" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>Sheet1!A42</f>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>19</v>
       </c>
-      <c r="C46" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>Sheet1!A43</f>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>33</v>
       </c>
-      <c r="C47" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>Sheet1!A44</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>34</v>
       </c>
-      <c r="C48" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>Sheet1!A45</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>35</v>
       </c>
-      <c r="C49" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>Sheet1!A46</f>
         <v>46</v>
@@ -6374,12 +5850,8 @@
       <c r="B50">
         <v>36</v>
       </c>
-      <c r="C50" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>Sheet1!A47</f>
         <v>47</v>
@@ -6387,373 +5859,257 @@
       <c r="B51">
         <v>36</v>
       </c>
-      <c r="C51" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>Sheet1!A48</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>36</v>
       </c>
-      <c r="C52" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
       <c r="B53">
         <v>37</v>
       </c>
-      <c r="C53" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>Sheet1!A49</f>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>36</v>
       </c>
-      <c r="C54" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>49</v>
       </c>
       <c r="B55">
         <v>37</v>
       </c>
-      <c r="C55" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>Sheet1!A50</f>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <v>38</v>
       </c>
-      <c r="C56" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>Sheet1!A51</f>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>39</v>
       </c>
-      <c r="C57" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>Sheet1!A52</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>40</v>
       </c>
-      <c r="C58" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>Sheet1!A53</f>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B59">
         <v>40</v>
       </c>
-      <c r="C59" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>Sheet1!A54</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B60">
         <v>41</v>
       </c>
-      <c r="C60" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>Sheet1!A55</f>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B61">
         <v>42</v>
       </c>
-      <c r="C61" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>Sheet1!A56</f>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B62">
         <v>44</v>
       </c>
-      <c r="C62" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>56</v>
       </c>
       <c r="B63">
         <v>45</v>
       </c>
-      <c r="C63" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>Sheet1!A57</f>
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B64">
         <v>46</v>
       </c>
-      <c r="C64" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>Sheet1!A58</f>
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <v>46</v>
       </c>
-      <c r="C65" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <f>Sheet1!A59</f>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B66">
         <v>47</v>
       </c>
-      <c r="C66" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>Sheet1!A60</f>
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>47</v>
       </c>
-      <c r="C67" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>Sheet1!A61</f>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>48</v>
       </c>
-      <c r="C68" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <f>Sheet1!A62</f>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <v>49</v>
       </c>
-      <c r="C69" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <f>Sheet1!A63</f>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <v>50</v>
       </c>
-      <c r="C70" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <f>Sheet1!A64</f>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>51</v>
       </c>
-      <c r="C71" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <f>Sheet1!A65</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>52</v>
       </c>
-      <c r="C72" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <f>Sheet1!A66</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B73">
         <v>53</v>
       </c>
-      <c r="C73" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <f>Sheet1!A67</f>
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B74">
         <v>54</v>
       </c>
-      <c r="C74" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <f>Sheet1!A68</f>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B75">
         <v>54</v>
       </c>
-      <c r="C75" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <f>Sheet1!A69</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>55</v>
       </c>
-      <c r="C76" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <f>Sheet1!A70</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>56</v>
       </c>
-      <c r="C77" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <f>Sheet1!A71</f>
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B78">
         <v>57</v>
       </c>
-      <c r="C78" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <f>Sheet1!A72</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>57</v>
       </c>
-      <c r="C79" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>Sheet1!A73</f>
         <v>73</v>
@@ -6761,295 +6117,203 @@
       <c r="B80">
         <v>58</v>
       </c>
-      <c r="C80" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <f>Sheet1!A74</f>
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B81">
         <v>59</v>
       </c>
-      <c r="C81" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <f>Sheet1!A75</f>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B82">
         <v>60</v>
       </c>
-      <c r="C82" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>Sheet1!A76</f>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>60</v>
       </c>
-      <c r="C83" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <f>Sheet1!A77</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84">
         <v>61</v>
       </c>
-      <c r="C84" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <f>Sheet1!A78</f>
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B85">
         <v>62</v>
       </c>
-      <c r="C85" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <f>Sheet1!A79</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B86">
         <v>63</v>
       </c>
-      <c r="C86" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <f>Sheet1!A80</f>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B87">
         <v>64</v>
       </c>
-      <c r="C87" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <f>Sheet1!A81</f>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B88">
         <v>65</v>
       </c>
-      <c r="C88" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <f>Sheet1!A82</f>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B89">
         <v>37</v>
       </c>
-      <c r="C89" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <f>Sheet1!A83</f>
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>66</v>
       </c>
-      <c r="C90" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <f>Sheet1!A84</f>
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>67</v>
       </c>
-      <c r="C91" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <f>Sheet1!A85</f>
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B92">
         <v>68</v>
       </c>
-      <c r="C92" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <f>Sheet1!A86</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B93">
         <v>69</v>
       </c>
-      <c r="C93" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <f>Sheet1!A87</f>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>70</v>
       </c>
-      <c r="C94" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <f>Sheet1!A88</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95">
         <v>71</v>
       </c>
-      <c r="C95" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <f>Sheet1!A89</f>
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B96">
         <v>71</v>
       </c>
-      <c r="C96" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <f>Sheet1!A90</f>
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B97">
         <v>72</v>
       </c>
-      <c r="C97" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <f>Sheet1!A91</f>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B98">
         <v>73</v>
       </c>
-      <c r="C98" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <f>Sheet1!A92</f>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B99">
         <v>74</v>
       </c>
-      <c r="C99" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <f>Sheet1!A93</f>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B100">
         <v>75</v>
       </c>
-      <c r="C100" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <f>Sheet1!A94</f>
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B101">
         <v>75</v>
       </c>
-      <c r="C101" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <f>Sheet1!A95</f>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B102">
         <v>75</v>
-      </c>
-      <c r="C102" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/data_files/data_integrity.xlsx
+++ b/data_files/data_integrity.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\13CSI\csi-music-website\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tech/PhpstormProjects/csi-music-website/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539580F-BC19-8141-A4CE-A2C9CFC79401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12300"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14480" yWindow="8200" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +21,27 @@
     <sheet name="artists" sheetId="6" r:id="rId4"/>
     <sheet name="track_to_artist" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="387">
   <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>Album</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -80,9 +90,6 @@
     <t>Alabama Blues.mp3</t>
   </si>
   <si>
-    <t>From Detroit to St Germain</t>
-  </si>
-  <si>
     <t>Alabama Blues</t>
   </si>
   <si>
@@ -95,9 +102,6 @@
     <t>Arlo Guthrie</t>
   </si>
   <si>
-    <t>The Best of Arlo Guthrie</t>
-  </si>
-  <si>
     <t>Alice's Restaurant Massacree</t>
   </si>
   <si>
@@ -113,9 +117,6 @@
     <t>All The Young Dudes.mp3</t>
   </si>
   <si>
-    <t>Under The Covers: Vol. 2</t>
-  </si>
-  <si>
     <t>All The Young Dudes (David Bowie)</t>
   </si>
   <si>
@@ -140,9 +141,6 @@
     <t>Faith Hill</t>
   </si>
   <si>
-    <t>American Heart - Single</t>
-  </si>
-  <si>
     <t>American Heart</t>
   </si>
   <si>
@@ -176,9 +174,6 @@
     <t>Alison Krauss</t>
   </si>
   <si>
-    <t>A Hundred Miles or More: A Collection</t>
-  </si>
-  <si>
     <t>Bluegrass</t>
   </si>
   <si>
@@ -188,9 +183,6 @@
     <t>Big Jet Plane (Radio Edit).mp3</t>
   </si>
   <si>
-    <t>Big Jet Plane [EP]</t>
-  </si>
-  <si>
     <t>Big Jet Plane (Radio Edit)</t>
   </si>
   <si>
@@ -218,9 +210,6 @@
     <t>Stevie Wonder</t>
   </si>
   <si>
-    <t>The Definitive Collection</t>
-  </si>
-  <si>
     <t>Boogie On Reggae Woman</t>
   </si>
   <si>
@@ -374,9 +363,6 @@
     <t>Herbs</t>
   </si>
   <si>
-    <t>Lights of the Pacific: The Very Best Of</t>
-  </si>
-  <si>
     <t>French Letter</t>
   </si>
   <si>
@@ -395,9 +381,6 @@
     <t>Got The Love - 2009.mp3</t>
   </si>
   <si>
-    <t>The Collection Vol.1 CD2</t>
-  </si>
-  <si>
     <t>Got The Love</t>
   </si>
   <si>
@@ -407,9 +390,6 @@
     <t>Icehouse</t>
   </si>
   <si>
-    <t>Primitive Man [Bonus Tracks]</t>
-  </si>
-  <si>
     <t>Great Southern Land</t>
   </si>
   <si>
@@ -428,9 +408,6 @@
     <t>Hard Travelin' Hootenanny.mp3</t>
   </si>
   <si>
-    <t>Til We Outnumber 'Em: Woody Guthrie</t>
-  </si>
-  <si>
     <t>Hard Travelin' Hootenanny</t>
   </si>
   <si>
@@ -467,9 +444,6 @@
     <t>How Sweet Can You Get - 2009.mp3</t>
   </si>
   <si>
-    <t>The Collection Vol.2 CD1</t>
-  </si>
-  <si>
     <t>How Sweet Can You Get</t>
   </si>
   <si>
@@ -512,9 +486,6 @@
     <t>Belinda Carlisle</t>
   </si>
   <si>
-    <t>A Place On Earth - The Greatest Hits (CD 1/2)</t>
-  </si>
-  <si>
     <t>Leave a Light On</t>
   </si>
   <si>
@@ -656,9 +627,6 @@
     <t>Imagine Dragons</t>
   </si>
   <si>
-    <t>Continued Silence EP</t>
-  </si>
-  <si>
     <t>Radioactive</t>
   </si>
   <si>
@@ -698,9 +666,6 @@
     <t>Slice of Heaven.mp3</t>
   </si>
   <si>
-    <t>Footrot Flats: A Dog's Tale</t>
-  </si>
-  <si>
     <t>Slice of Heaven</t>
   </si>
   <si>
@@ -800,9 +765,6 @@
     <t>Joe Cocker</t>
   </si>
   <si>
-    <t>The Best of Joe Cocker [Mushroom]</t>
-  </si>
-  <si>
     <t>Unchain My Heart [90's Version]</t>
   </si>
   <si>
@@ -845,9 +807,6 @@
     <t>You Probably Couldn't See For The Lights, But You Were Staring Straight At Me.mp3</t>
   </si>
   <si>
-    <t>Live In Texas (7 June 2006)</t>
-  </si>
-  <si>
     <t>You Probably Couldn't See For The Lights, But You Were Staring Straight At Me</t>
   </si>
   <si>
@@ -869,9 +828,6 @@
     <t>The Cranberries</t>
   </si>
   <si>
-    <t>Zombie (UK Single - Part 1) [Island - CID 600-854 110-2]</t>
-  </si>
-  <si>
     <t>Zombie</t>
   </si>
   <si>
@@ -923,9 +879,6 @@
     <t>Lynyrd Skynyrd</t>
   </si>
   <si>
-    <t>One More from the Road [MG]</t>
-  </si>
-  <si>
     <t>Free Bird Live [Fox Theater]</t>
   </si>
   <si>
@@ -941,9 +894,6 @@
     <t>Wolfstone</t>
   </si>
   <si>
-    <t>Live! Not Enough Shouting</t>
-  </si>
-  <si>
     <t>Mary.mp3</t>
   </si>
   <si>
@@ -962,9 +912,6 @@
     <t>James Taylor</t>
   </si>
   <si>
-    <t>Listen: The Very Best of Herbs</t>
-  </si>
-  <si>
     <t>Slice Of Heaven.mp3</t>
   </si>
   <si>
@@ -995,9 +942,6 @@
     <t>Woman</t>
   </si>
   <si>
-    <t>Walk Like An Egyptian: The Best Of_CD 2</t>
-  </si>
-  <si>
     <t>Tell me</t>
   </si>
   <si>
@@ -1016,9 +960,6 @@
     <t>Nina Simone</t>
   </si>
   <si>
-    <t>To Love Somebody (1969), Here Comes the Sun (1971)</t>
-  </si>
-  <si>
     <t>Turn! Turn! Turn!</t>
   </si>
   <si>
@@ -1085,9 +1026,6 @@
     <t>Say You Will</t>
   </si>
   <si>
-    <t>Three Decades Of Males; Disc 2</t>
-  </si>
-  <si>
     <t>Jethro Tull</t>
   </si>
   <si>
@@ -1103,9 +1041,6 @@
     <t>The Bangles</t>
   </si>
   <si>
-    <t>2: Gernre</t>
-  </si>
-  <si>
     <t>3: Playlist</t>
   </si>
   <si>
@@ -1190,12 +1125,6 @@
     <t>artist_id</t>
   </si>
   <si>
-    <t>10 Years Of Hits A Hundred Miles or More</t>
-  </si>
-  <si>
-    <t>All Things Bright And Beautiful - Deluxe</t>
-  </si>
-  <si>
     <t>All Things Bright And Beautiful</t>
   </si>
   <si>
@@ -1206,12 +1135,75 @@
   </si>
   <si>
     <t>From Detroit to St. Germain</t>
+  </si>
+  <si>
+    <t>A Hundred Miles or More</t>
+  </si>
+  <si>
+    <t>Live!</t>
+  </si>
+  <si>
+    <t>Not Enough Shouting!</t>
+  </si>
+  <si>
+    <t>One More from the Road</t>
+  </si>
+  <si>
+    <t>[MG]</t>
+  </si>
+  <si>
+    <t>Primitive Man</t>
+  </si>
+  <si>
+    <t>Bonus Tracks</t>
+  </si>
+  <si>
+    <t>The Best of Ario Guthrie</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>The Best of Joe Cocker</t>
+  </si>
+  <si>
+    <t>The Collection</t>
+  </si>
+  <si>
+    <t>The Deginitive Collection</t>
+  </si>
+  <si>
+    <t>Til We Outnumber 'Em</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>To Love Somebody</t>
+  </si>
+  <si>
+    <t>Here Comes the Sun</t>
+  </si>
+  <si>
+    <t>Under The Covers</t>
+  </si>
+  <si>
+    <t>Walk Like An Egyption</t>
+  </si>
+  <si>
+    <t>The Best Of</t>
+  </si>
+  <si>
+    <t>UK Single</t>
+  </si>
+  <si>
+    <t>2: Genre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1268,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1276,11 +1268,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1289,13 +1290,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,6 +1392,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1424,6 +1444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1599,31 +1636,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="5"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1637,2476 +1674,2188 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2">
+        <v>161</v>
+      </c>
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="4">
         <v>228</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>5366</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3">
+        <v>207</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4">
         <v>284</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>4444</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="4">
+        <v>260</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4">
         <v>208</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>3258</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5">
+        <v>189</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="4">
         <v>308</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>10086</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6">
+        <v>149</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4">
         <v>256</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>4006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7">
+        <v>157</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4">
         <v>252</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>3951</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4">
         <v>195</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>6176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4">
         <v>230</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>9069</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="4">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4">
         <v>512</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>20045</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4">
         <v>397</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <v>11596</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
         <v>301</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <v>11766</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13">
+        <v>232</v>
+      </c>
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4">
         <v>328</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <v>12854</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14">
+        <v>130</v>
+      </c>
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="4">
         <v>307</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <v>10236</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4">
         <v>149</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <v>4094</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="4">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4">
         <v>223</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <v>8776</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17">
+        <v>53</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4">
         <v>213</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <v>3338</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4">
         <v>365</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>11428</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19">
+        <v>138</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="4">
         <v>356</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <v>11141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20">
+        <v>304</v>
+      </c>
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="4">
         <v>160</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <v>5025</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="F21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="4">
         <v>214</v>
       </c>
-      <c r="H21">
+      <c r="G21">
         <v>8382</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="E22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="4">
         <v>145</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <v>2269</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23">
+        <v>289</v>
+      </c>
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="4">
         <v>123</v>
       </c>
-      <c r="H23">
+      <c r="G23">
         <v>2906</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24">
+        <v>297</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="4">
         <v>205</v>
       </c>
-      <c r="H24">
+      <c r="G24">
         <v>4015</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="4">
+        <v>196</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4">
         <v>188</v>
       </c>
-      <c r="H25">
+      <c r="G25">
         <v>7414</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26">
+        <v>258</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
         <v>217</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>3409</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27">
+        <v>146</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="4">
         <v>201</v>
       </c>
-      <c r="H27">
+      <c r="G27">
         <v>4722</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28">
+        <v>61</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="4">
         <v>339</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <v>10605</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29">
+        <v>200</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4">
         <v>114</v>
       </c>
-      <c r="H29">
+      <c r="G29">
         <v>3692</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30">
+        <v>244</v>
+      </c>
+      <c r="D30">
         <v>11</v>
       </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="4">
         <v>204</v>
       </c>
-      <c r="H30">
+      <c r="G30">
         <v>6488</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31">
         <v>14</v>
       </c>
-      <c r="F31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="4">
         <v>152</v>
       </c>
-      <c r="H31">
+      <c r="G31">
         <v>3575</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32">
+        <v>121</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4">
         <v>211</v>
       </c>
-      <c r="H32">
+      <c r="G32">
         <v>8263</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33">
+        <v>83</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="F33" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="4">
         <v>197</v>
       </c>
-      <c r="H33">
+      <c r="G33">
         <v>7893</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34">
         <v>14</v>
       </c>
-      <c r="F34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="4">
         <v>233</v>
       </c>
-      <c r="H34">
+      <c r="G34">
         <v>9109</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35">
+        <v>180</v>
+      </c>
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="F35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="4">
         <v>236</v>
       </c>
-      <c r="H35">
+      <c r="G35">
         <v>5550</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="4">
+        <v>86</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="4">
         <v>181</v>
       </c>
-      <c r="H36">
+      <c r="G36">
         <v>7271</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" t="s">
-        <v>240</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="4">
+        <v>224</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="4">
         <v>292</v>
       </c>
-      <c r="H37">
+      <c r="G37">
         <v>9158</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38">
+        <v>104</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="4">
         <v>207</v>
       </c>
-      <c r="H38">
+      <c r="G38">
         <v>4866</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39">
+        <v>172</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="4">
         <v>242</v>
       </c>
-      <c r="H39">
+      <c r="G39">
         <v>5686</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40">
+        <v>226</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="F40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="4">
         <v>195</v>
       </c>
-      <c r="H40">
+      <c r="G40">
         <v>4594</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41">
+        <v>209</v>
+      </c>
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4">
         <v>277</v>
       </c>
-      <c r="H41">
+      <c r="G41">
         <v>4347</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="F42" s="4">
         <v>439</v>
       </c>
-      <c r="H42">
+      <c r="G42">
         <v>6865</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="F43" s="4">
         <v>400</v>
       </c>
-      <c r="H43">
+      <c r="G43">
         <v>6251</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" t="s">
-        <v>246</v>
-      </c>
-      <c r="E44">
+        <v>230</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
-        <v>176</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="E44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="4">
         <v>319</v>
       </c>
-      <c r="H44">
+      <c r="G44">
         <v>7496</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D45" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45">
         <v>11</v>
       </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="C45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="4">
         <v>221</v>
       </c>
-      <c r="H45">
+      <c r="G45">
         <v>6914</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" t="s">
-        <v>310</v>
-      </c>
-      <c r="E46">
+        <v>289</v>
+      </c>
+      <c r="D46">
         <v>11</v>
       </c>
-      <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="4">
         <v>241</v>
       </c>
-      <c r="H46">
+      <c r="G46">
         <v>9426</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
-      </c>
-      <c r="D47" t="s">
-        <v>319</v>
-      </c>
-      <c r="E47">
+        <v>297</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="4">
         <v>174</v>
       </c>
-      <c r="H47">
+      <c r="G47">
         <v>6818</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" t="s">
-        <v>295</v>
-      </c>
-      <c r="E48">
+        <v>276</v>
+      </c>
+      <c r="D48">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="4">
         <v>252</v>
       </c>
-      <c r="H48">
+      <c r="G48">
         <v>9880</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49">
+        <v>237</v>
+      </c>
+      <c r="D49">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="4">
         <v>220</v>
       </c>
-      <c r="H49">
+      <c r="G49">
         <v>8959</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E50">
+        <v>269</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="E50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="4">
         <v>208</v>
       </c>
-      <c r="H50">
+      <c r="G50">
         <v>5984</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" t="s">
-        <v>290</v>
-      </c>
-      <c r="E51">
+        <v>271</v>
+      </c>
+      <c r="D51">
         <v>2</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="E51" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" s="4">
         <v>143</v>
       </c>
-      <c r="H51">
+      <c r="G51">
         <v>4444</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D52" t="s">
-        <v>295</v>
-      </c>
-      <c r="E52">
+        <v>276</v>
+      </c>
+      <c r="D52">
         <v>7</v>
       </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="4">
         <v>251</v>
       </c>
-      <c r="H52">
+      <c r="G52">
         <v>9851</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="4">
+        <v>142</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="4">
         <v>179</v>
       </c>
-      <c r="H53">
+      <c r="G53">
         <v>5601</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54">
+        <v>108</v>
+      </c>
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="F54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="E54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="4">
         <v>276</v>
       </c>
-      <c r="H54">
+      <c r="G54">
         <v>8646</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55">
+        <v>191</v>
+      </c>
+      <c r="D55">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="4">
         <v>256</v>
       </c>
-      <c r="H55">
+      <c r="G55">
         <v>8028</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" s="4">
+        <v>347</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" s="4">
         <v>243</v>
       </c>
-      <c r="H56">
+      <c r="G56">
         <v>7608</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57" s="4">
         <v>60</v>
       </c>
-      <c r="H57">
+      <c r="G57">
         <v>1446</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="D58" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="F58" s="4">
         <v>206</v>
       </c>
-      <c r="H58">
+      <c r="G58">
         <v>5677</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>312</v>
-      </c>
-      <c r="D59" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59">
+        <v>209</v>
+      </c>
+      <c r="D59">
         <v>11</v>
       </c>
-      <c r="F59" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="4">
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="4">
         <v>277</v>
       </c>
-      <c r="H59">
+      <c r="G59">
         <v>8667</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
-      </c>
-      <c r="D60" t="s">
-        <v>274</v>
-      </c>
-      <c r="E60">
+        <v>256</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="F60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" s="4">
+      <c r="E60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="4">
         <v>142</v>
       </c>
-      <c r="H60">
+      <c r="G60">
         <v>5771</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C61" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E61">
+        <v>281</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61">
         <v>14</v>
       </c>
-      <c r="F61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="4">
         <v>287</v>
       </c>
-      <c r="H61">
+      <c r="G61">
         <v>7862</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
-      </c>
-      <c r="D62" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62">
+        <v>222</v>
+      </c>
+      <c r="D62">
         <v>6</v>
       </c>
-      <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="4">
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="4">
         <v>292</v>
       </c>
-      <c r="H62">
+      <c r="G62">
         <v>11442</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
         <v>15</v>
       </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="4">
+      <c r="F63" s="4">
         <v>233</v>
       </c>
-      <c r="H63">
+      <c r="G63">
         <v>6904</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64">
+        <v>246</v>
+      </c>
+      <c r="D64">
         <v>6</v>
       </c>
-      <c r="F64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="4">
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="4">
         <v>250</v>
       </c>
-      <c r="H64">
+      <c r="G64">
         <v>9784</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65">
+        <v>126</v>
+      </c>
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="F65" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4">
         <v>294</v>
       </c>
-      <c r="H65">
+      <c r="G65">
         <v>9222</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
-      </c>
-      <c r="D66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E66">
+        <v>280</v>
+      </c>
+      <c r="D66">
         <v>12</v>
       </c>
-      <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="4">
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="4">
         <v>816</v>
       </c>
-      <c r="H66">
+      <c r="G66">
         <v>25506</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="4">
+        <v>117</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="4">
         <v>319</v>
       </c>
-      <c r="H67">
+      <c r="G67">
         <v>12468</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
-      </c>
-      <c r="D68" t="s">
-        <v>317</v>
-      </c>
-      <c r="E68">
+        <v>295</v>
+      </c>
+      <c r="D68">
         <v>10</v>
       </c>
-      <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="4">
         <v>204</v>
       </c>
-      <c r="H68">
+      <c r="G68">
         <v>7990</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="4">
+        <v>286</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="4">
         <v>244</v>
       </c>
-      <c r="H69">
+      <c r="G69">
         <v>3818</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" s="4">
+        <v>285</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="4">
         <v>162</v>
       </c>
-      <c r="H70">
+      <c r="G70">
         <v>2551</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D71" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71">
         <v>13</v>
       </c>
-      <c r="F71" t="s">
-        <v>200</v>
-      </c>
-      <c r="G71" s="4">
+      <c r="E71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="4">
         <v>213</v>
       </c>
-      <c r="H71">
+      <c r="G71">
         <v>5011</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72">
+        <v>185</v>
+      </c>
+      <c r="D72">
         <v>5</v>
       </c>
-      <c r="F72" t="s">
-        <v>200</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="E72" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="4">
         <v>270</v>
       </c>
-      <c r="H72">
+      <c r="G72">
         <v>10569</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D73" t="s">
-        <v>284</v>
-      </c>
-      <c r="E73">
+        <v>292</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="F73" t="s">
-        <v>99</v>
-      </c>
-      <c r="G73" s="4">
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="4">
         <v>262</v>
       </c>
-      <c r="H73">
+      <c r="G73">
         <v>4101</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
-      </c>
-      <c r="D74" t="s">
-        <v>228</v>
-      </c>
-      <c r="E74">
+        <v>212</v>
+      </c>
+      <c r="D74">
         <v>4</v>
       </c>
-      <c r="F74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="4">
         <v>359</v>
       </c>
-      <c r="H74">
+      <c r="G74">
         <v>14107</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
-      </c>
-      <c r="D75" t="s">
-        <v>266</v>
-      </c>
-      <c r="E75">
+        <v>249</v>
+      </c>
+      <c r="D75">
         <v>3</v>
       </c>
-      <c r="F75" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" s="4">
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="4">
         <v>300</v>
       </c>
-      <c r="H75">
+      <c r="G75">
         <v>11870</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
-      </c>
-      <c r="D76" t="s">
-        <v>270</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>271</v>
-      </c>
-      <c r="G76" s="4">
+        <v>253</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="4">
         <v>217</v>
       </c>
-      <c r="H76">
+      <c r="G76">
         <v>3408</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77">
+        <v>99</v>
+      </c>
+      <c r="D77">
         <v>7</v>
       </c>
-      <c r="F77" t="s">
-        <v>108</v>
-      </c>
-      <c r="G77" s="4">
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="4">
         <v>206</v>
       </c>
-      <c r="H77">
+      <c r="G77">
         <v>6465</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
-      </c>
-      <c r="D78" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="4">
+        <v>216</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="4">
         <v>302</v>
       </c>
-      <c r="H78">
+      <c r="G78">
         <v>11841</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" t="s">
-        <v>190</v>
-      </c>
-      <c r="E79">
+        <v>176</v>
+      </c>
+      <c r="D79">
         <v>5</v>
       </c>
-      <c r="F79" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="4">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="4">
         <v>213</v>
       </c>
-      <c r="H79">
+      <c r="G79">
         <v>8359</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>10</v>
       </c>
       <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
         <v>21</v>
       </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="4">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="4">
         <v>1111</v>
       </c>
-      <c r="H80">
+      <c r="G80">
         <v>34731</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
-      </c>
-      <c r="D81" t="s">
-        <v>259</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" s="4">
+        <v>242</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="4">
         <v>306</v>
       </c>
-      <c r="H81">
+      <c r="G81">
         <v>11972</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82">
+        <v>154</v>
+      </c>
+      <c r="D82">
         <v>8</v>
       </c>
-      <c r="F82" t="s">
-        <v>169</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="4">
         <v>142</v>
       </c>
-      <c r="H82">
+      <c r="G82">
         <v>3368</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83">
+        <v>114</v>
+      </c>
+      <c r="D83">
         <v>12</v>
       </c>
-      <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" s="4">
+      <c r="E83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="4">
         <v>227</v>
       </c>
-      <c r="H83">
+      <c r="G83">
         <v>8874</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" t="s">
-        <v>148</v>
-      </c>
-      <c r="E84">
+        <v>135</v>
+      </c>
+      <c r="D84">
         <v>9</v>
       </c>
-      <c r="F84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" s="4">
+      <c r="E84" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="4">
         <v>238</v>
       </c>
-      <c r="H84">
+      <c r="G84">
         <v>9330</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>31</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" t="s">
-        <v>220</v>
-      </c>
-      <c r="E85">
+        <v>205</v>
+      </c>
+      <c r="D85">
         <v>5</v>
       </c>
-      <c r="F85" t="s">
-        <v>152</v>
-      </c>
-      <c r="G85" s="4">
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="4">
         <v>369</v>
       </c>
-      <c r="H85">
+      <c r="G85">
         <v>11546</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86">
+        <v>57</v>
+      </c>
+      <c r="D86">
         <v>4</v>
       </c>
-      <c r="F86" t="s">
-        <v>66</v>
-      </c>
-      <c r="G86" s="4">
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="4">
         <v>314</v>
       </c>
-      <c r="H86">
+      <c r="G86">
         <v>10894</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87">
+        <v>169</v>
+      </c>
+      <c r="D87">
         <v>4</v>
       </c>
-      <c r="F87" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="4">
         <v>329</v>
       </c>
-      <c r="H87">
+      <c r="G87">
         <v>10384</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="4">
+        <v>209</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="4">
         <v>248</v>
       </c>
-      <c r="H88">
+      <c r="G88">
         <v>9693</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D89" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="4">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="4">
         <v>210</v>
       </c>
-      <c r="H89">
+      <c r="G89">
         <v>6588</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90" t="s">
-        <v>255</v>
-      </c>
-      <c r="E90">
+        <v>238</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90">
         <v>19</v>
       </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="4">
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="4">
         <v>157</v>
       </c>
-      <c r="H90">
+      <c r="G90">
         <v>4929</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91">
+        <v>307</v>
+      </c>
+      <c r="D91">
         <v>2</v>
       </c>
-      <c r="F91" t="s">
-        <v>45</v>
-      </c>
-      <c r="G91" s="4">
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="4">
         <v>221</v>
       </c>
-      <c r="H91">
+      <c r="G91">
         <v>3463</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
-        <v>30</v>
-      </c>
-      <c r="E92">
+        <v>26</v>
+      </c>
+      <c r="D92">
         <v>5</v>
       </c>
-      <c r="F92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" s="4">
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="4">
         <v>232</v>
       </c>
-      <c r="H92">
+      <c r="G92">
         <v>9081</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>323</v>
-      </c>
-      <c r="D93" t="s">
-        <v>324</v>
-      </c>
-      <c r="E93">
+        <v>301</v>
+      </c>
+      <c r="D93">
         <v>14</v>
       </c>
-      <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" s="4">
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="4">
         <v>135</v>
       </c>
-      <c r="H93">
+      <c r="G93">
         <v>2884</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" t="s">
-        <v>213</v>
-      </c>
-      <c r="E94">
+        <v>198</v>
+      </c>
+      <c r="D94">
         <v>9</v>
       </c>
-      <c r="F94" t="s">
-        <v>80</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="E94" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" s="4">
         <v>192</v>
       </c>
-      <c r="H94">
+      <c r="G94">
         <v>7553</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" t="s">
-        <v>282</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>285</v>
-      </c>
-      <c r="G95" s="4">
+        <v>263</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>266</v>
+      </c>
+      <c r="F95" s="4">
         <v>252</v>
       </c>
-      <c r="H95">
+      <c r="G95">
         <v>9874</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H95">
-    <sortCondition ref="C2:C95"/>
-  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4115,599 +3864,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="2">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="F2" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="F3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="F4" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
+      <c r="C45" s="13">
+        <v>38875</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
+      <c r="B49" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="10">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="10">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="10">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1969</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="10">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1971</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="10">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="14">
-        <v>38875</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="B76" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" t="s">
+        <v>384</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="10">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4715,23 +4875,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="1">
+      <selection activeCell="D90" sqref="D90"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>70</v>
       </c>
@@ -4739,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -4747,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4755,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>67</v>
       </c>
@@ -4763,9 +4926,732 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>16</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>93</v>
+      </c>
+      <c r="B38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>94</v>
+      </c>
+      <c r="B39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>95</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>88</v>
+      </c>
+      <c r="B50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>89</v>
+      </c>
+      <c r="B51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>92</v>
+      </c>
+      <c r="B61">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>54</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>36</v>
+      </c>
+      <c r="B71">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>23</v>
+      </c>
+      <c r="B78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>51</v>
+      </c>
+      <c r="B81">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>62</v>
+      </c>
+      <c r="B82">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>78</v>
+      </c>
+      <c r="B86">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>68</v>
+      </c>
+      <c r="B87">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>63</v>
+      </c>
+      <c r="B91">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>63</v>
+      </c>
+      <c r="B92">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>56</v>
+      </c>
+      <c r="B93">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>79</v>
+      </c>
+      <c r="B94">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>81</v>
+      </c>
+      <c r="B96">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4774,617 +5660,618 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5393,28 +6280,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <f>Sheet1!A2</f>
         <v>70</v>
@@ -5423,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>Sheet1!A3</f>
         <v>5</v>
@@ -5432,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>Sheet1!A4</f>
         <v>6</v>
@@ -5441,7 +6329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>Sheet1!A5</f>
         <v>67</v>
@@ -5450,7 +6338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <f>Sheet1!A6</f>
         <v>16</v>
@@ -5459,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <f>Sheet1!A7</f>
         <v>17</v>
@@ -5468,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>Sheet1!A8</f>
         <v>65</v>
@@ -5477,7 +6365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5485,7 +6373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>Sheet1!A9</f>
         <v>34</v>
@@ -5494,7 +6382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>Sheet1!A10</f>
         <v>29</v>
@@ -5503,7 +6391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <f>Sheet1!A11</f>
         <v>50</v>
@@ -5512,7 +6400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <f>Sheet1!A12</f>
         <v>20</v>
@@ -5521,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>Sheet1!A13</f>
         <v>21</v>
@@ -5530,7 +6418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>Sheet1!A14</f>
         <v>61</v>
@@ -5539,7 +6427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <f>Sheet1!A15</f>
         <v>80</v>
@@ -5548,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <f>Sheet1!A16</f>
         <v>7</v>
@@ -5557,7 +6445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <f>Sheet1!A17</f>
         <v>85</v>
@@ -5566,7 +6454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <f>Sheet1!A18</f>
         <v>57</v>
@@ -5575,7 +6463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <f>Sheet1!A19</f>
         <v>58</v>
@@ -5584,7 +6472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <f>Sheet1!A20</f>
         <v>91</v>
@@ -5593,7 +6481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <f>Sheet1!A21</f>
         <v>87</v>
@@ -5602,7 +6490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>Sheet1!A22</f>
         <v>19</v>
@@ -5611,7 +6499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <f>Sheet1!A23</f>
         <v>48</v>
@@ -5620,7 +6508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <f>Sheet1!A24</f>
         <v>49</v>
@@ -5629,7 +6517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <f>Sheet1!A25</f>
         <v>44</v>
@@ -5638,7 +6526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5646,7 +6534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <f>Sheet1!A26</f>
         <v>82</v>
@@ -5655,7 +6543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <f>Sheet1!A27</f>
         <v>37</v>
@@ -5664,7 +6552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5672,7 +6560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <f>Sheet1!A28</f>
         <v>30</v>
@@ -5681,7 +6569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -5689,7 +6577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <f>Sheet1!A29</f>
         <v>3</v>
@@ -5698,7 +6586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <f>Sheet1!A30</f>
         <v>4</v>
@@ -5707,7 +6595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <f>Sheet1!A31</f>
         <v>25</v>
@@ -5716,7 +6604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <f>Sheet1!A32</f>
         <v>39</v>
@@ -5725,7 +6613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <f>Sheet1!A33</f>
         <v>33</v>
@@ -5734,7 +6622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <f>Sheet1!A34</f>
         <v>18</v>
@@ -5743,7 +6631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <f>Sheet1!A35</f>
         <v>59</v>
@@ -5752,7 +6640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <f>Sheet1!A36</f>
         <v>8</v>
@@ -5761,7 +6649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <f>Sheet1!A37</f>
         <v>69</v>
@@ -5770,7 +6658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <f>Sheet1!A38</f>
         <v>93</v>
@@ -5779,7 +6667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <f>Sheet1!A39</f>
         <v>94</v>
@@ -5788,7 +6676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <f>Sheet1!A40</f>
         <v>95</v>
@@ -5797,7 +6685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <f>Sheet1!A41</f>
         <v>27</v>
@@ -5806,7 +6694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <f>Sheet1!A42</f>
         <v>75</v>
@@ -5815,7 +6703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <f>Sheet1!A43</f>
         <v>76</v>
@@ -5824,7 +6712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <f>Sheet1!A44</f>
         <v>66</v>
@@ -5833,7 +6721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <f>Sheet1!A45</f>
         <v>38</v>
@@ -5842,7 +6730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <f>Sheet1!A46</f>
         <v>46</v>
@@ -5851,7 +6739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
         <f>Sheet1!A47</f>
         <v>47</v>
@@ -5860,7 +6748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
         <f>Sheet1!A48</f>
         <v>52</v>
@@ -5869,7 +6757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>48</v>
       </c>
@@ -5877,7 +6765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
         <f>Sheet1!A49</f>
         <v>26</v>
@@ -5886,7 +6774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>49</v>
       </c>
@@ -5894,7 +6782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
         <f>Sheet1!A50</f>
         <v>88</v>
@@ -5903,7 +6791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
         <f>Sheet1!A51</f>
         <v>89</v>
@@ -5912,7 +6800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
         <f>Sheet1!A52</f>
         <v>53</v>
@@ -5921,7 +6809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
         <f>Sheet1!A53</f>
         <v>84</v>
@@ -5930,7 +6818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
         <f>Sheet1!A54</f>
         <v>40</v>
@@ -5939,7 +6827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
         <f>Sheet1!A55</f>
         <v>41</v>
@@ -5948,7 +6836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
         <f>Sheet1!A56</f>
         <v>90</v>
@@ -5957,7 +6845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>56</v>
       </c>
@@ -5965,7 +6853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
         <f>Sheet1!A57</f>
         <v>1</v>
@@ -5974,7 +6862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
         <f>Sheet1!A58</f>
         <v>2</v>
@@ -5983,7 +6871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
         <f>Sheet1!A59</f>
         <v>42</v>
@@ -5992,7 +6880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
         <f>Sheet1!A60</f>
         <v>9</v>
@@ -6001,7 +6889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
         <f>Sheet1!A61</f>
         <v>92</v>
@@ -6010,7 +6898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
         <f>Sheet1!A62</f>
         <v>28</v>
@@ -6019,7 +6907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
         <f>Sheet1!A63</f>
         <v>35</v>
@@ -6028,7 +6916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
         <f>Sheet1!A64</f>
         <v>55</v>
@@ -6037,7 +6925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
         <f>Sheet1!A65</f>
         <v>64</v>
@@ -6046,7 +6934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
         <f>Sheet1!A66</f>
         <v>54</v>
@@ -6055,7 +6943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
         <f>Sheet1!A67</f>
         <v>43</v>
@@ -6064,7 +6952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
         <f>Sheet1!A68</f>
         <v>45</v>
@@ -6073,7 +6961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
         <f>Sheet1!A69</f>
         <v>71</v>
@@ -6082,7 +6970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
         <f>Sheet1!A70</f>
         <v>72</v>
@@ -6091,7 +6979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
         <f>Sheet1!A71</f>
         <v>36</v>
@@ -6100,7 +6988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
         <f>Sheet1!A72</f>
         <v>24</v>
@@ -6109,7 +6997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
         <f>Sheet1!A73</f>
         <v>73</v>
@@ -6118,7 +7006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <f>Sheet1!A74</f>
         <v>22</v>
@@ -6127,7 +7015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <f>Sheet1!A75</f>
         <v>60</v>
@@ -6136,7 +7024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
         <f>Sheet1!A76</f>
         <v>83</v>
@@ -6145,7 +7033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
         <f>Sheet1!A77</f>
         <v>74</v>
@@ -6154,7 +7042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
         <f>Sheet1!A78</f>
         <v>23</v>
@@ -6163,7 +7051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
         <f>Sheet1!A79</f>
         <v>77</v>
@@ -6172,7 +7060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
         <f>Sheet1!A80</f>
         <v>10</v>
@@ -6181,7 +7069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
         <f>Sheet1!A81</f>
         <v>51</v>
@@ -6190,7 +7078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
         <f>Sheet1!A82</f>
         <v>62</v>
@@ -6199,7 +7087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
         <f>Sheet1!A83</f>
         <v>14</v>
@@ -6208,7 +7096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
         <f>Sheet1!A84</f>
         <v>15</v>
@@ -6217,7 +7105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
         <f>Sheet1!A85</f>
         <v>31</v>
@@ -6226,7 +7114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
         <f>Sheet1!A86</f>
         <v>78</v>
@@ -6235,7 +7123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
         <f>Sheet1!A87</f>
         <v>68</v>
@@ -6244,7 +7132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
         <f>Sheet1!A88</f>
         <v>86</v>
@@ -6253,7 +7141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
         <f>Sheet1!A89</f>
         <v>11</v>
@@ -6262,7 +7150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
         <f>Sheet1!A90</f>
         <v>12</v>
@@ -6271,7 +7159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
         <f>Sheet1!A91</f>
         <v>63</v>
@@ -6280,7 +7168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
         <f>Sheet1!A92</f>
         <v>56</v>
@@ -6289,7 +7177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
         <f>Sheet1!A93</f>
         <v>79</v>
@@ -6298,7 +7186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
         <f>Sheet1!A94</f>
         <v>32</v>
@@ -6307,7 +7195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
         <f>Sheet1!A95</f>
         <v>81</v>

--- a/data_files/data_integrity.xlsx
+++ b/data_files/data_integrity.xlsx
@@ -8,11 +8,11 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tech/PhpstormProjects/csi-music-website/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539580F-BC19-8141-A4CE-A2C9CFC79401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611F9EDA-EA75-D64D-9754-37DAC97A720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="14480" yWindow="8200" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
+    <workbookView xWindow="14480" yWindow="8200" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14480" yWindow="500" windowWidth="14320" windowHeight="8120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16420" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="397">
   <si>
     <t>Filename</t>
   </si>
@@ -1198,6 +1198,36 @@
   </si>
   <si>
     <t>2: Genre</t>
+  </si>
+  <si>
+    <t>Post-Grunge</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Nu-Metal</t>
+  </si>
+  <si>
+    <t>Cont</t>
+  </si>
+  <si>
+    <t>Brit</t>
+  </si>
+  <si>
+    <t>Maori</t>
+  </si>
+  <si>
+    <t>Ethnic</t>
+  </si>
+  <si>
+    <t>Native American</t>
+  </si>
+  <si>
+    <t>Psychdelic</t>
+  </si>
+  <si>
+    <t>Gothic</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,6 +1329,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1640,13 +1672,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" workbookViewId="2">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1683,25 +1718,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>5366</v>
+        <v>3692</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>310</v>
@@ -1709,25 +1744,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="G3">
-        <v>4444</v>
+        <v>6488</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>312</v>
@@ -1735,25 +1770,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G4">
-        <v>3258</v>
+        <v>9109</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>326</v>
@@ -1761,25 +1796,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G5">
-        <v>10086</v>
+        <v>11442</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>345</v>
@@ -1787,830 +1822,830 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G6">
-        <v>4006</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" t="s">
-        <v>157</v>
+        <v>285</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="G7">
-        <v>3951</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8">
-        <v>6176</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="F9" s="4">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G9">
-        <v>9069</v>
+        <v>9874</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="F10" s="4">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="G10">
-        <v>20045</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="F11" s="4">
-        <v>397</v>
+        <v>217</v>
       </c>
       <c r="G11">
-        <v>11596</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G12">
-        <v>11766</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="G13">
-        <v>12854</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G14">
-        <v>10236</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" t="s">
-        <v>298</v>
-      </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="F15" s="4">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="G15">
-        <v>4094</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="F16" s="4">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>8776</v>
+        <v>10569</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F17" s="4">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G17">
-        <v>3338</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F18" s="4">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="G18">
-        <v>11428</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="G19">
-        <v>11141</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F20" s="4">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="G20">
-        <v>5025</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="F21" s="4">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G21">
-        <v>8382</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>309</v>
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
       </c>
       <c r="F22" s="4">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="G22">
-        <v>2269</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="4">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="G23">
-        <v>2906</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="4">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="G24">
-        <v>4015</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="F25" s="4">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="G25">
-        <v>7414</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="F26" s="4">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="G26">
-        <v>3409</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="F27" s="4">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="G27">
-        <v>4722</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F28" s="4">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="G28">
-        <v>10605</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F29" s="4">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="G29">
-        <v>3692</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F30" s="4">
-        <v>204</v>
+        <v>512</v>
       </c>
       <c r="G30">
-        <v>6488</v>
+        <v>20045</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="G31">
-        <v>3575</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
       <c r="F32" s="4">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="G32">
-        <v>8263</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="F33" s="4">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G33">
-        <v>7893</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F34" s="4">
         <v>233</v>
       </c>
       <c r="G34">
-        <v>9109</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4">
-        <v>236</v>
+        <v>1111</v>
       </c>
       <c r="G35">
-        <v>5550</v>
+        <v>34731</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>327</v>
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="G36">
-        <v>7271</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F37" s="4">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="G37">
-        <v>9158</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F38" s="4">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="G38">
-        <v>4866</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F39" s="4">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="G39">
-        <v>5686</v>
+        <v>12854</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F40" s="4">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="G40">
-        <v>4594</v>
+        <v>10236</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F41" s="4">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="G41">
-        <v>4347</v>
+        <v>14107</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2661,1201 +2696,1204 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="F44" s="4">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="G44">
-        <v>7496</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F45" s="4">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="G45">
-        <v>6914</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F46" s="4">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="G46">
-        <v>9426</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F47" s="4">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="G47">
-        <v>6818</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" t="s">
-        <v>276</v>
+        <v>86</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F48" s="4">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="G48">
-        <v>9880</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F49" s="4">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="G49">
-        <v>8959</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>311</v>
+      <c r="E50" t="s">
+        <v>40</v>
       </c>
       <c r="F50" s="4">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="G50">
-        <v>5984</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>272</v>
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
       </c>
       <c r="F51" s="4">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="G51">
-        <v>4444</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F52" s="4">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="G52">
-        <v>9851</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="F53" s="4">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="G53">
-        <v>5601</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F54" s="4">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="G54">
-        <v>8646</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" s="4">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G55">
-        <v>8028</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>90</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>342</v>
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="F56" s="4">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="G56">
-        <v>7608</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="F57" s="4">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G57">
-        <v>1446</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="F58" s="4">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="G58">
-        <v>5677</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F59" s="4">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="G59">
-        <v>8667</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>255</v>
+        <v>31</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="F60" s="4">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="G60">
-        <v>5771</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>92</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>283</v>
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F61" s="4">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="G61">
-        <v>7862</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D62">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F62" s="4">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="G62">
-        <v>11442</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F63" s="4">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="G63">
-        <v>6904</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="D64">
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F64" s="4">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G64">
-        <v>9784</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F65" s="4">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G65">
-        <v>9222</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F66" s="4">
-        <v>816</v>
+        <v>135</v>
       </c>
       <c r="G66">
-        <v>25506</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="F67" s="4">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="G67">
-        <v>12468</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="F68" s="4">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="G68">
-        <v>7990</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F69" s="4">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="G69">
-        <v>3818</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="F70" s="4">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G70">
-        <v>2551</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="D71">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="F71" s="4">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="G71">
-        <v>5011</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="F72" s="4">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G72">
-        <v>10569</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F73" s="4">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G73">
-        <v>4101</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F74" s="4">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="G74">
-        <v>14107</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F75" s="4">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="G75">
-        <v>11870</v>
+        <v>11596</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="F76" s="4">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="G76">
-        <v>3408</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F77" s="4">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="G77">
-        <v>6465</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F78" s="4">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="G78">
-        <v>11841</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F79" s="4">
-        <v>213</v>
+        <v>816</v>
       </c>
       <c r="G79">
-        <v>8359</v>
+        <v>25506</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F80" s="4">
-        <v>1111</v>
+        <v>319</v>
       </c>
       <c r="G80">
-        <v>34731</v>
+        <v>12468</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>27</v>
       </c>
       <c r="F81" s="4">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="G81">
-        <v>11972</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="F82" s="4">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="G82">
-        <v>3368</v>
+        <v>11972</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F83" s="4">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G83">
-        <v>8874</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84">
         <v>15</v>
       </c>
-      <c r="B84" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84">
-        <v>9</v>
-      </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F84" s="4">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G84">
-        <v>9330</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>31</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>296</v>
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F85" s="4">
-        <v>369</v>
+        <v>201</v>
       </c>
       <c r="G85">
-        <v>11546</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>78</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F86" s="4">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="G86">
-        <v>10894</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F87" s="4">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="G87">
-        <v>10384</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>209</v>
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>114</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F88" s="4">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G88">
-        <v>9693</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F89" s="4">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="G89">
-        <v>6588</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F90" s="4">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G90">
-        <v>4929</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F91" s="4">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G91">
-        <v>3463</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="F92" s="4">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="G92">
-        <v>9081</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>79</v>
-      </c>
-      <c r="B93" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" t="s">
-        <v>301</v>
+        <v>90</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="F93" s="4">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="G93">
-        <v>2884</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F94" s="4">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G94">
-        <v>7553</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="C95" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="F95" s="4">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="G95">
-        <v>9874</v>
+        <v>9222</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G95">
+    <sortCondition ref="E2:E95"/>
+  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3865,11 +3903,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="2">
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="1">
+      <selection activeCell="D121" sqref="D121"/>
+    </sheetView>
+    <sheetView topLeftCell="A72" workbookViewId="2">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -4869,6 +4909,435 @@
         <v>1</v>
       </c>
     </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="18">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="18">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D83" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="18">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D84" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="18">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D85" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="18">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="18">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="18">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="18">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="18">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="18">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="18">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="18">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D96" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="18">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="18">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="18">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="18">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="18">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="18">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D102" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="18">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="18">
+        <v>103</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="18">
+        <v>104</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="18">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="18">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="18">
+        <v>107</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="18">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="18">
+        <v>109</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="18">
+        <v>110</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="18">
+        <v>111</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="18">
+        <v>112</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="18">
+        <v>113</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="18">
+        <v>114</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="18">
+        <v>115</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="18">
+        <v>116</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" s="18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4876,10 +5345,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="1">
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
+    </sheetView>
+    <sheetView topLeftCell="A85" workbookViewId="1">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
@@ -5646,12 +6117,1348 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="96" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="16">
         <v>81</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="16">
         <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" s="18">
+        <v>78</v>
+      </c>
+      <c r="D97" t="str">
+        <f>Sheet1!E2</f>
+        <v>Acoustic</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" s="18">
+        <v>78</v>
+      </c>
+      <c r="D98" t="str">
+        <f>Sheet1!E3</f>
+        <v>Acoustic</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" s="18">
+        <v>79</v>
+      </c>
+      <c r="D99" t="str">
+        <f>Sheet1!E4</f>
+        <v>Alternative</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>28</v>
+      </c>
+      <c r="B100" s="18">
+        <v>79</v>
+      </c>
+      <c r="D100" t="str">
+        <f>Sheet1!E5</f>
+        <v>Alternative</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>71</v>
+      </c>
+      <c r="B101" s="18">
+        <v>79</v>
+      </c>
+      <c r="D101" t="str">
+        <f>Sheet1!E6</f>
+        <v>Alternative</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>72</v>
+      </c>
+      <c r="B102">
+        <v>79</v>
+      </c>
+      <c r="D102" t="str">
+        <f>Sheet1!E7</f>
+        <v>Alternative</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>79</v>
+      </c>
+      <c r="D103" t="str">
+        <f>Sheet1!E8</f>
+        <v>Alternative</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>79</v>
+      </c>
+      <c r="D104" t="str">
+        <f>Sheet1!E9</f>
+        <v>Alternative  Rock / Post-Grunge</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>81</v>
+      </c>
+      <c r="B106">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>33</v>
+      </c>
+      <c r="B107">
+        <v>79</v>
+      </c>
+      <c r="D107" t="str">
+        <f>Sheet1!E10</f>
+        <v>Alternative Metal / Nu-Metal / Gothic Rock</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>33</v>
+      </c>
+      <c r="B108">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>33</v>
+      </c>
+      <c r="B109">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>33</v>
+      </c>
+      <c r="B110">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>33</v>
+      </c>
+      <c r="B111">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>83</v>
+      </c>
+      <c r="B112">
+        <v>85</v>
+      </c>
+      <c r="D112" t="str">
+        <f>Sheet1!E11</f>
+        <v>Avante-Garde</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>86</v>
+      </c>
+      <c r="D113" t="str">
+        <f>Sheet1!E12</f>
+        <v>Bluegrass</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>86</v>
+      </c>
+      <c r="D114" t="str">
+        <f>Sheet1!E13</f>
+        <v>Bluegrass</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>69</v>
+      </c>
+      <c r="B115">
+        <v>86</v>
+      </c>
+      <c r="D115" t="str">
+        <f>Sheet1!E14</f>
+        <v>Bluegrass</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>36</v>
+      </c>
+      <c r="B116">
+        <v>86</v>
+      </c>
+      <c r="D116" t="str">
+        <f>Sheet1!E15</f>
+        <v>Blues</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>86</v>
+      </c>
+      <c r="D117" t="str">
+        <f>Sheet1!E16</f>
+        <v>Blues</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>38</v>
+      </c>
+      <c r="B118">
+        <v>88</v>
+      </c>
+      <c r="D118" t="str">
+        <f>Sheet1!E17</f>
+        <v>Celtic</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>73</v>
+      </c>
+      <c r="B119">
+        <v>88</v>
+      </c>
+      <c r="D119" t="str">
+        <f>Sheet1!E18</f>
+        <v>Celtic</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>34</v>
+      </c>
+      <c r="B120">
+        <v>89</v>
+      </c>
+      <c r="D120" t="str">
+        <f>Sheet1!E19</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>48</v>
+      </c>
+      <c r="B121">
+        <v>89</v>
+      </c>
+      <c r="D121" t="str">
+        <f>Sheet1!E20</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>49</v>
+      </c>
+      <c r="B122">
+        <v>89</v>
+      </c>
+      <c r="D122" t="str">
+        <f>Sheet1!E21</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>82</v>
+      </c>
+      <c r="B123">
+        <v>89</v>
+      </c>
+      <c r="D123" t="str">
+        <f>Sheet1!E22</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>52</v>
+      </c>
+      <c r="B124">
+        <v>89</v>
+      </c>
+      <c r="D124" t="str">
+        <f>Sheet1!E23</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>53</v>
+      </c>
+      <c r="B125">
+        <v>89</v>
+      </c>
+      <c r="D125" t="str">
+        <f>Sheet1!E24</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>70</v>
+      </c>
+      <c r="B126">
+        <v>90</v>
+      </c>
+      <c r="D126" t="str">
+        <f>Sheet1!E25</f>
+        <v>Dance</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>66</v>
+      </c>
+      <c r="B127">
+        <v>90</v>
+      </c>
+      <c r="D127" t="str">
+        <f>Sheet1!E26</f>
+        <v>Dance</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>16</v>
+      </c>
+      <c r="B128">
+        <v>91</v>
+      </c>
+      <c r="D128" t="str">
+        <f>Sheet1!E27</f>
+        <v>Easy Listening - Female</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>91</v>
+      </c>
+      <c r="D129" t="str">
+        <f>Sheet1!E28</f>
+        <v>Easy Listening - Female</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>84</v>
+      </c>
+      <c r="B130">
+        <v>93</v>
+      </c>
+      <c r="D130" t="str">
+        <f>Sheet1!E29</f>
+        <v>Easy Listening - Group</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>29</v>
+      </c>
+      <c r="B131">
+        <v>92</v>
+      </c>
+      <c r="D131" t="str">
+        <f>Sheet1!E30</f>
+        <v>Easy Listening - Male</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>23</v>
+      </c>
+      <c r="B132">
+        <v>92</v>
+      </c>
+      <c r="D132" t="str">
+        <f>Sheet1!E31</f>
+        <v>Easy Listening - Male</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>86</v>
+      </c>
+      <c r="B133">
+        <v>92</v>
+      </c>
+      <c r="D133" t="str">
+        <f>Sheet1!E32</f>
+        <v>Easy Listening - Male</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>85</v>
+      </c>
+      <c r="B134">
+        <v>94</v>
+      </c>
+      <c r="D134" t="str">
+        <f>Sheet1!E33</f>
+        <v>Folk</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>35</v>
+      </c>
+      <c r="B135">
+        <v>94</v>
+      </c>
+      <c r="D135" t="str">
+        <f>Sheet1!E34</f>
+        <v>Folk</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136">
+        <v>94</v>
+      </c>
+      <c r="D136" t="str">
+        <f>Sheet1!E35</f>
+        <v>Folk</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137">
+        <v>94</v>
+      </c>
+      <c r="D137" t="str">
+        <f>Sheet1!E36</f>
+        <v>Folk</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>94</v>
+      </c>
+      <c r="D138" t="str">
+        <f>Sheet1!E37</f>
+        <v>Folk</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>95</v>
+      </c>
+      <c r="D140" t="str">
+        <f>Sheet1!E38</f>
+        <v>Folk Cont</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>21</v>
+      </c>
+      <c r="B141">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>21</v>
+      </c>
+      <c r="B142">
+        <v>95</v>
+      </c>
+      <c r="D142" t="str">
+        <f>Sheet1!E39</f>
+        <v>Folk Cont</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>61</v>
+      </c>
+      <c r="B143">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>61</v>
+      </c>
+      <c r="B144">
+        <v>80</v>
+      </c>
+      <c r="D144" t="str">
+        <f>Sheet1!E40</f>
+        <v>Folk Rock</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>80</v>
+      </c>
+      <c r="D146" t="str">
+        <f>Sheet1!E41</f>
+        <v>Folk Rock</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>75</v>
+      </c>
+      <c r="B147">
+        <v>96</v>
+      </c>
+      <c r="D147" t="str">
+        <f>Sheet1!E42</f>
+        <v>Goa</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>76</v>
+      </c>
+      <c r="B148">
+        <v>96</v>
+      </c>
+      <c r="D148" t="str">
+        <f>Sheet1!E43</f>
+        <v>Goa</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>26</v>
+      </c>
+      <c r="B149">
+        <v>97</v>
+      </c>
+      <c r="D149" t="str">
+        <f>Sheet1!E44</f>
+        <v>Indie</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>60</v>
+      </c>
+      <c r="B150">
+        <v>97</v>
+      </c>
+      <c r="D150" t="str">
+        <f>Sheet1!E45</f>
+        <v>Indie</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>44</v>
+      </c>
+      <c r="B151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>44</v>
+      </c>
+      <c r="B152">
+        <v>97</v>
+      </c>
+      <c r="D152" t="str">
+        <f>Sheet1!E46</f>
+        <v>Indie Rock</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>77</v>
+      </c>
+      <c r="B153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>77</v>
+      </c>
+      <c r="B154">
+        <v>97</v>
+      </c>
+      <c r="D154" t="str">
+        <f>Sheet1!E47</f>
+        <v>Indie Rock</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158">
+        <v>99</v>
+      </c>
+      <c r="D158" t="str">
+        <f>Sheet1!E48</f>
+        <v>Indie Rock / Brit Pop</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>9</v>
+      </c>
+      <c r="B159">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>9</v>
+      </c>
+      <c r="B160">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>9</v>
+      </c>
+      <c r="B162">
+        <v>99</v>
+      </c>
+      <c r="D162" t="str">
+        <f>Sheet1!E49</f>
+        <v>Indie Rock / Brit Pop</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>30</v>
+      </c>
+      <c r="B163">
+        <v>100</v>
+      </c>
+      <c r="D163" t="str">
+        <f>Sheet1!E50</f>
+        <v>Jazz</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>55</v>
+      </c>
+      <c r="B164">
+        <v>100</v>
+      </c>
+      <c r="D164" t="str">
+        <f>Sheet1!E51</f>
+        <v>Jazz</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>63</v>
+      </c>
+      <c r="B165">
+        <v>100</v>
+      </c>
+      <c r="D165" t="str">
+        <f>Sheet1!E52</f>
+        <v>Jazz</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>88</v>
+      </c>
+      <c r="B166">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>88</v>
+      </c>
+      <c r="B167">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>88</v>
+      </c>
+      <c r="B168">
+        <v>103</v>
+      </c>
+      <c r="D168" t="str">
+        <f>Sheet1!E53</f>
+        <v>Maori, Ethnic,New Age</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>93</v>
+      </c>
+      <c r="B169">
+        <v>104</v>
+      </c>
+      <c r="D169" t="str">
+        <f>Sheet1!E54</f>
+        <v>Mellow</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>94</v>
+      </c>
+      <c r="B170">
+        <v>104</v>
+      </c>
+      <c r="D170" t="str">
+        <f>Sheet1!E55</f>
+        <v>Mellow</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>95</v>
+      </c>
+      <c r="B171">
+        <v>104</v>
+      </c>
+      <c r="D171" t="str">
+        <f>Sheet1!E56</f>
+        <v>Mellow</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>89</v>
+      </c>
+      <c r="B172">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>89</v>
+      </c>
+      <c r="B173">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>89</v>
+      </c>
+      <c r="B174">
+        <v>103</v>
+      </c>
+      <c r="D174" t="str">
+        <f>Sheet1!E57</f>
+        <v>Moari, Ethnic,New Age</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>19</v>
+      </c>
+      <c r="B175">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>102</v>
+      </c>
+      <c r="D176" t="str">
+        <f>Sheet1!E58</f>
+        <v>Native American, Ethnic</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>58</v>
+      </c>
+      <c r="B177">
+        <v>103</v>
+      </c>
+      <c r="D177" t="str">
+        <f>Sheet1!E59</f>
+        <v>New Age</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>31</v>
+      </c>
+      <c r="B178">
+        <v>103</v>
+      </c>
+      <c r="D178" t="str">
+        <f>Sheet1!E60</f>
+        <v>New Age</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>106</v>
+      </c>
+      <c r="D179" t="str">
+        <f>Sheet1!E61</f>
+        <v>New Wave</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>106</v>
+      </c>
+      <c r="D180" t="str">
+        <f>Sheet1!E62</f>
+        <v>New Wave</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>65</v>
+      </c>
+      <c r="B181">
+        <v>99</v>
+      </c>
+      <c r="D181" t="str">
+        <f>Sheet1!E63</f>
+        <v>Pop</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>91</v>
+      </c>
+      <c r="B182">
+        <v>99</v>
+      </c>
+      <c r="D182" t="str">
+        <f>Sheet1!E64</f>
+        <v>Pop</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>27</v>
+      </c>
+      <c r="B183">
+        <v>99</v>
+      </c>
+      <c r="D183" t="str">
+        <f>Sheet1!E65</f>
+        <v>Pop</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>79</v>
+      </c>
+      <c r="B184">
+        <v>99</v>
+      </c>
+      <c r="D184" t="str">
+        <f>Sheet1!E66</f>
+        <v>Pop</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>59</v>
+      </c>
+      <c r="B185">
+        <v>107</v>
+      </c>
+      <c r="D185" t="str">
+        <f>Sheet1!E67</f>
+        <v>Post-Rock</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>67</v>
+      </c>
+      <c r="B186">
+        <v>108</v>
+      </c>
+      <c r="D186" t="str">
+        <f>Sheet1!E68</f>
+        <v>Progressive Rock</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>68</v>
+      </c>
+      <c r="B187">
+        <v>108</v>
+      </c>
+      <c r="D187" t="str">
+        <f>Sheet1!E69</f>
+        <v>Progressive Rock</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>25</v>
+      </c>
+      <c r="B188">
+        <v>109</v>
+      </c>
+      <c r="D188" t="str">
+        <f>Sheet1!E70</f>
+        <v>Psychadelic</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>78</v>
+      </c>
+      <c r="B189">
+        <v>110</v>
+      </c>
+      <c r="D189" t="str">
+        <f>Sheet1!E71</f>
+        <v>R&amp;B</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>40</v>
+      </c>
+      <c r="B190">
+        <v>111</v>
+      </c>
+      <c r="D190" t="str">
+        <f>Sheet1!E72</f>
+        <v>Reggae</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>41</v>
+      </c>
+      <c r="B191">
+        <v>111</v>
+      </c>
+      <c r="D191" t="str">
+        <f>Sheet1!E73</f>
+        <v>Reggae</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>42</v>
+      </c>
+      <c r="B192">
+        <v>111</v>
+      </c>
+      <c r="D192" t="str">
+        <f>Sheet1!E74</f>
+        <v>Reggae</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>50</v>
+      </c>
+      <c r="B193">
+        <v>80</v>
+      </c>
+      <c r="D193" t="str">
+        <f>Sheet1!E75</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>57</v>
+      </c>
+      <c r="B194">
+        <v>80</v>
+      </c>
+      <c r="D194" t="str">
+        <f>Sheet1!E76</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>46</v>
+      </c>
+      <c r="B195">
+        <v>80</v>
+      </c>
+      <c r="D195" t="str">
+        <f>Sheet1!E77</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>47</v>
+      </c>
+      <c r="B196">
+        <v>80</v>
+      </c>
+      <c r="D196" t="str">
+        <f>Sheet1!E78</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>54</v>
+      </c>
+      <c r="B197">
+        <v>80</v>
+      </c>
+      <c r="D197" t="str">
+        <f>Sheet1!E79</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>43</v>
+      </c>
+      <c r="B198">
+        <v>80</v>
+      </c>
+      <c r="D198" t="str">
+        <f>Sheet1!E80</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>45</v>
+      </c>
+      <c r="B199">
+        <v>80</v>
+      </c>
+      <c r="D199" t="str">
+        <f>Sheet1!E81</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>51</v>
+      </c>
+      <c r="B200">
+        <v>80</v>
+      </c>
+      <c r="D200" t="str">
+        <f>Sheet1!E82</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>56</v>
+      </c>
+      <c r="B201">
+        <v>80</v>
+      </c>
+      <c r="D201" t="str">
+        <f>Sheet1!E83</f>
+        <v>Rock</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>87</v>
+      </c>
+      <c r="B202">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>87</v>
+      </c>
+      <c r="B203">
+        <v>88</v>
+      </c>
+      <c r="D203" t="str">
+        <f>Sheet1!E84</f>
+        <v>Rock Celtic</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>37</v>
+      </c>
+      <c r="B204">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>37</v>
+      </c>
+      <c r="B205">
+        <v>88</v>
+      </c>
+      <c r="D205" t="str">
+        <f>Sheet1!E85</f>
+        <v>Rock Celtic</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>92</v>
+      </c>
+      <c r="B206">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>92</v>
+      </c>
+      <c r="B207">
+        <v>88</v>
+      </c>
+      <c r="D207" t="str">
+        <f>Sheet1!E86</f>
+        <v>Rock Celtic</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>74</v>
+      </c>
+      <c r="B208">
+        <v>112</v>
+      </c>
+      <c r="D208" t="str">
+        <f>Sheet1!E87</f>
+        <v>Soul</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="B209">
+        <v>112</v>
+      </c>
+      <c r="D209" t="str">
+        <f>Sheet1!E88</f>
+        <v>Soul</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>15</v>
+      </c>
+      <c r="B210">
+        <v>112</v>
+      </c>
+      <c r="D210" t="str">
+        <f>Sheet1!E89</f>
+        <v>Soul</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>80</v>
+      </c>
+      <c r="B211">
+        <v>113</v>
+      </c>
+      <c r="D211" t="str">
+        <f>Sheet1!E90</f>
+        <v>US Folk</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212">
+        <v>113</v>
+      </c>
+      <c r="D212" t="str">
+        <f>Sheet1!E91</f>
+        <v>US Folk</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>62</v>
+      </c>
+      <c r="B213">
+        <v>114</v>
+      </c>
+      <c r="D213" t="str">
+        <f>Sheet1!E92</f>
+        <v>Vocal</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>90</v>
+      </c>
+      <c r="B214">
+        <v>115</v>
+      </c>
+      <c r="D214" t="str">
+        <f>Sheet1!E93</f>
+        <v>Woman</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>39</v>
+      </c>
+      <c r="B215">
+        <v>116</v>
+      </c>
+      <c r="D215" t="str">
+        <f>Sheet1!E94</f>
+        <v>World</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>64</v>
+      </c>
+      <c r="B216">
+        <v>116</v>
+      </c>
+      <c r="D216" t="str">
+        <f>Sheet1!E95</f>
+        <v>World</v>
       </c>
     </row>
   </sheetData>
@@ -6305,7 +8112,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <f>Sheet1!A2</f>
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6314,7 +8121,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>Sheet1!A3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6323,7 +8130,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>Sheet1!A4</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6332,7 +8139,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>Sheet1!A5</f>
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6341,7 +8148,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <f>Sheet1!A6</f>
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6350,7 +8157,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <f>Sheet1!A7</f>
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -6359,7 +8166,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>Sheet1!A8</f>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -6376,7 +8183,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>Sheet1!A9</f>
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -6385,7 +8192,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>Sheet1!A10</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -6394,7 +8201,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <f>Sheet1!A11</f>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -6403,7 +8210,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <f>Sheet1!A12</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -6412,7 +8219,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>Sheet1!A13</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -6421,7 +8228,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>Sheet1!A14</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -6430,7 +8237,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <f>Sheet1!A15</f>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -6439,7 +8246,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <f>Sheet1!A16</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -6448,7 +8255,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <f>Sheet1!A17</f>
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -6457,7 +8264,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <f>Sheet1!A18</f>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -6466,7 +8273,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <f>Sheet1!A19</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -6475,7 +8282,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <f>Sheet1!A20</f>
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -6484,7 +8291,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <f>Sheet1!A21</f>
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -6493,7 +8300,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>Sheet1!A22</f>
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -6502,7 +8309,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <f>Sheet1!A23</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -6511,7 +8318,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <f>Sheet1!A24</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -6520,7 +8327,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <f>Sheet1!A25</f>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -6537,7 +8344,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <f>Sheet1!A26</f>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -6546,7 +8353,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <f>Sheet1!A27</f>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>18</v>
@@ -6563,7 +8370,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <f>Sheet1!A28</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -6580,7 +8387,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <f>Sheet1!A29</f>
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -6589,7 +8396,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <f>Sheet1!A30</f>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>23</v>
@@ -6598,7 +8405,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <f>Sheet1!A31</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -6607,7 +8414,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <f>Sheet1!A32</f>
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>25</v>
@@ -6616,7 +8423,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <f>Sheet1!A33</f>
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -6625,7 +8432,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <f>Sheet1!A34</f>
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>27</v>
@@ -6634,7 +8441,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <f>Sheet1!A35</f>
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -6643,7 +8450,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <f>Sheet1!A36</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>29</v>
@@ -6652,7 +8459,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <f>Sheet1!A37</f>
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -6661,7 +8468,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <f>Sheet1!A38</f>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>31</v>
@@ -6670,7 +8477,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <f>Sheet1!A39</f>
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -6679,7 +8486,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <f>Sheet1!A40</f>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>19</v>
@@ -6688,7 +8495,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <f>Sheet1!A41</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>19</v>
@@ -6715,7 +8522,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <f>Sheet1!A44</f>
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>34</v>
@@ -6724,7 +8531,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <f>Sheet1!A45</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>35</v>
@@ -6733,7 +8540,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <f>Sheet1!A46</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>36</v>
@@ -6742,7 +8549,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
         <f>Sheet1!A47</f>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B51">
         <v>36</v>
@@ -6751,7 +8558,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
         <f>Sheet1!A48</f>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>36</v>
@@ -6768,7 +8575,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
         <f>Sheet1!A49</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>36</v>
@@ -6785,7 +8592,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
         <f>Sheet1!A50</f>
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>38</v>
@@ -6794,7 +8601,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
         <f>Sheet1!A51</f>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>39</v>
@@ -6803,7 +8610,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
         <f>Sheet1!A52</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -6812,7 +8619,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
         <f>Sheet1!A53</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B59">
         <v>40</v>
@@ -6821,7 +8628,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
         <f>Sheet1!A54</f>
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>41</v>
@@ -6830,7 +8637,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
         <f>Sheet1!A55</f>
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>42</v>
@@ -6839,7 +8646,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
         <f>Sheet1!A56</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B62">
         <v>44</v>
@@ -6856,7 +8663,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
         <f>Sheet1!A57</f>
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B64">
         <v>46</v>
@@ -6865,7 +8672,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
         <f>Sheet1!A58</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>46</v>
@@ -6874,7 +8681,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
         <f>Sheet1!A59</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B66">
         <v>47</v>
@@ -6883,7 +8690,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
         <f>Sheet1!A60</f>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B67">
         <v>47</v>
@@ -6892,7 +8699,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
         <f>Sheet1!A61</f>
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>48</v>
@@ -6901,7 +8708,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
         <f>Sheet1!A62</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>49</v>
@@ -6910,7 +8717,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
         <f>Sheet1!A63</f>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>50</v>
@@ -6919,7 +8726,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
         <f>Sheet1!A64</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -6928,7 +8735,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
         <f>Sheet1!A65</f>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B72">
         <v>52</v>
@@ -6937,7 +8744,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
         <f>Sheet1!A66</f>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>53</v>
@@ -6946,7 +8753,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
         <f>Sheet1!A67</f>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <v>54</v>
@@ -6955,7 +8762,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
         <f>Sheet1!A68</f>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <v>54</v>
@@ -6964,7 +8771,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
         <f>Sheet1!A69</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B76">
         <v>55</v>
@@ -6973,7 +8780,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
         <f>Sheet1!A70</f>
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B77">
         <v>56</v>
@@ -6982,7 +8789,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
         <f>Sheet1!A71</f>
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>57</v>
@@ -6991,7 +8798,7 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
         <f>Sheet1!A72</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B79">
         <v>57</v>
@@ -7000,7 +8807,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
         <f>Sheet1!A73</f>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>58</v>
@@ -7009,7 +8816,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <f>Sheet1!A74</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B81">
         <v>59</v>
@@ -7018,7 +8825,7 @@
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <f>Sheet1!A75</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B82">
         <v>60</v>
@@ -7027,7 +8834,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
         <f>Sheet1!A76</f>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B83">
         <v>60</v>
@@ -7036,7 +8843,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
         <f>Sheet1!A77</f>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B84">
         <v>61</v>
@@ -7045,7 +8852,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
         <f>Sheet1!A78</f>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B85">
         <v>62</v>
@@ -7054,7 +8861,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
         <f>Sheet1!A79</f>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B86">
         <v>63</v>
@@ -7063,7 +8870,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
         <f>Sheet1!A80</f>
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B87">
         <v>64</v>
@@ -7072,7 +8879,7 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
         <f>Sheet1!A81</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B88">
         <v>65</v>
@@ -7081,7 +8888,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
         <f>Sheet1!A82</f>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B89">
         <v>37</v>
@@ -7090,7 +8897,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
         <f>Sheet1!A83</f>
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B90">
         <v>66</v>
@@ -7099,7 +8906,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
         <f>Sheet1!A84</f>
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>67</v>
@@ -7108,7 +8915,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
         <f>Sheet1!A85</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B92">
         <v>68</v>
@@ -7117,7 +8924,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
         <f>Sheet1!A86</f>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>69</v>
@@ -7126,7 +8933,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
         <f>Sheet1!A87</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B94">
         <v>70</v>
@@ -7135,7 +8942,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
         <f>Sheet1!A88</f>
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>71</v>
@@ -7144,7 +8951,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
         <f>Sheet1!A89</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>71</v>
@@ -7153,7 +8960,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
         <f>Sheet1!A90</f>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B97">
         <v>72</v>
@@ -7162,7 +8969,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
         <f>Sheet1!A91</f>
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B98">
         <v>73</v>
@@ -7171,7 +8978,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
         <f>Sheet1!A92</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B99">
         <v>74</v>
@@ -7180,7 +8987,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
         <f>Sheet1!A93</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B100">
         <v>75</v>
@@ -7189,7 +8996,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
         <f>Sheet1!A94</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B101">
         <v>75</v>
@@ -7198,7 +9005,7 @@
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
         <f>Sheet1!A95</f>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B102">
         <v>75</v>

--- a/data_files/data_integrity.xlsx
+++ b/data_files/data_integrity.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tech/PhpstormProjects/csi-music-website/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611F9EDA-EA75-D64D-9754-37DAC97A720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A16AD62-E10B-304A-B418-648226CE007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="8200" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="14480" yWindow="500" windowWidth="14320" windowHeight="8120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16420" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tracks" sheetId="1" r:id="rId1"/>
     <sheet name="playlists" sheetId="2" r:id="rId2"/>
     <sheet name="music_to_playlist" sheetId="3" r:id="rId3"/>
     <sheet name="artists" sheetId="6" r:id="rId4"/>
@@ -37,29 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="384">
   <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Track#</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Indie Rock</t>
-  </si>
-  <si>
     <t>2-30.mp3</t>
   </si>
   <si>
@@ -111,9 +91,6 @@
     <t>At Budokan</t>
   </si>
   <si>
-    <t>Folk Cont</t>
-  </si>
-  <si>
     <t>All The Young Dudes.mp3</t>
   </si>
   <si>
@@ -306,9 +283,6 @@
     <t>Five Minutes With Arctic Monkeys</t>
   </si>
   <si>
-    <t>Indie Rock / Brit Pop</t>
-  </si>
-  <si>
     <t>fear.mp3</t>
   </si>
   <si>
@@ -327,9 +301,6 @@
     <t>Fields of Gold</t>
   </si>
   <si>
-    <t>Rock Celtic</t>
-  </si>
-  <si>
     <t>Fire.mp3</t>
   </si>
   <si>
@@ -432,9 +403,6 @@
     <t>Hopeless Wanderer</t>
   </si>
   <si>
-    <t>Folk Rock</t>
-  </si>
-  <si>
     <t>How do you plead.mp3</t>
   </si>
   <si>
@@ -534,9 +502,6 @@
     <t>Marijuana</t>
   </si>
   <si>
-    <t>Psychadelic</t>
-  </si>
-  <si>
     <t>Marooned.mp3</t>
   </si>
   <si>
@@ -831,15 +796,9 @@
     <t>Zombie</t>
   </si>
   <si>
-    <t>Alternative Metal / Nu-Metal / Gothic Rock</t>
-  </si>
-  <si>
     <t>Hey</t>
   </si>
   <si>
-    <t>Alternative  Rock / Post-Grunge</t>
-  </si>
-  <si>
     <t>Earth And Sky.mp3</t>
   </si>
   <si>
@@ -855,9 +814,6 @@
     <t>He Aha Ra Te Manu</t>
   </si>
   <si>
-    <t>Moari, Ethnic,New Age</t>
-  </si>
-  <si>
     <t>Ashes By Now.mp3</t>
   </si>
   <si>
@@ -966,21 +922,12 @@
     <t>Fields of Fire</t>
   </si>
   <si>
-    <t>Native American, Ethnic</t>
-  </si>
-  <si>
     <t>Formatting Changed</t>
   </si>
   <si>
-    <t>Maori, Ethnic,New Age</t>
-  </si>
-  <si>
     <t>Spellcheck</t>
   </si>
   <si>
-    <t>albumn_id</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -1228,6 +1175,18 @@
   </si>
   <si>
     <t>Gothic</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>playlist_id</t>
+  </si>
+  <si>
+    <t>artist_name</t>
   </si>
 </sst>
 </file>
@@ -1670,2230 +1629,1649 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="2">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="74.1640625" customWidth="1"/>
     <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="5"/>
-    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="5"/>
+    <col min="6" max="6" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>297</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="4">
+        <v>189</v>
+      </c>
+      <c r="D2" s="4">
         <v>114</v>
       </c>
-      <c r="G2">
+      <c r="E2">
         <v>3692</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="4">
+        <v>233</v>
+      </c>
+      <c r="D3" s="4">
         <v>204</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>6488</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="4">
+        <v>272</v>
+      </c>
+      <c r="D4" s="4">
         <v>233</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>9109</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="4">
+        <v>211</v>
+      </c>
+      <c r="D5" s="4">
         <v>292</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>11442</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="4">
+        <v>272</v>
+      </c>
+      <c r="D6" s="4">
         <v>244</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>3818</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="4">
+        <v>281</v>
+      </c>
+      <c r="D7" s="4">
         <v>162</v>
       </c>
-      <c r="G7">
+      <c r="E7">
         <v>2551</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="4">
+        <v>187</v>
+      </c>
+      <c r="D8" s="4">
         <v>192</v>
       </c>
-      <c r="G8">
+      <c r="E8">
         <v>7553</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="4">
         <v>252</v>
       </c>
-      <c r="G9">
+      <c r="D9" s="4">
+        <v>252</v>
+      </c>
+      <c r="E9">
         <v>9874</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="4">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4">
         <v>197</v>
       </c>
-      <c r="G10">
+      <c r="E10">
         <v>7893</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="4">
+        <v>242</v>
+      </c>
+      <c r="D11" s="4">
         <v>217</v>
       </c>
-      <c r="G11">
+      <c r="E11">
         <v>3408</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4">
+        <v>196</v>
+      </c>
+      <c r="D12" s="4">
         <v>284</v>
       </c>
-      <c r="G12">
+      <c r="E12">
         <v>4444</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4">
+        <v>249</v>
+      </c>
+      <c r="D13" s="4">
         <v>208</v>
       </c>
-      <c r="G13">
+      <c r="E13">
         <v>3258</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4">
+        <v>213</v>
+      </c>
+      <c r="D14" s="4">
         <v>292</v>
       </c>
-      <c r="G14">
+      <c r="E14">
         <v>9158</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="4">
+        <v>207</v>
+      </c>
+      <c r="D15" s="4">
         <v>213</v>
       </c>
-      <c r="G15">
+      <c r="E15">
         <v>5011</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="4">
+        <v>174</v>
+      </c>
+      <c r="D16" s="4">
         <v>270</v>
       </c>
-      <c r="G16">
+      <c r="E16">
         <v>10569</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="4">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4">
         <v>221</v>
       </c>
-      <c r="G17">
+      <c r="E17">
         <v>6914</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="4">
+        <v>253</v>
+      </c>
+      <c r="D18" s="4">
         <v>262</v>
       </c>
-      <c r="G18">
+      <c r="E18">
         <v>4101</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="4">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4">
         <v>230</v>
       </c>
-      <c r="G19">
+      <c r="E19">
         <v>9069</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="4">
+        <v>275</v>
+      </c>
+      <c r="D20" s="4">
         <v>123</v>
       </c>
-      <c r="G20">
+      <c r="E20">
         <v>2906</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="4">
+        <v>283</v>
+      </c>
+      <c r="D21" s="4">
         <v>205</v>
       </c>
-      <c r="G21">
+      <c r="E21">
         <v>4015</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="4">
+        <v>247</v>
+      </c>
+      <c r="D22" s="4">
         <v>217</v>
       </c>
-      <c r="G22">
+      <c r="E22">
         <v>3409</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="4">
+        <v>262</v>
+      </c>
+      <c r="D23" s="4">
         <v>252</v>
       </c>
-      <c r="G23">
+      <c r="E23">
         <v>9880</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="4">
+        <v>262</v>
+      </c>
+      <c r="D24" s="4">
         <v>251</v>
       </c>
-      <c r="G24">
+      <c r="E24">
         <v>9851</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="4">
+        <v>151</v>
+      </c>
+      <c r="D25" s="4">
         <v>228</v>
       </c>
-      <c r="G25">
+      <c r="E25">
         <v>5366</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="4">
+        <v>219</v>
+      </c>
+      <c r="D26" s="4">
         <v>319</v>
       </c>
-      <c r="G26">
+      <c r="E26">
         <v>7496</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="4">
+        <v>139</v>
+      </c>
+      <c r="D27" s="4">
         <v>256</v>
       </c>
-      <c r="G27">
+      <c r="E27">
         <v>4006</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="4">
+        <v>147</v>
+      </c>
+      <c r="D28" s="4">
         <v>252</v>
       </c>
-      <c r="G28">
+      <c r="E28">
         <v>3951</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="4">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4">
         <v>179</v>
       </c>
-      <c r="G29">
+      <c r="E29">
         <v>5601</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="4">
+        <v>31</v>
+      </c>
+      <c r="D30" s="4">
         <v>512</v>
       </c>
-      <c r="G30">
+      <c r="E30">
         <v>20045</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="4">
+        <v>205</v>
+      </c>
+      <c r="D31" s="4">
         <v>302</v>
       </c>
-      <c r="G31">
+      <c r="E31">
         <v>11841</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="4">
+        <v>198</v>
+      </c>
+      <c r="D32" s="4">
         <v>248</v>
       </c>
-      <c r="G32">
+      <c r="E32">
         <v>9693</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="4">
+        <v>46</v>
+      </c>
+      <c r="D33" s="4">
         <v>213</v>
       </c>
-      <c r="G33">
+      <c r="E33">
         <v>3338</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="4">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
         <v>233</v>
       </c>
-      <c r="G34">
+      <c r="E34">
         <v>6904</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="4">
+      <c r="D35" s="4">
         <v>1111</v>
       </c>
-      <c r="G35">
+      <c r="E35">
         <v>34731</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="4">
+        <v>114</v>
+      </c>
+      <c r="D36" s="4">
         <v>210</v>
       </c>
-      <c r="G36">
+      <c r="E36">
         <v>6588</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="4">
+        <v>228</v>
+      </c>
+      <c r="D37" s="4">
         <v>157</v>
       </c>
-      <c r="G37">
+      <c r="E37">
         <v>4929</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="4">
+        <v>68</v>
+      </c>
+      <c r="D38" s="4">
         <v>301</v>
       </c>
-      <c r="G38">
+      <c r="E38">
         <v>11766</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="4">
+        <v>221</v>
+      </c>
+      <c r="D39" s="4">
         <v>328</v>
       </c>
-      <c r="G39">
+      <c r="E39">
         <v>12854</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="4">
+        <v>121</v>
+      </c>
+      <c r="D40" s="4">
         <v>307</v>
       </c>
-      <c r="G40">
+      <c r="E40">
         <v>10236</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="4">
+        <v>201</v>
+      </c>
+      <c r="D41" s="4">
         <v>359</v>
       </c>
-      <c r="G41">
+      <c r="E41">
         <v>14107</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4">
         <v>439</v>
       </c>
-      <c r="G42">
+      <c r="E42">
         <v>6865</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="4">
+        <v>123</v>
+      </c>
+      <c r="D43" s="4">
         <v>400</v>
       </c>
-      <c r="G43">
+      <c r="E43">
         <v>6251</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4">
+        <v>226</v>
+      </c>
+      <c r="D44" s="4">
         <v>220</v>
       </c>
-      <c r="G44">
+      <c r="E44">
         <v>8959</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="4">
+        <v>238</v>
+      </c>
+      <c r="D45" s="4">
         <v>300</v>
       </c>
-      <c r="G45">
+      <c r="E45">
         <v>11870</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="4">
+        <v>185</v>
+      </c>
+      <c r="D46" s="4">
         <v>188</v>
       </c>
-      <c r="G46">
+      <c r="E46">
         <v>7414</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="4">
+        <v>165</v>
+      </c>
+      <c r="D47" s="4">
         <v>213</v>
       </c>
-      <c r="G47">
+      <c r="E47">
         <v>8359</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="4">
+        <v>310</v>
+      </c>
+      <c r="D48" s="4">
         <v>181</v>
       </c>
-      <c r="G48">
+      <c r="E48">
         <v>7271</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="4">
+        <v>245</v>
+      </c>
+      <c r="D49" s="4">
         <v>142</v>
       </c>
-      <c r="G49">
+      <c r="E49">
         <v>5771</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="4">
+        <v>54</v>
+      </c>
+      <c r="D50" s="4">
         <v>339</v>
       </c>
-      <c r="G50">
+      <c r="E50">
         <v>10605</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="4">
+        <v>235</v>
+      </c>
+      <c r="D51" s="4">
         <v>250</v>
       </c>
-      <c r="G51">
+      <c r="E51">
         <v>9784</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="4">
+        <v>293</v>
+      </c>
+      <c r="D52" s="4">
         <v>221</v>
       </c>
-      <c r="G52">
+      <c r="E52">
         <v>3463</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F53" s="4">
+        <v>256</v>
+      </c>
+      <c r="D53" s="4">
         <v>208</v>
       </c>
-      <c r="G53">
+      <c r="E53">
         <v>5984</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="4">
+        <v>95</v>
+      </c>
+      <c r="D54" s="4">
         <v>207</v>
       </c>
-      <c r="G54">
+      <c r="E54">
         <v>4866</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="4">
+        <v>161</v>
+      </c>
+      <c r="D55" s="4">
         <v>242</v>
       </c>
-      <c r="G55">
+      <c r="E55">
         <v>5686</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>226</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="4">
+        <v>215</v>
+      </c>
+      <c r="D56" s="4">
         <v>195</v>
       </c>
-      <c r="G56">
+      <c r="E56">
         <v>4594</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>271</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F57" s="4">
+        <v>258</v>
+      </c>
+      <c r="D57" s="4">
         <v>143</v>
       </c>
-      <c r="G57">
+      <c r="E57">
         <v>4444</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F58" s="4">
+        <v>72</v>
+      </c>
+      <c r="D58" s="4">
         <v>145</v>
       </c>
-      <c r="G58">
+      <c r="E58">
         <v>2269</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="4">
+        <v>128</v>
+      </c>
+      <c r="D59" s="4">
         <v>356</v>
       </c>
-      <c r="G59">
+      <c r="E59">
         <v>11141</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="4">
+        <v>194</v>
+      </c>
+      <c r="D60" s="4">
         <v>369</v>
       </c>
-      <c r="G60">
+      <c r="E60">
         <v>11546</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="4">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4">
         <v>60</v>
       </c>
-      <c r="G61">
+      <c r="E61">
         <v>1446</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="4">
+        <v>223</v>
+      </c>
+      <c r="D62" s="4">
         <v>206</v>
       </c>
-      <c r="G62">
+      <c r="E62">
         <v>5677</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="4">
+        <v>23</v>
+      </c>
+      <c r="D63" s="4">
         <v>195</v>
       </c>
-      <c r="G63">
+      <c r="E63">
         <v>6176</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="4">
+        <v>290</v>
+      </c>
+      <c r="D64" s="4">
         <v>160</v>
       </c>
-      <c r="G64">
+      <c r="E64">
         <v>5025</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="4">
+        <v>198</v>
+      </c>
+      <c r="D65" s="4">
         <v>277</v>
       </c>
-      <c r="G65">
+      <c r="E65">
         <v>4347</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>301</v>
-      </c>
-      <c r="D66">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="4">
+        <v>287</v>
+      </c>
+      <c r="D66" s="4">
         <v>135</v>
       </c>
-      <c r="G66">
+      <c r="E66">
         <v>2884</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s">
-        <v>181</v>
-      </c>
-      <c r="F67" s="4">
+        <v>169</v>
+      </c>
+      <c r="D67" s="4">
         <v>236</v>
       </c>
-      <c r="G67">
+      <c r="E67">
         <v>5550</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>170</v>
-      </c>
-      <c r="F68" s="4">
+        <v>178</v>
+      </c>
+      <c r="D68" s="4">
         <v>308</v>
       </c>
-      <c r="G68">
+      <c r="E68">
         <v>10086</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>170</v>
-      </c>
-      <c r="F69" s="4">
+        <v>158</v>
+      </c>
+      <c r="D69" s="4">
         <v>329</v>
       </c>
-      <c r="G69">
+      <c r="E69">
         <v>10384</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>165</v>
-      </c>
-      <c r="F70" s="4">
+        <v>154</v>
+      </c>
+      <c r="D70" s="4">
         <v>152</v>
       </c>
-      <c r="G70">
+      <c r="E70">
         <v>3575</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="4">
+        <v>50</v>
+      </c>
+      <c r="D71" s="4">
         <v>314</v>
       </c>
-      <c r="G71">
+      <c r="E71">
         <v>10894</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="4">
+        <v>99</v>
+      </c>
+      <c r="D72" s="4">
         <v>276</v>
       </c>
-      <c r="G72">
+      <c r="E72">
         <v>8646</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="4">
+        <v>180</v>
+      </c>
+      <c r="D73" s="4">
         <v>256</v>
       </c>
-      <c r="G73">
+      <c r="E73">
         <v>8028</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="4">
+        <v>198</v>
+      </c>
+      <c r="D74" s="4">
         <v>277</v>
       </c>
-      <c r="G74">
+      <c r="E74">
         <v>8667</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="4">
+        <v>36</v>
+      </c>
+      <c r="D75" s="4">
         <v>397</v>
       </c>
-      <c r="G75">
+      <c r="E75">
         <v>11596</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="4">
+        <v>57</v>
+      </c>
+      <c r="D76" s="4">
         <v>365</v>
       </c>
-      <c r="G76">
+      <c r="E76">
         <v>11428</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
-      </c>
-      <c r="D77">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="4">
+        <v>275</v>
+      </c>
+      <c r="D77" s="4">
         <v>241</v>
       </c>
-      <c r="G77">
+      <c r="E77">
         <v>9426</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="4">
+        <v>283</v>
+      </c>
+      <c r="D78" s="4">
         <v>174</v>
       </c>
-      <c r="G78">
+      <c r="E78">
         <v>6818</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="4">
+        <v>266</v>
+      </c>
+      <c r="D79" s="4">
         <v>816</v>
       </c>
-      <c r="G79">
+      <c r="E79">
         <v>25506</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="4">
+        <v>108</v>
+      </c>
+      <c r="D80" s="4">
         <v>319</v>
       </c>
-      <c r="G80">
+      <c r="E80">
         <v>12468</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>295</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="4">
+        <v>281</v>
+      </c>
+      <c r="D81" s="4">
         <v>204</v>
       </c>
-      <c r="G81">
+      <c r="E81">
         <v>7990</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="4">
+        <v>231</v>
+      </c>
+      <c r="D82" s="4">
         <v>306</v>
       </c>
-      <c r="G82">
+      <c r="E82">
         <v>11972</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="4">
+        <v>19</v>
+      </c>
+      <c r="D83" s="4">
         <v>232</v>
       </c>
-      <c r="G83">
+      <c r="E83">
         <v>9081</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84">
-        <v>15</v>
-      </c>
-      <c r="E84" t="s">
-        <v>96</v>
-      </c>
-      <c r="F84" s="4">
+        <v>87</v>
+      </c>
+      <c r="D84" s="4">
         <v>214</v>
       </c>
-      <c r="G84">
+      <c r="E84">
         <v>8382</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" s="4">
+        <v>136</v>
+      </c>
+      <c r="D85" s="4">
         <v>201</v>
       </c>
-      <c r="G85">
+      <c r="E85">
         <v>4722</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D86">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="4">
+        <v>269</v>
+      </c>
+      <c r="D86" s="4">
         <v>287</v>
       </c>
-      <c r="G86">
+      <c r="E86">
         <v>7862</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>74</v>
       </c>
       <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
         <v>90</v>
       </c>
-      <c r="C87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="4">
+      <c r="D87" s="4">
         <v>206</v>
       </c>
-      <c r="G87">
+      <c r="E87">
         <v>6465</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
-      </c>
-      <c r="D88">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>100</v>
-      </c>
-      <c r="F88" s="4">
+        <v>105</v>
+      </c>
+      <c r="D88" s="4">
         <v>227</v>
       </c>
-      <c r="G88">
+      <c r="E88">
         <v>8874</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
-      </c>
-      <c r="D89">
-        <v>9</v>
-      </c>
-      <c r="E89" t="s">
-        <v>100</v>
-      </c>
-      <c r="F89" s="4">
+        <v>125</v>
+      </c>
+      <c r="D89" s="4">
         <v>238</v>
       </c>
-      <c r="G89">
+      <c r="E89">
         <v>9330</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>49</v>
-      </c>
-      <c r="F90" s="4">
+        <v>61</v>
+      </c>
+      <c r="D90" s="4">
         <v>149</v>
       </c>
-      <c r="G90">
+      <c r="E90">
         <v>4094</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F91" s="4">
+        <v>41</v>
+      </c>
+      <c r="D91" s="4">
         <v>223</v>
       </c>
-      <c r="G91">
+      <c r="E91">
         <v>8776</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92">
-        <v>8</v>
-      </c>
-      <c r="E92" t="s">
-        <v>155</v>
-      </c>
-      <c r="F92" s="4">
+        <v>144</v>
+      </c>
+      <c r="D92" s="4">
         <v>142</v>
       </c>
-      <c r="G92">
+      <c r="E92">
         <v>3368</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>300</v>
-      </c>
-      <c r="F93" s="4">
+        <v>325</v>
+      </c>
+      <c r="D93" s="4">
         <v>243</v>
       </c>
-      <c r="G93">
+      <c r="E93">
         <v>7608</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94" t="s">
-        <v>46</v>
-      </c>
-      <c r="F94" s="4">
+        <v>112</v>
+      </c>
+      <c r="D94" s="4">
         <v>211</v>
       </c>
-      <c r="G94">
+      <c r="E94">
         <v>8263</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
-        <v>46</v>
-      </c>
-      <c r="F95" s="4">
+        <v>117</v>
+      </c>
+      <c r="D95" s="4">
         <v>294</v>
       </c>
-      <c r="G95">
+      <c r="E95">
         <v>9222</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G95">
-    <sortCondition ref="E2:E95"/>
-  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3905,16 +3283,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="1">
-      <selection activeCell="D121" sqref="D121"/>
-    </sheetView>
-    <sheetView topLeftCell="A72" workbookViewId="2">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
@@ -3922,16 +3297,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3939,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3953,16 +3328,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3970,14 +3345,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3985,16 +3360,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4002,16 +3377,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4019,10 +3394,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -4033,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="10">
@@ -4045,7 +3420,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="10">
@@ -4057,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
@@ -4069,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
@@ -4081,7 +3456,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -4093,10 +3468,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -4107,7 +3482,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
@@ -4119,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10">
@@ -4131,7 +3506,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
@@ -4143,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
@@ -4155,7 +3530,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -4167,7 +3542,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
@@ -4179,10 +3554,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -4193,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
@@ -4205,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="10">
@@ -4217,7 +3592,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -4229,7 +3604,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10">
@@ -4241,7 +3616,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10">
@@ -4253,7 +3628,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10">
@@ -4265,7 +3640,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10">
@@ -4277,7 +3652,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -4289,7 +3664,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10">
@@ -4301,7 +3676,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10">
@@ -4313,7 +3688,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
@@ -4325,7 +3700,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
@@ -4337,10 +3712,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -4351,7 +3726,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -4363,7 +3738,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
@@ -4375,7 +3750,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
@@ -4387,7 +3762,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -4399,7 +3774,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -4411,7 +3786,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -4423,7 +3798,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -4435,7 +3810,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -4447,10 +3822,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
@@ -4461,7 +3836,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -4473,10 +3848,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
@@ -4487,7 +3862,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C45" s="13">
         <v>38875</v>
@@ -4501,10 +3876,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
@@ -4515,7 +3890,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -4527,7 +3902,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -4539,7 +3914,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -4551,7 +3926,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
@@ -4563,10 +3938,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -4577,10 +3952,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -4591,7 +3966,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
@@ -4603,7 +3978,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -4615,7 +3990,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -4627,7 +4002,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -4639,7 +4014,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
@@ -4651,7 +4026,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
@@ -4663,7 +4038,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -4675,7 +4050,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10">
@@ -4687,7 +4062,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10">
@@ -4699,7 +4074,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10">
@@ -4711,7 +4086,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10">
@@ -4723,7 +4098,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
@@ -4735,10 +4110,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -4749,7 +4124,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10">
@@ -4761,7 +4136,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10">
@@ -4773,7 +4148,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10">
@@ -4785,7 +4160,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10">
@@ -4797,7 +4172,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -4809,7 +4184,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
@@ -4821,10 +4196,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D72" s="10">
         <v>1</v>
@@ -4835,7 +4210,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C73" s="10">
         <v>1969</v>
@@ -4849,7 +4224,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C74" s="10">
         <v>1971</v>
@@ -4863,7 +4238,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -4875,10 +4250,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C76" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D76" s="10">
         <v>1</v>
@@ -4889,7 +4264,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -4900,10 +4275,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D78" s="14">
         <v>1</v>
@@ -4914,7 +4289,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D79" s="18">
         <v>2</v>
@@ -4925,7 +4300,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D80" s="18">
         <v>2</v>
@@ -4936,7 +4311,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D81" s="18">
         <v>2</v>
@@ -4947,7 +4322,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D82" s="18">
         <v>2</v>
@@ -4958,7 +4333,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -4969,7 +4344,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D84" s="18">
         <v>2</v>
@@ -4980,7 +4355,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D85" s="18">
         <v>2</v>
@@ -4991,7 +4366,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D86" s="18">
         <v>2</v>
@@ -5002,7 +4377,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D87" s="18">
         <v>2</v>
@@ -5013,7 +4388,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D88" s="18">
         <v>2</v>
@@ -5024,7 +4399,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D89" s="18">
         <v>2</v>
@@ -5035,7 +4410,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D90" s="18">
         <v>2</v>
@@ -5046,7 +4421,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D91" s="18">
         <v>2</v>
@@ -5057,7 +4432,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D92" s="18">
         <v>2</v>
@@ -5068,7 +4443,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D93" s="18">
         <v>2</v>
@@ -5079,7 +4454,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
@@ -5090,7 +4465,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
@@ -5101,7 +4476,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
@@ -5112,7 +4487,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
@@ -5123,7 +4498,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
@@ -5134,7 +4509,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
@@ -5145,7 +4520,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
@@ -5156,7 +4531,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
@@ -5167,7 +4542,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -5178,7 +4553,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
@@ -5189,7 +4564,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
@@ -5200,7 +4575,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -5211,7 +4586,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D106" s="18">
         <v>2</v>
@@ -5222,7 +4597,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D107" s="18">
         <v>2</v>
@@ -5233,7 +4608,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D108" s="18">
         <v>2</v>
@@ -5244,7 +4619,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D109" s="18">
         <v>2</v>
@@ -5255,7 +4630,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="D110" s="18">
         <v>2</v>
@@ -5266,7 +4641,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D111" s="18">
         <v>2</v>
@@ -5277,7 +4652,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D112" s="18">
         <v>2</v>
@@ -5288,7 +4663,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D113" s="18">
         <v>2</v>
@@ -5299,7 +4674,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D114" s="18">
         <v>2</v>
@@ -5310,7 +4685,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -5321,7 +4696,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -5332,7 +4707,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -5347,22 +4722,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
-    <sheetView topLeftCell="A85" workbookViewId="1">
-      <selection activeCell="D90" sqref="D90"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6132,9 +5503,9 @@
       <c r="B97" s="18">
         <v>78</v>
       </c>
-      <c r="D97" t="str">
-        <f>Sheet1!E2</f>
-        <v>Acoustic</v>
+      <c r="D97" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -6144,9 +5515,9 @@
       <c r="B98" s="18">
         <v>78</v>
       </c>
-      <c r="D98" t="str">
-        <f>Sheet1!E3</f>
-        <v>Acoustic</v>
+      <c r="D98" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -6156,9 +5527,9 @@
       <c r="B99" s="18">
         <v>79</v>
       </c>
-      <c r="D99" t="str">
-        <f>Sheet1!E4</f>
-        <v>Alternative</v>
+      <c r="D99" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -6168,9 +5539,9 @@
       <c r="B100" s="18">
         <v>79</v>
       </c>
-      <c r="D100" t="str">
-        <f>Sheet1!E5</f>
-        <v>Alternative</v>
+      <c r="D100" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -6180,9 +5551,9 @@
       <c r="B101" s="18">
         <v>79</v>
       </c>
-      <c r="D101" t="str">
-        <f>Sheet1!E6</f>
-        <v>Alternative</v>
+      <c r="D101" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -6192,9 +5563,9 @@
       <c r="B102">
         <v>79</v>
       </c>
-      <c r="D102" t="str">
-        <f>Sheet1!E7</f>
-        <v>Alternative</v>
+      <c r="D102" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -6204,9 +5575,9 @@
       <c r="B103">
         <v>79</v>
       </c>
-      <c r="D103" t="str">
-        <f>Sheet1!E8</f>
-        <v>Alternative</v>
+      <c r="D103" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -6216,9 +5587,9 @@
       <c r="B104">
         <v>79</v>
       </c>
-      <c r="D104" t="str">
-        <f>Sheet1!E9</f>
-        <v>Alternative  Rock / Post-Grunge</v>
+      <c r="D104" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -6244,9 +5615,9 @@
       <c r="B107">
         <v>79</v>
       </c>
-      <c r="D107" t="str">
-        <f>Sheet1!E10</f>
-        <v>Alternative Metal / Nu-Metal / Gothic Rock</v>
+      <c r="D107" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -6288,9 +5659,9 @@
       <c r="B112">
         <v>85</v>
       </c>
-      <c r="D112" t="str">
-        <f>Sheet1!E11</f>
-        <v>Avante-Garde</v>
+      <c r="D112" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -6300,9 +5671,9 @@
       <c r="B113">
         <v>86</v>
       </c>
-      <c r="D113" t="str">
-        <f>Sheet1!E12</f>
-        <v>Bluegrass</v>
+      <c r="D113" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -6312,9 +5683,9 @@
       <c r="B114">
         <v>86</v>
       </c>
-      <c r="D114" t="str">
-        <f>Sheet1!E13</f>
-        <v>Bluegrass</v>
+      <c r="D114" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -6324,9 +5695,9 @@
       <c r="B115">
         <v>86</v>
       </c>
-      <c r="D115" t="str">
-        <f>Sheet1!E14</f>
-        <v>Bluegrass</v>
+      <c r="D115" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -6336,9 +5707,9 @@
       <c r="B116">
         <v>86</v>
       </c>
-      <c r="D116" t="str">
-        <f>Sheet1!E15</f>
-        <v>Blues</v>
+      <c r="D116" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -6348,9 +5719,9 @@
       <c r="B117">
         <v>86</v>
       </c>
-      <c r="D117" t="str">
-        <f>Sheet1!E16</f>
-        <v>Blues</v>
+      <c r="D117" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -6360,9 +5731,9 @@
       <c r="B118">
         <v>88</v>
       </c>
-      <c r="D118" t="str">
-        <f>Sheet1!E17</f>
-        <v>Celtic</v>
+      <c r="D118" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -6372,9 +5743,9 @@
       <c r="B119">
         <v>88</v>
       </c>
-      <c r="D119" t="str">
-        <f>Sheet1!E18</f>
-        <v>Celtic</v>
+      <c r="D119" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
@@ -6384,9 +5755,9 @@
       <c r="B120">
         <v>89</v>
       </c>
-      <c r="D120" t="str">
-        <f>Sheet1!E19</f>
-        <v>Country</v>
+      <c r="D120" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
@@ -6396,9 +5767,9 @@
       <c r="B121">
         <v>89</v>
       </c>
-      <c r="D121" t="str">
-        <f>Sheet1!E20</f>
-        <v>Country</v>
+      <c r="D121" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -6408,9 +5779,9 @@
       <c r="B122">
         <v>89</v>
       </c>
-      <c r="D122" t="str">
-        <f>Sheet1!E21</f>
-        <v>Country</v>
+      <c r="D122" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -6420,9 +5791,9 @@
       <c r="B123">
         <v>89</v>
       </c>
-      <c r="D123" t="str">
-        <f>Sheet1!E22</f>
-        <v>Country</v>
+      <c r="D123" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -6432,9 +5803,9 @@
       <c r="B124">
         <v>89</v>
       </c>
-      <c r="D124" t="str">
-        <f>Sheet1!E23</f>
-        <v>Country</v>
+      <c r="D124" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -6444,9 +5815,9 @@
       <c r="B125">
         <v>89</v>
       </c>
-      <c r="D125" t="str">
-        <f>Sheet1!E24</f>
-        <v>Country</v>
+      <c r="D125" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -6456,9 +5827,9 @@
       <c r="B126">
         <v>90</v>
       </c>
-      <c r="D126" t="str">
-        <f>Sheet1!E25</f>
-        <v>Dance</v>
+      <c r="D126" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -6468,9 +5839,9 @@
       <c r="B127">
         <v>90</v>
       </c>
-      <c r="D127" t="str">
-        <f>Sheet1!E26</f>
-        <v>Dance</v>
+      <c r="D127" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -6480,9 +5851,9 @@
       <c r="B128">
         <v>91</v>
       </c>
-      <c r="D128" t="str">
-        <f>Sheet1!E27</f>
-        <v>Easy Listening - Female</v>
+      <c r="D128" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
@@ -6492,9 +5863,9 @@
       <c r="B129">
         <v>91</v>
       </c>
-      <c r="D129" t="str">
-        <f>Sheet1!E28</f>
-        <v>Easy Listening - Female</v>
+      <c r="D129" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
@@ -6504,9 +5875,9 @@
       <c r="B130">
         <v>93</v>
       </c>
-      <c r="D130" t="str">
-        <f>Sheet1!E29</f>
-        <v>Easy Listening - Group</v>
+      <c r="D130" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -6516,9 +5887,9 @@
       <c r="B131">
         <v>92</v>
       </c>
-      <c r="D131" t="str">
-        <f>Sheet1!E30</f>
-        <v>Easy Listening - Male</v>
+      <c r="D131" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
@@ -6528,9 +5899,9 @@
       <c r="B132">
         <v>92</v>
       </c>
-      <c r="D132" t="str">
-        <f>Sheet1!E31</f>
-        <v>Easy Listening - Male</v>
+      <c r="D132" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -6540,9 +5911,9 @@
       <c r="B133">
         <v>92</v>
       </c>
-      <c r="D133" t="str">
-        <f>Sheet1!E32</f>
-        <v>Easy Listening - Male</v>
+      <c r="D133" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
@@ -6552,9 +5923,9 @@
       <c r="B134">
         <v>94</v>
       </c>
-      <c r="D134" t="str">
-        <f>Sheet1!E33</f>
-        <v>Folk</v>
+      <c r="D134" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -6564,9 +5935,9 @@
       <c r="B135">
         <v>94</v>
       </c>
-      <c r="D135" t="str">
-        <f>Sheet1!E34</f>
-        <v>Folk</v>
+      <c r="D135" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
@@ -6576,9 +5947,9 @@
       <c r="B136">
         <v>94</v>
       </c>
-      <c r="D136" t="str">
-        <f>Sheet1!E35</f>
-        <v>Folk</v>
+      <c r="D136" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
@@ -6588,9 +5959,9 @@
       <c r="B137">
         <v>94</v>
       </c>
-      <c r="D137" t="str">
-        <f>Sheet1!E36</f>
-        <v>Folk</v>
+      <c r="D137" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
@@ -6600,9 +5971,9 @@
       <c r="B138">
         <v>94</v>
       </c>
-      <c r="D138" t="str">
-        <f>Sheet1!E37</f>
-        <v>Folk</v>
+      <c r="D138" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
@@ -6620,9 +5991,9 @@
       <c r="B140">
         <v>95</v>
       </c>
-      <c r="D140" t="str">
-        <f>Sheet1!E38</f>
-        <v>Folk Cont</v>
+      <c r="D140" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
@@ -6640,9 +6011,9 @@
       <c r="B142">
         <v>95</v>
       </c>
-      <c r="D142" t="str">
-        <f>Sheet1!E39</f>
-        <v>Folk Cont</v>
+      <c r="D142" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
@@ -6660,9 +6031,9 @@
       <c r="B144">
         <v>80</v>
       </c>
-      <c r="D144" t="str">
-        <f>Sheet1!E40</f>
-        <v>Folk Rock</v>
+      <c r="D144" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
@@ -6680,9 +6051,9 @@
       <c r="B146">
         <v>80</v>
       </c>
-      <c r="D146" t="str">
-        <f>Sheet1!E41</f>
-        <v>Folk Rock</v>
+      <c r="D146" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
@@ -6692,9 +6063,9 @@
       <c r="B147">
         <v>96</v>
       </c>
-      <c r="D147" t="str">
-        <f>Sheet1!E42</f>
-        <v>Goa</v>
+      <c r="D147" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
@@ -6704,9 +6075,9 @@
       <c r="B148">
         <v>96</v>
       </c>
-      <c r="D148" t="str">
-        <f>Sheet1!E43</f>
-        <v>Goa</v>
+      <c r="D148" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
@@ -6716,9 +6087,9 @@
       <c r="B149">
         <v>97</v>
       </c>
-      <c r="D149" t="str">
-        <f>Sheet1!E44</f>
-        <v>Indie</v>
+      <c r="D149" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
@@ -6728,9 +6099,9 @@
       <c r="B150">
         <v>97</v>
       </c>
-      <c r="D150" t="str">
-        <f>Sheet1!E45</f>
-        <v>Indie</v>
+      <c r="D150" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
@@ -6748,9 +6119,9 @@
       <c r="B152">
         <v>97</v>
       </c>
-      <c r="D152" t="str">
-        <f>Sheet1!E46</f>
-        <v>Indie Rock</v>
+      <c r="D152" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
@@ -6768,9 +6139,9 @@
       <c r="B154">
         <v>97</v>
       </c>
-      <c r="D154" t="str">
-        <f>Sheet1!E47</f>
-        <v>Indie Rock</v>
+      <c r="D154" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
@@ -6804,9 +6175,9 @@
       <c r="B158">
         <v>99</v>
       </c>
-      <c r="D158" t="str">
-        <f>Sheet1!E48</f>
-        <v>Indie Rock / Brit Pop</v>
+      <c r="D158" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -6840,9 +6211,9 @@
       <c r="B162">
         <v>99</v>
       </c>
-      <c r="D162" t="str">
-        <f>Sheet1!E49</f>
-        <v>Indie Rock / Brit Pop</v>
+      <c r="D162" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
@@ -6852,9 +6223,9 @@
       <c r="B163">
         <v>100</v>
       </c>
-      <c r="D163" t="str">
-        <f>Sheet1!E50</f>
-        <v>Jazz</v>
+      <c r="D163" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -6864,9 +6235,9 @@
       <c r="B164">
         <v>100</v>
       </c>
-      <c r="D164" t="str">
-        <f>Sheet1!E51</f>
-        <v>Jazz</v>
+      <c r="D164" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
@@ -6876,9 +6247,9 @@
       <c r="B165">
         <v>100</v>
       </c>
-      <c r="D165" t="str">
-        <f>Sheet1!E52</f>
-        <v>Jazz</v>
+      <c r="D165" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
@@ -6904,9 +6275,9 @@
       <c r="B168">
         <v>103</v>
       </c>
-      <c r="D168" t="str">
-        <f>Sheet1!E53</f>
-        <v>Maori, Ethnic,New Age</v>
+      <c r="D168" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
@@ -6916,9 +6287,9 @@
       <c r="B169">
         <v>104</v>
       </c>
-      <c r="D169" t="str">
-        <f>Sheet1!E54</f>
-        <v>Mellow</v>
+      <c r="D169" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -6928,9 +6299,9 @@
       <c r="B170">
         <v>104</v>
       </c>
-      <c r="D170" t="str">
-        <f>Sheet1!E55</f>
-        <v>Mellow</v>
+      <c r="D170" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
@@ -6940,9 +6311,9 @@
       <c r="B171">
         <v>104</v>
       </c>
-      <c r="D171" t="str">
-        <f>Sheet1!E56</f>
-        <v>Mellow</v>
+      <c r="D171" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
@@ -6968,9 +6339,9 @@
       <c r="B174">
         <v>103</v>
       </c>
-      <c r="D174" t="str">
-        <f>Sheet1!E57</f>
-        <v>Moari, Ethnic,New Age</v>
+      <c r="D174" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
@@ -6988,9 +6359,9 @@
       <c r="B176">
         <v>102</v>
       </c>
-      <c r="D176" t="str">
-        <f>Sheet1!E58</f>
-        <v>Native American, Ethnic</v>
+      <c r="D176" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -7000,9 +6371,9 @@
       <c r="B177">
         <v>103</v>
       </c>
-      <c r="D177" t="str">
-        <f>Sheet1!E59</f>
-        <v>New Age</v>
+      <c r="D177" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
@@ -7012,9 +6383,9 @@
       <c r="B178">
         <v>103</v>
       </c>
-      <c r="D178" t="str">
-        <f>Sheet1!E60</f>
-        <v>New Age</v>
+      <c r="D178" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -7024,9 +6395,9 @@
       <c r="B179">
         <v>106</v>
       </c>
-      <c r="D179" t="str">
-        <f>Sheet1!E61</f>
-        <v>New Wave</v>
+      <c r="D179" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
@@ -7036,9 +6407,9 @@
       <c r="B180">
         <v>106</v>
       </c>
-      <c r="D180" t="str">
-        <f>Sheet1!E62</f>
-        <v>New Wave</v>
+      <c r="D180" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -7048,9 +6419,9 @@
       <c r="B181">
         <v>99</v>
       </c>
-      <c r="D181" t="str">
-        <f>Sheet1!E63</f>
-        <v>Pop</v>
+      <c r="D181" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -7060,9 +6431,9 @@
       <c r="B182">
         <v>99</v>
       </c>
-      <c r="D182" t="str">
-        <f>Sheet1!E64</f>
-        <v>Pop</v>
+      <c r="D182" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -7072,9 +6443,9 @@
       <c r="B183">
         <v>99</v>
       </c>
-      <c r="D183" t="str">
-        <f>Sheet1!E65</f>
-        <v>Pop</v>
+      <c r="D183" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
@@ -7084,9 +6455,9 @@
       <c r="B184">
         <v>99</v>
       </c>
-      <c r="D184" t="str">
-        <f>Sheet1!E66</f>
-        <v>Pop</v>
+      <c r="D184" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -7096,9 +6467,9 @@
       <c r="B185">
         <v>107</v>
       </c>
-      <c r="D185" t="str">
-        <f>Sheet1!E67</f>
-        <v>Post-Rock</v>
+      <c r="D185" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
@@ -7108,9 +6479,9 @@
       <c r="B186">
         <v>108</v>
       </c>
-      <c r="D186" t="str">
-        <f>Sheet1!E68</f>
-        <v>Progressive Rock</v>
+      <c r="D186" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
@@ -7120,9 +6491,9 @@
       <c r="B187">
         <v>108</v>
       </c>
-      <c r="D187" t="str">
-        <f>Sheet1!E69</f>
-        <v>Progressive Rock</v>
+      <c r="D187" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
@@ -7132,9 +6503,9 @@
       <c r="B188">
         <v>109</v>
       </c>
-      <c r="D188" t="str">
-        <f>Sheet1!E70</f>
-        <v>Psychadelic</v>
+      <c r="D188" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
@@ -7144,9 +6515,9 @@
       <c r="B189">
         <v>110</v>
       </c>
-      <c r="D189" t="str">
-        <f>Sheet1!E71</f>
-        <v>R&amp;B</v>
+      <c r="D189" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
@@ -7156,9 +6527,9 @@
       <c r="B190">
         <v>111</v>
       </c>
-      <c r="D190" t="str">
-        <f>Sheet1!E72</f>
-        <v>Reggae</v>
+      <c r="D190" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -7168,9 +6539,9 @@
       <c r="B191">
         <v>111</v>
       </c>
-      <c r="D191" t="str">
-        <f>Sheet1!E73</f>
-        <v>Reggae</v>
+      <c r="D191" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
@@ -7180,9 +6551,9 @@
       <c r="B192">
         <v>111</v>
       </c>
-      <c r="D192" t="str">
-        <f>Sheet1!E74</f>
-        <v>Reggae</v>
+      <c r="D192" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
@@ -7192,9 +6563,9 @@
       <c r="B193">
         <v>80</v>
       </c>
-      <c r="D193" t="str">
-        <f>Sheet1!E75</f>
-        <v>Rock</v>
+      <c r="D193" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
@@ -7204,9 +6575,9 @@
       <c r="B194">
         <v>80</v>
       </c>
-      <c r="D194" t="str">
-        <f>Sheet1!E76</f>
-        <v>Rock</v>
+      <c r="D194" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
@@ -7216,9 +6587,9 @@
       <c r="B195">
         <v>80</v>
       </c>
-      <c r="D195" t="str">
-        <f>Sheet1!E77</f>
-        <v>Rock</v>
+      <c r="D195" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -7228,9 +6599,9 @@
       <c r="B196">
         <v>80</v>
       </c>
-      <c r="D196" t="str">
-        <f>Sheet1!E78</f>
-        <v>Rock</v>
+      <c r="D196" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -7240,9 +6611,9 @@
       <c r="B197">
         <v>80</v>
       </c>
-      <c r="D197" t="str">
-        <f>Sheet1!E79</f>
-        <v>Rock</v>
+      <c r="D197" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -7252,9 +6623,9 @@
       <c r="B198">
         <v>80</v>
       </c>
-      <c r="D198" t="str">
-        <f>Sheet1!E80</f>
-        <v>Rock</v>
+      <c r="D198" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
@@ -7264,9 +6635,9 @@
       <c r="B199">
         <v>80</v>
       </c>
-      <c r="D199" t="str">
-        <f>Sheet1!E81</f>
-        <v>Rock</v>
+      <c r="D199" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -7276,9 +6647,9 @@
       <c r="B200">
         <v>80</v>
       </c>
-      <c r="D200" t="str">
-        <f>Sheet1!E82</f>
-        <v>Rock</v>
+      <c r="D200" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
@@ -7288,9 +6659,9 @@
       <c r="B201">
         <v>80</v>
       </c>
-      <c r="D201" t="str">
-        <f>Sheet1!E83</f>
-        <v>Rock</v>
+      <c r="D201" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -7308,9 +6679,9 @@
       <c r="B203">
         <v>88</v>
       </c>
-      <c r="D203" t="str">
-        <f>Sheet1!E84</f>
-        <v>Rock Celtic</v>
+      <c r="D203" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -7328,9 +6699,9 @@
       <c r="B205">
         <v>88</v>
       </c>
-      <c r="D205" t="str">
-        <f>Sheet1!E85</f>
-        <v>Rock Celtic</v>
+      <c r="D205" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -7348,9 +6719,9 @@
       <c r="B207">
         <v>88</v>
       </c>
-      <c r="D207" t="str">
-        <f>Sheet1!E86</f>
-        <v>Rock Celtic</v>
+      <c r="D207" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -7360,9 +6731,9 @@
       <c r="B208">
         <v>112</v>
       </c>
-      <c r="D208" t="str">
-        <f>Sheet1!E87</f>
-        <v>Soul</v>
+      <c r="D208" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -7372,9 +6743,9 @@
       <c r="B209">
         <v>112</v>
       </c>
-      <c r="D209" t="str">
-        <f>Sheet1!E88</f>
-        <v>Soul</v>
+      <c r="D209" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -7384,9 +6755,9 @@
       <c r="B210">
         <v>112</v>
       </c>
-      <c r="D210" t="str">
-        <f>Sheet1!E89</f>
-        <v>Soul</v>
+      <c r="D210" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -7396,9 +6767,9 @@
       <c r="B211">
         <v>113</v>
       </c>
-      <c r="D211" t="str">
-        <f>Sheet1!E90</f>
-        <v>US Folk</v>
+      <c r="D211" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
@@ -7408,9 +6779,9 @@
       <c r="B212">
         <v>113</v>
       </c>
-      <c r="D212" t="str">
-        <f>Sheet1!E91</f>
-        <v>US Folk</v>
+      <c r="D212" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -7420,9 +6791,9 @@
       <c r="B213">
         <v>114</v>
       </c>
-      <c r="D213" t="str">
-        <f>Sheet1!E92</f>
-        <v>Vocal</v>
+      <c r="D213" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -7432,9 +6803,9 @@
       <c r="B214">
         <v>115</v>
       </c>
-      <c r="D214" t="str">
-        <f>Sheet1!E93</f>
-        <v>Woman</v>
+      <c r="D214" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
@@ -7444,9 +6815,9 @@
       <c r="B215">
         <v>116</v>
       </c>
-      <c r="D215" t="str">
-        <f>Sheet1!E94</f>
-        <v>World</v>
+      <c r="D215" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -7456,9 +6827,9 @@
       <c r="B216">
         <v>116</v>
       </c>
-      <c r="D216" t="str">
-        <f>Sheet1!E95</f>
-        <v>World</v>
+      <c r="D216" t="e">
+        <f>tracks!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -7468,13 +6839,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7482,528 +6851,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>251</v>
@@ -8011,74 +7380,82 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>102</v>
+      <c r="B76" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8090,11 +7467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8103,15 +7476,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f>Sheet1!A2</f>
+        <f>tracks!A2</f>
         <v>3</v>
       </c>
       <c r="B2">
@@ -8120,7 +7493,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <f>Sheet1!A3</f>
+        <f>tracks!A3</f>
         <v>4</v>
       </c>
       <c r="B3">
@@ -8129,7 +7502,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <f>Sheet1!A4</f>
+        <f>tracks!A4</f>
         <v>18</v>
       </c>
       <c r="B4">
@@ -8138,7 +7511,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <f>Sheet1!A5</f>
+        <f>tracks!A5</f>
         <v>28</v>
       </c>
       <c r="B5">
@@ -8147,7 +7520,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f>Sheet1!A6</f>
+        <f>tracks!A6</f>
         <v>71</v>
       </c>
       <c r="B6">
@@ -8156,7 +7529,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <f>Sheet1!A7</f>
+        <f>tracks!A7</f>
         <v>72</v>
       </c>
       <c r="B7">
@@ -8165,7 +7538,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f>Sheet1!A8</f>
+        <f>tracks!A8</f>
         <v>32</v>
       </c>
       <c r="B8">
@@ -8182,7 +7555,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f>Sheet1!A9</f>
+        <f>tracks!A9</f>
         <v>81</v>
       </c>
       <c r="B10">
@@ -8191,7 +7564,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f>Sheet1!A10</f>
+        <f>tracks!A10</f>
         <v>33</v>
       </c>
       <c r="B11">
@@ -8200,7 +7573,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f>Sheet1!A11</f>
+        <f>tracks!A11</f>
         <v>83</v>
       </c>
       <c r="B12">
@@ -8209,7 +7582,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f>Sheet1!A12</f>
+        <f>tracks!A12</f>
         <v>5</v>
       </c>
       <c r="B13">
@@ -8218,7 +7591,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f>Sheet1!A13</f>
+        <f>tracks!A13</f>
         <v>6</v>
       </c>
       <c r="B14">
@@ -8227,7 +7600,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f>Sheet1!A14</f>
+        <f>tracks!A14</f>
         <v>69</v>
       </c>
       <c r="B15">
@@ -8236,7 +7609,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f>Sheet1!A15</f>
+        <f>tracks!A15</f>
         <v>36</v>
       </c>
       <c r="B16">
@@ -8245,7 +7618,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
-        <f>Sheet1!A16</f>
+        <f>tracks!A16</f>
         <v>24</v>
       </c>
       <c r="B17">
@@ -8254,7 +7627,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
-        <f>Sheet1!A17</f>
+        <f>tracks!A17</f>
         <v>38</v>
       </c>
       <c r="B18">
@@ -8263,7 +7636,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
-        <f>Sheet1!A18</f>
+        <f>tracks!A18</f>
         <v>73</v>
       </c>
       <c r="B19">
@@ -8272,7 +7645,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
-        <f>Sheet1!A19</f>
+        <f>tracks!A19</f>
         <v>34</v>
       </c>
       <c r="B20">
@@ -8281,7 +7654,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
-        <f>Sheet1!A20</f>
+        <f>tracks!A20</f>
         <v>48</v>
       </c>
       <c r="B21">
@@ -8290,7 +7663,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f>Sheet1!A21</f>
+        <f>tracks!A21</f>
         <v>49</v>
       </c>
       <c r="B22">
@@ -8299,7 +7672,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f>Sheet1!A22</f>
+        <f>tracks!A22</f>
         <v>82</v>
       </c>
       <c r="B23">
@@ -8308,7 +7681,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f>Sheet1!A23</f>
+        <f>tracks!A23</f>
         <v>52</v>
       </c>
       <c r="B24">
@@ -8317,7 +7690,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
-        <f>Sheet1!A24</f>
+        <f>tracks!A24</f>
         <v>53</v>
       </c>
       <c r="B25">
@@ -8326,7 +7699,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
-        <f>Sheet1!A25</f>
+        <f>tracks!A25</f>
         <v>70</v>
       </c>
       <c r="B26">
@@ -8343,7 +7716,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
-        <f>Sheet1!A26</f>
+        <f>tracks!A26</f>
         <v>66</v>
       </c>
       <c r="B28">
@@ -8352,7 +7725,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
-        <f>Sheet1!A27</f>
+        <f>tracks!A27</f>
         <v>16</v>
       </c>
       <c r="B29">
@@ -8369,7 +7742,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f>Sheet1!A28</f>
+        <f>tracks!A28</f>
         <v>17</v>
       </c>
       <c r="B31">
@@ -8386,7 +7759,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f>Sheet1!A29</f>
+        <f>tracks!A29</f>
         <v>84</v>
       </c>
       <c r="B33">
@@ -8395,7 +7768,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f>Sheet1!A30</f>
+        <f>tracks!A30</f>
         <v>29</v>
       </c>
       <c r="B34">
@@ -8404,7 +7777,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
-        <f>Sheet1!A31</f>
+        <f>tracks!A31</f>
         <v>23</v>
       </c>
       <c r="B35">
@@ -8413,7 +7786,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
-        <f>Sheet1!A32</f>
+        <f>tracks!A32</f>
         <v>86</v>
       </c>
       <c r="B36">
@@ -8422,7 +7795,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
-        <f>Sheet1!A33</f>
+        <f>tracks!A33</f>
         <v>85</v>
       </c>
       <c r="B37">
@@ -8431,7 +7804,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f>Sheet1!A34</f>
+        <f>tracks!A34</f>
         <v>35</v>
       </c>
       <c r="B38">
@@ -8440,7 +7813,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f>Sheet1!A35</f>
+        <f>tracks!A35</f>
         <v>10</v>
       </c>
       <c r="B39">
@@ -8449,7 +7822,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f>Sheet1!A36</f>
+        <f>tracks!A36</f>
         <v>11</v>
       </c>
       <c r="B40">
@@ -8458,7 +7831,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f>Sheet1!A37</f>
+        <f>tracks!A37</f>
         <v>12</v>
       </c>
       <c r="B41">
@@ -8467,7 +7840,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
-        <f>Sheet1!A38</f>
+        <f>tracks!A38</f>
         <v>20</v>
       </c>
       <c r="B42">
@@ -8476,7 +7849,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
-        <f>Sheet1!A39</f>
+        <f>tracks!A39</f>
         <v>21</v>
       </c>
       <c r="B43">
@@ -8485,7 +7858,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f>Sheet1!A40</f>
+        <f>tracks!A40</f>
         <v>61</v>
       </c>
       <c r="B44">
@@ -8494,7 +7867,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f>Sheet1!A41</f>
+        <f>tracks!A41</f>
         <v>22</v>
       </c>
       <c r="B45">
@@ -8503,7 +7876,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
-        <f>Sheet1!A42</f>
+        <f>tracks!A42</f>
         <v>75</v>
       </c>
       <c r="B46">
@@ -8512,7 +7885,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
-        <f>Sheet1!A43</f>
+        <f>tracks!A43</f>
         <v>76</v>
       </c>
       <c r="B47">
@@ -8521,7 +7894,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
-        <f>Sheet1!A44</f>
+        <f>tracks!A44</f>
         <v>26</v>
       </c>
       <c r="B48">
@@ -8530,7 +7903,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
-        <f>Sheet1!A45</f>
+        <f>tracks!A45</f>
         <v>60</v>
       </c>
       <c r="B49">
@@ -8539,7 +7912,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
-        <f>Sheet1!A46</f>
+        <f>tracks!A46</f>
         <v>44</v>
       </c>
       <c r="B50">
@@ -8548,7 +7921,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
-        <f>Sheet1!A47</f>
+        <f>tracks!A47</f>
         <v>77</v>
       </c>
       <c r="B51">
@@ -8557,7 +7930,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
-        <f>Sheet1!A48</f>
+        <f>tracks!A48</f>
         <v>8</v>
       </c>
       <c r="B52">
@@ -8574,7 +7947,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
-        <f>Sheet1!A49</f>
+        <f>tracks!A49</f>
         <v>9</v>
       </c>
       <c r="B54">
@@ -8591,7 +7964,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
-        <f>Sheet1!A50</f>
+        <f>tracks!A50</f>
         <v>30</v>
       </c>
       <c r="B56">
@@ -8600,7 +7973,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
-        <f>Sheet1!A51</f>
+        <f>tracks!A51</f>
         <v>55</v>
       </c>
       <c r="B57">
@@ -8609,7 +7982,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
-        <f>Sheet1!A52</f>
+        <f>tracks!A52</f>
         <v>63</v>
       </c>
       <c r="B58">
@@ -8618,7 +7991,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
-        <f>Sheet1!A53</f>
+        <f>tracks!A53</f>
         <v>88</v>
       </c>
       <c r="B59">
@@ -8627,7 +8000,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f>Sheet1!A54</f>
+        <f>tracks!A54</f>
         <v>93</v>
       </c>
       <c r="B60">
@@ -8636,7 +8009,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
-        <f>Sheet1!A55</f>
+        <f>tracks!A55</f>
         <v>94</v>
       </c>
       <c r="B61">
@@ -8645,7 +8018,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f>Sheet1!A56</f>
+        <f>tracks!A56</f>
         <v>95</v>
       </c>
       <c r="B62">
@@ -8662,7 +8035,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f>Sheet1!A57</f>
+        <f>tracks!A57</f>
         <v>89</v>
       </c>
       <c r="B64">
@@ -8671,7 +8044,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
-        <f>Sheet1!A58</f>
+        <f>tracks!A58</f>
         <v>19</v>
       </c>
       <c r="B65">
@@ -8680,7 +8053,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
-        <f>Sheet1!A59</f>
+        <f>tracks!A59</f>
         <v>58</v>
       </c>
       <c r="B66">
@@ -8689,7 +8062,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f>Sheet1!A60</f>
+        <f>tracks!A60</f>
         <v>31</v>
       </c>
       <c r="B67">
@@ -8698,7 +8071,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f>Sheet1!A61</f>
+        <f>tracks!A61</f>
         <v>1</v>
       </c>
       <c r="B68">
@@ -8707,7 +8080,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
-        <f>Sheet1!A62</f>
+        <f>tracks!A62</f>
         <v>2</v>
       </c>
       <c r="B69">
@@ -8716,7 +8089,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
-        <f>Sheet1!A63</f>
+        <f>tracks!A63</f>
         <v>65</v>
       </c>
       <c r="B70">
@@ -8725,7 +8098,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
-        <f>Sheet1!A64</f>
+        <f>tracks!A64</f>
         <v>91</v>
       </c>
       <c r="B71">
@@ -8734,7 +8107,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
-        <f>Sheet1!A65</f>
+        <f>tracks!A65</f>
         <v>27</v>
       </c>
       <c r="B72">
@@ -8743,7 +8116,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
-        <f>Sheet1!A66</f>
+        <f>tracks!A66</f>
         <v>79</v>
       </c>
       <c r="B73">
@@ -8752,7 +8125,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
-        <f>Sheet1!A67</f>
+        <f>tracks!A67</f>
         <v>59</v>
       </c>
       <c r="B74">
@@ -8761,7 +8134,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
-        <f>Sheet1!A68</f>
+        <f>tracks!A68</f>
         <v>67</v>
       </c>
       <c r="B75">
@@ -8770,7 +8143,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
-        <f>Sheet1!A69</f>
+        <f>tracks!A69</f>
         <v>68</v>
       </c>
       <c r="B76">
@@ -8779,7 +8152,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
-        <f>Sheet1!A70</f>
+        <f>tracks!A70</f>
         <v>25</v>
       </c>
       <c r="B77">
@@ -8788,7 +8161,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
-        <f>Sheet1!A71</f>
+        <f>tracks!A71</f>
         <v>78</v>
       </c>
       <c r="B78">
@@ -8797,7 +8170,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
-        <f>Sheet1!A72</f>
+        <f>tracks!A72</f>
         <v>40</v>
       </c>
       <c r="B79">
@@ -8806,7 +8179,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
-        <f>Sheet1!A73</f>
+        <f>tracks!A73</f>
         <v>41</v>
       </c>
       <c r="B80">
@@ -8815,7 +8188,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
-        <f>Sheet1!A74</f>
+        <f>tracks!A74</f>
         <v>42</v>
       </c>
       <c r="B81">
@@ -8824,7 +8197,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
-        <f>Sheet1!A75</f>
+        <f>tracks!A75</f>
         <v>50</v>
       </c>
       <c r="B82">
@@ -8833,7 +8206,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
-        <f>Sheet1!A76</f>
+        <f>tracks!A76</f>
         <v>57</v>
       </c>
       <c r="B83">
@@ -8842,7 +8215,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
-        <f>Sheet1!A77</f>
+        <f>tracks!A77</f>
         <v>46</v>
       </c>
       <c r="B84">
@@ -8851,7 +8224,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
-        <f>Sheet1!A78</f>
+        <f>tracks!A78</f>
         <v>47</v>
       </c>
       <c r="B85">
@@ -8860,7 +8233,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
-        <f>Sheet1!A79</f>
+        <f>tracks!A79</f>
         <v>54</v>
       </c>
       <c r="B86">
@@ -8869,7 +8242,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
-        <f>Sheet1!A80</f>
+        <f>tracks!A80</f>
         <v>43</v>
       </c>
       <c r="B87">
@@ -8878,7 +8251,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
-        <f>Sheet1!A81</f>
+        <f>tracks!A81</f>
         <v>45</v>
       </c>
       <c r="B88">
@@ -8887,7 +8260,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
-        <f>Sheet1!A82</f>
+        <f>tracks!A82</f>
         <v>51</v>
       </c>
       <c r="B89">
@@ -8896,7 +8269,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
-        <f>Sheet1!A83</f>
+        <f>tracks!A83</f>
         <v>56</v>
       </c>
       <c r="B90">
@@ -8905,7 +8278,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
-        <f>Sheet1!A84</f>
+        <f>tracks!A84</f>
         <v>87</v>
       </c>
       <c r="B91">
@@ -8914,7 +8287,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
-        <f>Sheet1!A85</f>
+        <f>tracks!A85</f>
         <v>37</v>
       </c>
       <c r="B92">
@@ -8923,7 +8296,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
-        <f>Sheet1!A86</f>
+        <f>tracks!A86</f>
         <v>92</v>
       </c>
       <c r="B93">
@@ -8932,7 +8305,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
-        <f>Sheet1!A87</f>
+        <f>tracks!A87</f>
         <v>74</v>
       </c>
       <c r="B94">
@@ -8941,7 +8314,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
-        <f>Sheet1!A88</f>
+        <f>tracks!A88</f>
         <v>14</v>
       </c>
       <c r="B95">
@@ -8950,7 +8323,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
-        <f>Sheet1!A89</f>
+        <f>tracks!A89</f>
         <v>15</v>
       </c>
       <c r="B96">
@@ -8959,7 +8332,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
-        <f>Sheet1!A90</f>
+        <f>tracks!A90</f>
         <v>80</v>
       </c>
       <c r="B97">
@@ -8968,7 +8341,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
-        <f>Sheet1!A91</f>
+        <f>tracks!A91</f>
         <v>7</v>
       </c>
       <c r="B98">
@@ -8977,7 +8350,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
-        <f>Sheet1!A92</f>
+        <f>tracks!A92</f>
         <v>62</v>
       </c>
       <c r="B99">
@@ -8986,7 +8359,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
-        <f>Sheet1!A93</f>
+        <f>tracks!A93</f>
         <v>90</v>
       </c>
       <c r="B100">
@@ -8995,7 +8368,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
-        <f>Sheet1!A94</f>
+        <f>tracks!A94</f>
         <v>39</v>
       </c>
       <c r="B101">
@@ -9004,7 +8377,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
-        <f>Sheet1!A95</f>
+        <f>tracks!A95</f>
         <v>64</v>
       </c>
       <c r="B102">

--- a/data_files/data_integrity.xlsx
+++ b/data_files/data_integrity.xlsx
@@ -8,9 +8,11 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tech/PhpstormProjects/csi-music-website/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A16AD62-E10B-304A-B418-648226CE007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BCB1C-FC1A-5445-B274-A088F2F531CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
+    <workbookView xWindow="14480" yWindow="8200" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4859C587-F3E7-8546-A8DF-6731C2AE28F5}"/>
+    <workbookView xWindow="14480" yWindow="500" windowWidth="14320" windowHeight="8120" activeTab="1" xr2:uid="{BD45ECBE-E951-3C43-885A-68865142C891}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks" sheetId="1" r:id="rId1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="385">
   <si>
     <t>Filename</t>
   </si>
@@ -94,9 +96,6 @@
     <t>All The Young Dudes.mp3</t>
   </si>
   <si>
-    <t>All The Young Dudes (David Bowie)</t>
-  </si>
-  <si>
     <t>Rock</t>
   </si>
   <si>
@@ -160,9 +159,6 @@
     <t>Big Jet Plane (Radio Edit).mp3</t>
   </si>
   <si>
-    <t>Big Jet Plane (Radio Edit)</t>
-  </si>
-  <si>
     <t>US Folk</t>
   </si>
   <si>
@@ -388,9 +384,6 @@
     <t>Oceania</t>
   </si>
   <si>
-    <t>Hineraukatauri (Goddess of Music)</t>
-  </si>
-  <si>
     <t>Mumford &amp; Sons</t>
   </si>
   <si>
@@ -625,9 +618,6 @@
     <t>Simple Love [#].mp3</t>
   </si>
   <si>
-    <t>Simple Love [#]</t>
-  </si>
-  <si>
     <t>Slice of Heaven.mp3</t>
   </si>
   <si>
@@ -721,18 +711,12 @@
     <t>Til We Outnumber 'Em (This Land Is You Land).mp3</t>
   </si>
   <si>
-    <t>Til We Outnumber 'Em (This Land Is You Land)</t>
-  </si>
-  <si>
     <t>Unchain My Heart [90's Version].mp3</t>
   </si>
   <si>
     <t>Joe Cocker</t>
   </si>
   <si>
-    <t>Unchain My Heart [90's Version]</t>
-  </si>
-  <si>
     <t>Waiting For You.mp3</t>
   </si>
   <si>
@@ -784,9 +768,6 @@
     <t>You're Just a Country Boy [#].mp3</t>
   </si>
   <si>
-    <t>You're Just a Country Boy [#]</t>
-  </si>
-  <si>
     <t>Zombie.mp3</t>
   </si>
   <si>
@@ -835,9 +816,6 @@
     <t>Lynyrd Skynyrd</t>
   </si>
   <si>
-    <t>Free Bird Live [Fox Theater]</t>
-  </si>
-  <si>
     <t>Maggie.mp3</t>
   </si>
   <si>
@@ -907,9 +885,6 @@
     <t>California</t>
   </si>
   <si>
-    <t>Turn! Turn! Turn! (To Everything There Is A Season)</t>
-  </si>
-  <si>
     <t>Turn! Turn! Turn!.mp3</t>
   </si>
   <si>
@@ -1187,6 +1162,36 @@
   </si>
   <si>
     <t>artist_name</t>
+  </si>
+  <si>
+    <t>Reformatted</t>
+  </si>
+  <si>
+    <t>Simple Love</t>
+  </si>
+  <si>
+    <t>You're Just a Country Boy</t>
+  </si>
+  <si>
+    <t>Til We Outnumber 'Em - This Land Is You Land</t>
+  </si>
+  <si>
+    <t>Turn! Turn! Turn! - To Everything There Is A Season</t>
+  </si>
+  <si>
+    <t>Free Bird Live - Fox Theater</t>
+  </si>
+  <si>
+    <t>Unchain My Heart - 90's Version</t>
+  </si>
+  <si>
+    <t>All The Young Dudes - David Bowie</t>
+  </si>
+  <si>
+    <t>Big Jet Plane - Radio Edit</t>
+  </si>
+  <si>
+    <t>Hineraukatauri - Goddess of Music</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,6 +1253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1270,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1290,6 +1301,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,10 +1644,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="1">
+      <selection activeCell="D76" sqref="D76"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1646,19 +1663,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1666,10 +1683,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D2" s="4">
         <v>114</v>
@@ -1678,7 +1695,7 @@
         <v>3692</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1686,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D3" s="4">
         <v>204</v>
@@ -1698,7 +1715,7 @@
         <v>6488</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1706,10 +1723,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D4" s="4">
         <v>233</v>
@@ -1718,7 +1735,7 @@
         <v>9109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1726,10 +1743,10 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D5" s="4">
         <v>292</v>
@@ -1738,7 +1755,7 @@
         <v>11442</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1746,16 +1763,19 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D6" s="4">
         <v>244</v>
       </c>
       <c r="E6">
         <v>3818</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1763,10 +1783,10 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4">
         <v>162</v>
@@ -1780,10 +1800,10 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D8" s="4">
         <v>192</v>
@@ -1797,10 +1817,10 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D9" s="4">
         <v>252</v>
@@ -1814,10 +1834,10 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4">
         <v>197</v>
@@ -1831,10 +1851,10 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D11" s="4">
         <v>217</v>
@@ -1848,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="D12" s="4">
         <v>284</v>
@@ -1865,10 +1885,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="D13" s="4">
         <v>208</v>
@@ -1882,10 +1902,10 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D14" s="4">
         <v>292</v>
@@ -1899,10 +1919,10 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4">
         <v>213</v>
@@ -1916,10 +1936,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
         <v>171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>174</v>
       </c>
       <c r="D16" s="4">
         <v>270</v>
@@ -1936,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D17" s="4">
         <v>221</v>
@@ -1950,10 +1970,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D18" s="4">
         <v>262</v>
@@ -1967,10 +1987,10 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4">
         <v>230</v>
@@ -1984,10 +2004,10 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D20" s="4">
         <v>123</v>
@@ -2001,10 +2021,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D21" s="4">
         <v>205</v>
@@ -2018,10 +2038,10 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D22" s="4">
         <v>217</v>
@@ -2035,10 +2055,10 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D23" s="4">
         <v>252</v>
@@ -2052,10 +2072,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D24" s="4">
         <v>251</v>
@@ -2069,10 +2089,10 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4">
         <v>228</v>
@@ -2086,10 +2106,10 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D26" s="4">
         <v>319</v>
@@ -2103,10 +2123,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>256</v>
@@ -2120,10 +2140,10 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D28" s="4">
         <v>252</v>
@@ -2137,10 +2157,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4">
         <v>179</v>
@@ -2154,10 +2174,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4">
         <v>512</v>
@@ -2171,10 +2191,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D31" s="4">
         <v>302</v>
@@ -2188,10 +2208,10 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D32" s="4">
         <v>248</v>
@@ -2205,10 +2225,10 @@
         <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="4">
         <v>213</v>
@@ -2222,7 +2242,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -2256,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4">
         <v>210</v>
@@ -2273,10 +2293,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D37" s="4">
         <v>157</v>
@@ -2290,10 +2310,10 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4">
         <v>301</v>
@@ -2307,10 +2327,10 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D39" s="4">
         <v>328</v>
@@ -2324,10 +2344,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="4">
         <v>307</v>
@@ -2341,10 +2361,10 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D41" s="4">
         <v>359</v>
@@ -2358,7 +2378,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -2378,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4">
         <v>400</v>
@@ -2392,10 +2412,10 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D44" s="4">
         <v>220</v>
@@ -2409,10 +2429,10 @@
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D45" s="4">
         <v>300</v>
@@ -2426,10 +2446,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D46" s="4">
         <v>188</v>
@@ -2443,10 +2463,10 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D47" s="4">
         <v>213</v>
@@ -2460,10 +2480,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D48" s="4">
         <v>181</v>
@@ -2477,10 +2497,10 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D49" s="4">
         <v>142</v>
@@ -2494,10 +2514,10 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" s="4">
         <v>339</v>
@@ -2511,10 +2531,10 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D51" s="4">
         <v>250</v>
@@ -2528,10 +2548,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D52" s="4">
         <v>221</v>
@@ -2545,10 +2565,10 @@
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D53" s="4">
         <v>208</v>
@@ -2562,10 +2582,10 @@
         <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" s="4">
         <v>207</v>
@@ -2579,10 +2599,10 @@
         <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="4">
         <v>242</v>
@@ -2596,10 +2616,10 @@
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D56" s="4">
         <v>195</v>
@@ -2613,10 +2633,10 @@
         <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D57" s="4">
         <v>143</v>
@@ -2630,10 +2650,10 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="4">
         <v>145</v>
@@ -2647,10 +2667,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D59" s="4">
         <v>356</v>
@@ -2664,10 +2684,10 @@
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D60" s="4">
         <v>369</v>
@@ -2698,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D62" s="4">
         <v>206</v>
@@ -2715,10 +2735,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4">
         <v>195</v>
@@ -2732,10 +2752,10 @@
         <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C64" t="s">
-        <v>290</v>
+        <v>280</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="D64" s="4">
         <v>160</v>
@@ -2749,10 +2769,10 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D65" s="4">
         <v>277</v>
@@ -2766,10 +2786,10 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D66" s="4">
         <v>135</v>
@@ -2783,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D67" s="4">
         <v>236</v>
@@ -2800,10 +2820,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4">
         <v>308</v>
@@ -2817,10 +2837,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
         <v>155</v>
-      </c>
-      <c r="C69" t="s">
-        <v>158</v>
       </c>
       <c r="D69" s="4">
         <v>329</v>
@@ -2834,10 +2854,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4">
         <v>152</v>
@@ -2851,10 +2871,10 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D71" s="4">
         <v>314</v>
@@ -2868,10 +2888,10 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D72" s="4">
         <v>276</v>
@@ -2885,10 +2905,10 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D73" s="4">
         <v>256</v>
@@ -2902,10 +2922,10 @@
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D74" s="4">
         <v>277</v>
@@ -2919,10 +2939,10 @@
         <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" s="4">
         <v>397</v>
@@ -2939,7 +2959,7 @@
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" s="4">
         <v>365</v>
@@ -2953,10 +2973,10 @@
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D77" s="4">
         <v>241</v>
@@ -2970,10 +2990,10 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D78" s="4">
         <v>174</v>
@@ -2987,10 +3007,10 @@
         <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" t="s">
-        <v>266</v>
+        <v>252</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>380</v>
       </c>
       <c r="D79" s="4">
         <v>816</v>
@@ -3004,10 +3024,10 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D80" s="4">
         <v>319</v>
@@ -3021,10 +3041,10 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D81" s="4">
         <v>204</v>
@@ -3038,10 +3058,10 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
+        <v>34</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="D82" s="4">
         <v>306</v>
@@ -3055,10 +3075,10 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" t="s">
-        <v>19</v>
+        <v>228</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="D83" s="4">
         <v>232</v>
@@ -3072,10 +3092,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D84" s="4">
         <v>214</v>
@@ -3089,10 +3109,10 @@
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D85" s="4">
         <v>201</v>
@@ -3106,10 +3126,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D86" s="4">
         <v>287</v>
@@ -3123,10 +3143,10 @@
         <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D87" s="4">
         <v>206</v>
@@ -3140,10 +3160,10 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D88" s="4">
         <v>227</v>
@@ -3157,10 +3177,10 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D89" s="4">
         <v>238</v>
@@ -3174,10 +3194,10 @@
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D90" s="4">
         <v>149</v>
@@ -3191,10 +3211,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>383</v>
       </c>
       <c r="D91" s="4">
         <v>223</v>
@@ -3208,10 +3228,10 @@
         <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D92" s="4">
         <v>142</v>
@@ -3225,10 +3245,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D93" s="4">
         <v>243</v>
@@ -3242,10 +3262,10 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -3259,10 +3279,10 @@
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
-      </c>
-      <c r="C95" t="s">
-        <v>117</v>
+        <v>282</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="D95" s="4">
         <v>294</v>
@@ -3286,6 +3306,10 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="2">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3297,16 +3321,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3314,13 +3338,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3328,16 +3352,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>299</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3345,14 +3369,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3360,16 +3384,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3377,16 +3401,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3394,10 +3418,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -3408,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="10">
@@ -3420,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="10">
@@ -3444,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
@@ -3456,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -3468,10 +3492,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -3482,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
@@ -3494,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10">
@@ -3506,7 +3530,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
@@ -3518,7 +3542,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
@@ -3530,7 +3554,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -3542,7 +3566,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
@@ -3554,10 +3578,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -3568,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
@@ -3580,7 +3604,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="10">
@@ -3592,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -3604,7 +3628,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10">
@@ -3616,7 +3640,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10">
@@ -3628,7 +3652,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10">
@@ -3640,7 +3664,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10">
@@ -3652,7 +3676,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -3664,7 +3688,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10">
@@ -3676,7 +3700,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10">
@@ -3688,7 +3712,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
@@ -3700,7 +3724,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
@@ -3712,10 +3736,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -3726,7 +3750,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -3738,7 +3762,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
@@ -3750,7 +3774,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
@@ -3762,7 +3786,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -3774,7 +3798,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -3786,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -3798,7 +3822,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -3810,7 +3834,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -3822,10 +3846,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
@@ -3836,7 +3860,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -3851,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
@@ -3862,7 +3886,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C45" s="13">
         <v>38875</v>
@@ -3876,10 +3900,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
@@ -3890,7 +3914,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -3914,7 +3938,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -3926,7 +3950,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
@@ -3938,10 +3962,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -3952,10 +3976,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -3966,7 +3990,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
@@ -3978,7 +4002,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -3990,7 +4014,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -4002,7 +4026,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -4014,7 +4038,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
@@ -4026,7 +4050,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
@@ -4038,7 +4062,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -4050,7 +4074,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10">
@@ -4062,7 +4086,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10">
@@ -4074,7 +4098,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10">
@@ -4086,7 +4110,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10">
@@ -4098,7 +4122,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
@@ -4110,10 +4134,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -4124,7 +4148,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10">
@@ -4136,7 +4160,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10">
@@ -4148,7 +4172,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10">
@@ -4160,7 +4184,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10">
@@ -4172,7 +4196,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -4184,7 +4208,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
@@ -4196,10 +4220,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D72" s="10">
         <v>1</v>
@@ -4210,7 +4234,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C73" s="10">
         <v>1969</v>
@@ -4224,7 +4248,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C74" s="10">
         <v>1971</v>
@@ -4238,7 +4262,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -4250,10 +4274,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C76" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D76" s="10">
         <v>1</v>
@@ -4264,7 +4288,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -4275,10 +4299,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D78" s="14">
         <v>1</v>
@@ -4289,7 +4313,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D79" s="18">
         <v>2</v>
@@ -4300,7 +4324,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D80" s="18">
         <v>2</v>
@@ -4311,7 +4335,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" s="18">
         <v>2</v>
@@ -4322,7 +4346,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D82" s="18">
         <v>2</v>
@@ -4333,7 +4357,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -4344,7 +4368,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D84" s="18">
         <v>2</v>
@@ -4355,7 +4379,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D85" s="18">
         <v>2</v>
@@ -4366,7 +4390,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D86" s="18">
         <v>2</v>
@@ -4377,7 +4401,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" s="18">
         <v>2</v>
@@ -4388,7 +4412,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D88" s="18">
         <v>2</v>
@@ -4399,7 +4423,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D89" s="18">
         <v>2</v>
@@ -4410,7 +4434,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="18">
         <v>2</v>
@@ -4421,7 +4445,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D91" s="18">
         <v>2</v>
@@ -4432,7 +4456,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D92" s="18">
         <v>2</v>
@@ -4443,7 +4467,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" s="18">
         <v>2</v>
@@ -4454,7 +4478,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
@@ -4476,7 +4500,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
@@ -4498,7 +4522,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
@@ -4509,7 +4533,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
@@ -4520,7 +4544,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
@@ -4531,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
@@ -4542,7 +4566,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -4553,7 +4577,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
@@ -4564,7 +4588,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
@@ -4575,7 +4599,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -4586,7 +4610,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D106" s="18">
         <v>2</v>
@@ -4608,7 +4632,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D108" s="18">
         <v>2</v>
@@ -4619,7 +4643,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D109" s="18">
         <v>2</v>
@@ -4630,7 +4654,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D110" s="18">
         <v>2</v>
@@ -4641,7 +4665,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D111" s="18">
         <v>2</v>
@@ -4652,7 +4676,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D112" s="18">
         <v>2</v>
@@ -4663,7 +4687,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D113" s="18">
         <v>2</v>
@@ -4674,7 +4698,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D114" s="18">
         <v>2</v>
@@ -4685,7 +4709,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -4696,7 +4720,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -4707,7 +4731,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -4722,786 +4746,788 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="18">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="B41" s="18">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>33</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B58">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="B65" s="18">
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B67">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B69">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B70">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B71">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B72">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B73">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B74">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B76">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B77">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B78">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B79">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B80">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B81">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B82">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B83">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B84">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B85">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B86">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B87">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B88">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B89">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B91">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B92">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B93">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B94">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B95">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B96" s="16">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97" s="18">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="B97">
+        <v>43</v>
       </c>
       <c r="D97" t="e">
         <f>tracks!#REF!</f>
@@ -5510,10 +5536,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98" s="18">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="B98">
+        <v>111</v>
       </c>
       <c r="D98" t="e">
         <f>tracks!#REF!</f>
@@ -5522,10 +5548,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>18</v>
-      </c>
-      <c r="B99" s="18">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="B99">
+        <v>51</v>
       </c>
       <c r="D99" t="e">
         <f>tracks!#REF!</f>
@@ -5534,10 +5560,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>28</v>
-      </c>
-      <c r="B100" s="18">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="B100">
+        <v>80</v>
       </c>
       <c r="D100" t="e">
         <f>tracks!#REF!</f>
@@ -5546,10 +5572,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>71</v>
-      </c>
-      <c r="B101" s="18">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="B101">
+        <v>19</v>
       </c>
       <c r="D101" t="e">
         <f>tracks!#REF!</f>
@@ -5558,10 +5584,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B102">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D102" t="e">
         <f>tracks!#REF!</f>
@@ -5570,10 +5596,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B103">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D103" t="e">
         <f>tracks!#REF!</f>
@@ -5582,10 +5608,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B104">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D104" t="e">
         <f>tracks!#REF!</f>
@@ -5594,7 +5620,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B105">
         <v>80</v>
@@ -5602,18 +5628,18 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B106">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B107">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D107" t="e">
         <f>tracks!#REF!</f>
@@ -5622,42 +5648,42 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B108">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B109">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B110">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B111">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B112">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D112" t="e">
         <f>tracks!#REF!</f>
@@ -5666,10 +5692,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B113">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D113" t="e">
         <f>tracks!#REF!</f>
@@ -5678,10 +5704,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B114">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D114" t="e">
         <f>tracks!#REF!</f>
@@ -5690,10 +5716,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B115">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D115" t="e">
         <f>tracks!#REF!</f>
@@ -5702,10 +5728,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B116">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D116" t="e">
         <f>tracks!#REF!</f>
@@ -5714,10 +5740,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B117">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D117" t="e">
         <f>tracks!#REF!</f>
@@ -5726,10 +5752,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B118">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D118" t="e">
         <f>tracks!#REF!</f>
@@ -5738,10 +5764,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B119">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D119" t="e">
         <f>tracks!#REF!</f>
@@ -5750,10 +5776,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B120">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D120" t="e">
         <f>tracks!#REF!</f>
@@ -5762,7 +5788,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B121">
         <v>89</v>
@@ -5774,10 +5800,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B122">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D122" t="e">
         <f>tracks!#REF!</f>
@@ -5786,10 +5812,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B123">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D123" t="e">
         <f>tracks!#REF!</f>
@@ -5798,10 +5824,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B124">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D124" t="e">
         <f>tracks!#REF!</f>
@@ -5810,10 +5836,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B125">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D125" t="e">
         <f>tracks!#REF!</f>
@@ -5822,10 +5848,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B126">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D126" t="e">
         <f>tracks!#REF!</f>
@@ -5834,10 +5860,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B127">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D127" t="e">
         <f>tracks!#REF!</f>
@@ -5846,10 +5872,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B128">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D128" t="e">
         <f>tracks!#REF!</f>
@@ -5858,10 +5884,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B129">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D129" t="e">
         <f>tracks!#REF!</f>
@@ -5870,10 +5896,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B130">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D130" t="e">
         <f>tracks!#REF!</f>
@@ -5882,10 +5908,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B131">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D131" t="e">
         <f>tracks!#REF!</f>
@@ -5894,10 +5920,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B132">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D132" t="e">
         <f>tracks!#REF!</f>
@@ -5906,10 +5932,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B133">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D133" t="e">
         <f>tracks!#REF!</f>
@@ -5918,10 +5944,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B134">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D134" t="e">
         <f>tracks!#REF!</f>
@@ -5930,10 +5956,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B135">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D135" t="e">
         <f>tracks!#REF!</f>
@@ -5942,10 +5968,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136">
+        <v>61</v>
+      </c>
+      <c r="B136">
         <v>10</v>
-      </c>
-      <c r="B136">
-        <v>94</v>
       </c>
       <c r="D136" t="e">
         <f>tracks!#REF!</f>
@@ -5954,7 +5980,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B137">
         <v>94</v>
@@ -5966,10 +5992,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B138">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D138" t="e">
         <f>tracks!#REF!</f>
@@ -5978,18 +6004,18 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B139">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B140">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D140" t="e">
         <f>tracks!#REF!</f>
@@ -5998,18 +6024,18 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B141">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B142">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D142" t="e">
         <f>tracks!#REF!</f>
@@ -6018,18 +6044,18 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B143">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B144">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D144" t="e">
         <f>tracks!#REF!</f>
@@ -6038,18 +6064,18 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B145">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B146">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D146" t="e">
         <f>tracks!#REF!</f>
@@ -6058,10 +6084,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B147">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D147" t="e">
         <f>tracks!#REF!</f>
@@ -6070,10 +6096,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B148">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D148" t="e">
         <f>tracks!#REF!</f>
@@ -6082,10 +6108,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B149">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D149" t="e">
         <f>tracks!#REF!</f>
@@ -6094,10 +6120,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B150">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D150" t="e">
         <f>tracks!#REF!</f>
@@ -6106,18 +6132,18 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B151">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B152">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D152" t="e">
         <f>tracks!#REF!</f>
@@ -6126,18 +6152,18 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B153">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B154">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D154" t="e">
         <f>tracks!#REF!</f>
@@ -6146,34 +6172,34 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B155">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B156">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B157">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B158">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D158" t="e">
         <f>tracks!#REF!</f>
@@ -6182,34 +6208,34 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>9</v>
-      </c>
-      <c r="B159">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="B159" s="18">
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B160">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B161">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B162">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D162" t="e">
         <f>tracks!#REF!</f>
@@ -6218,10 +6244,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B163">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D163" t="e">
         <f>tracks!#REF!</f>
@@ -6230,10 +6256,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B164">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D164" t="e">
         <f>tracks!#REF!</f>
@@ -6242,10 +6268,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B165">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D165" t="e">
         <f>tracks!#REF!</f>
@@ -6254,26 +6280,26 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B166">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B167">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B168">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D168" t="e">
         <f>tracks!#REF!</f>
@@ -6282,10 +6308,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B169">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D169" t="e">
         <f>tracks!#REF!</f>
@@ -6294,10 +6320,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B170">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D170" t="e">
         <f>tracks!#REF!</f>
@@ -6306,10 +6332,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B171">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D171" t="e">
         <f>tracks!#REF!</f>
@@ -6318,26 +6344,26 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B172">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B173">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B174">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D174" t="e">
         <f>tracks!#REF!</f>
@@ -6346,18 +6372,18 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B175">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B176">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D176" t="e">
         <f>tracks!#REF!</f>
@@ -6366,10 +6392,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B177">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D177" t="e">
         <f>tracks!#REF!</f>
@@ -6378,10 +6404,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B178">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D178" t="e">
         <f>tracks!#REF!</f>
@@ -6389,11 +6415,11 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179">
-        <v>106</v>
+      <c r="A179" s="20">
+        <v>81</v>
+      </c>
+      <c r="B179" s="20">
+        <v>77</v>
       </c>
       <c r="D179" t="e">
         <f>tracks!#REF!</f>
@@ -6402,10 +6428,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B180">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D180" t="e">
         <f>tracks!#REF!</f>
@@ -6414,10 +6440,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B181">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D181" t="e">
         <f>tracks!#REF!</f>
@@ -6426,10 +6452,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B182">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D182" t="e">
         <f>tracks!#REF!</f>
@@ -6438,10 +6464,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B183">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D183" t="e">
         <f>tracks!#REF!</f>
@@ -6450,10 +6476,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B184">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D184" t="e">
         <f>tracks!#REF!</f>
@@ -6462,10 +6488,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185">
+        <v>83</v>
+      </c>
+      <c r="B185">
         <v>59</v>
-      </c>
-      <c r="B185">
-        <v>107</v>
       </c>
       <c r="D185" t="e">
         <f>tracks!#REF!</f>
@@ -6474,10 +6500,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B186">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D186" t="e">
         <f>tracks!#REF!</f>
@@ -6486,10 +6512,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B187">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D187" t="e">
         <f>tracks!#REF!</f>
@@ -6498,10 +6524,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B188">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D188" t="e">
         <f>tracks!#REF!</f>
@@ -6510,10 +6536,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B189">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D189" t="e">
         <f>tracks!#REF!</f>
@@ -6522,10 +6548,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B190">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D190" t="e">
         <f>tracks!#REF!</f>
@@ -6534,10 +6560,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B191">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D191" t="e">
         <f>tracks!#REF!</f>
@@ -6546,10 +6572,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B192">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D192" t="e">
         <f>tracks!#REF!</f>
@@ -6558,10 +6584,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B193">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D193" t="e">
         <f>tracks!#REF!</f>
@@ -6570,7 +6596,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B194">
         <v>80</v>
@@ -6582,10 +6608,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B195">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D195" t="e">
         <f>tracks!#REF!</f>
@@ -6594,10 +6620,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B196">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D196" t="e">
         <f>tracks!#REF!</f>
@@ -6606,10 +6632,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B197">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D197" t="e">
         <f>tracks!#REF!</f>
@@ -6618,10 +6644,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B198">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D198" t="e">
         <f>tracks!#REF!</f>
@@ -6630,10 +6656,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B199">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D199" t="e">
         <f>tracks!#REF!</f>
@@ -6642,10 +6668,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B200">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D200" t="e">
         <f>tracks!#REF!</f>
@@ -6654,10 +6680,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B201">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D201" t="e">
         <f>tracks!#REF!</f>
@@ -6666,18 +6692,18 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B202">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B203">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D203" t="e">
         <f>tracks!#REF!</f>
@@ -6686,18 +6712,18 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B204">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B205">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D205" t="e">
         <f>tracks!#REF!</f>
@@ -6706,18 +6732,18 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B206">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B207">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D207" t="e">
         <f>tracks!#REF!</f>
@@ -6726,10 +6752,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B208">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D208" t="e">
         <f>tracks!#REF!</f>
@@ -6738,10 +6764,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B209">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D209" t="e">
         <f>tracks!#REF!</f>
@@ -6750,10 +6776,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B210">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D210" t="e">
         <f>tracks!#REF!</f>
@@ -6762,10 +6788,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B211">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D211" t="e">
         <f>tracks!#REF!</f>
@@ -6774,10 +6800,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B212">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D212" t="e">
         <f>tracks!#REF!</f>
@@ -6786,10 +6812,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B213">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D213" t="e">
         <f>tracks!#REF!</f>
@@ -6798,10 +6824,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B214">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D214" t="e">
         <f>tracks!#REF!</f>
@@ -6810,10 +6836,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B215">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="D215" t="e">
         <f>tracks!#REF!</f>
@@ -6822,10 +6848,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B216">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D216" t="e">
         <f>tracks!#REF!</f>
@@ -6833,6 +6859,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B216">
+    <sortCondition ref="A2:A216"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6844,6 +6873,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6852,10 +6883,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6871,7 +6902,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6879,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -6887,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -6895,7 +6926,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -6903,7 +6934,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -6919,7 +6950,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -6927,7 +6958,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -6935,7 +6966,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -6943,7 +6974,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -6959,7 +6990,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6967,7 +6998,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -6975,7 +7006,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -6983,7 +7014,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -6991,7 +7022,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -6999,7 +7030,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -7007,7 +7038,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -7015,7 +7046,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -7023,7 +7054,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -7031,7 +7062,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -7039,7 +7070,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -7047,7 +7078,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -7055,7 +7086,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -7063,7 +7094,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -7071,7 +7102,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -7087,7 +7118,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -7095,7 +7126,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -7103,7 +7134,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -7111,7 +7142,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -7119,7 +7150,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -7127,7 +7158,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -7135,7 +7166,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -7143,7 +7174,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -7151,7 +7182,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -7159,7 +7190,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -7167,7 +7198,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -7175,7 +7206,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -7183,7 +7214,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -7191,7 +7222,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -7199,7 +7230,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -7207,7 +7238,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -7215,7 +7246,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -7223,7 +7254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -7231,7 +7262,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -7239,7 +7270,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -7247,7 +7278,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -7255,7 +7286,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -7263,7 +7294,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -7271,7 +7302,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -7279,7 +7310,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -7287,7 +7318,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -7295,7 +7326,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -7303,7 +7334,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -7311,7 +7342,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -7319,7 +7350,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -7327,7 +7358,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -7335,7 +7366,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -7343,7 +7374,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -7351,7 +7382,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -7359,7 +7390,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -7367,7 +7398,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -7375,7 +7406,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -7383,7 +7414,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -7391,7 +7422,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -7399,7 +7430,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -7407,7 +7438,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -7415,7 +7446,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -7423,7 +7454,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -7431,7 +7462,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -7439,7 +7470,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -7447,7 +7478,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -7455,7 +7486,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7468,6 +7499,8 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7476,10 +7509,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">

--- a/data_files/data_integrity.xlsx
+++ b/data_files/data_integrity.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tech/PhpstormProjects/csi-music-website/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BCB1C-FC1A-5445-B274-A088F2F531CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1A4F1-69DF-9342-A8AB-C181DAC97E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="8200" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4859C587-F3E7-8546-A8DF-6731C2AE28F5}"/>
+    <workbookView xWindow="14480" yWindow="8180" windowWidth="14320" windowHeight="8720" activeTab="2" xr2:uid="{806B67FB-D7DC-8E43-977F-A9893699B18E}"/>
+    <workbookView xWindow="15120" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{4859C587-F3E7-8546-A8DF-6731C2AE28F5}"/>
     <workbookView xWindow="14480" yWindow="500" windowWidth="14320" windowHeight="8120" activeTab="1" xr2:uid="{BD45ECBE-E951-3C43-885A-68865142C891}"/>
   </bookViews>
   <sheets>
@@ -37,1161 +37,1161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="385">
   <si>
     <t>Filename</t>
   </si>
   <si>
+    <t>A Flock of Seagulls</t>
+  </si>
+  <si>
+    <t>Listen</t>
+  </si>
+  <si>
+    <t>New Wave</t>
+  </si>
+  <si>
+    <t>A Commotion.mp3</t>
+  </si>
+  <si>
+    <t>Feist</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>A Commotion</t>
+  </si>
+  <si>
+    <t>Folk</t>
+  </si>
+  <si>
+    <t>Alabama Blues.mp3</t>
+  </si>
+  <si>
+    <t>Alabama Blues</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Alice's Restaurant Massacree.mp3</t>
+  </si>
+  <si>
+    <t>Arlo Guthrie</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>At Budokan</t>
+  </si>
+  <si>
+    <t>All The Young Dudes.mp3</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Alligator Sky.mp3</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Alligator Sky</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>American Heart.mp3</t>
+  </si>
+  <si>
+    <t>Faith Hill</t>
+  </si>
+  <si>
+    <t>American Heart</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>American Pie.mp3</t>
+  </si>
+  <si>
+    <t>Don McLean</t>
+  </si>
+  <si>
+    <t>American Pie</t>
+  </si>
+  <si>
+    <t>Easy Listening - Male</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Aqualung.mp3</t>
+  </si>
+  <si>
+    <t>Aqualung</t>
+  </si>
+  <si>
+    <t>Alison Krauss</t>
+  </si>
+  <si>
+    <t>Bluegrass</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Big Jet Plane (Radio Edit).mp3</t>
+  </si>
+  <si>
+    <t>US Folk</t>
+  </si>
+  <si>
+    <t>Bird Song.mp3</t>
+  </si>
+  <si>
+    <t>The Wailin' Jennys</t>
+  </si>
+  <si>
+    <t>Bright Morning Stars</t>
+  </si>
+  <si>
+    <t>Bird Song</t>
+  </si>
+  <si>
+    <t>Easy Listening - Group</t>
+  </si>
+  <si>
+    <t>Boogie On Reggae Woman.mp3</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Boogie On Reggae Woman</t>
+  </si>
+  <si>
+    <t>R&amp;B</t>
+  </si>
+  <si>
+    <t>Brazilian Stomp.mp3</t>
+  </si>
+  <si>
+    <t>Earl Klugh</t>
+  </si>
+  <si>
+    <t>Brazilian Stomp</t>
+  </si>
+  <si>
+    <t>Bring Me Home.mp3</t>
+  </si>
+  <si>
+    <t>Mother Earth</t>
+  </si>
+  <si>
+    <t>Bring Me Home</t>
+  </si>
+  <si>
+    <t>C'est La Mort.mp3</t>
+  </si>
+  <si>
+    <t>The Civil Wars</t>
+  </si>
+  <si>
+    <t>Barton Hollow</t>
+  </si>
+  <si>
+    <t>C'est La Mort</t>
+  </si>
+  <si>
+    <t>Acoustic Alchemy</t>
+  </si>
+  <si>
+    <t>Early Alchemy</t>
+  </si>
+  <si>
+    <t>Acoustic</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Maria Muldaur</t>
+  </si>
+  <si>
+    <t>Don't Think Twice, It's All Right.mp3</t>
+  </si>
+  <si>
+    <t>Don't Think Twice, It's All Right</t>
+  </si>
+  <si>
+    <t>Eagle Plume Dancer.mp3</t>
+  </si>
+  <si>
+    <t>Black Lodge Singers</t>
+  </si>
+  <si>
+    <t>Ceremonial and war dances</t>
+  </si>
+  <si>
+    <t>Eagle Plume Dancer</t>
+  </si>
+  <si>
+    <t>Everybody's Fool.mp3</t>
+  </si>
+  <si>
+    <t>Evanescence</t>
+  </si>
+  <si>
+    <t>Fallen</t>
+  </si>
+  <si>
+    <t>Everybody's Fool</t>
+  </si>
+  <si>
+    <t>Enya</t>
+  </si>
+  <si>
+    <t>Watermark</t>
+  </si>
+  <si>
+    <t>Fake Tales Of San Francisco.mp3</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Five Minutes With Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>fear.mp3</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Fields of Gold.mp3</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Celtica 1</t>
+  </si>
+  <si>
+    <t>Fields of Gold</t>
+  </si>
+  <si>
+    <t>Fire.mp3</t>
+  </si>
+  <si>
+    <t>Soul Divas</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>Fortune Teller.mp3</t>
+  </si>
+  <si>
+    <t>Xavier Rudd</t>
+  </si>
+  <si>
+    <t>Food In The Belly</t>
+  </si>
+  <si>
+    <t>Fortune Teller</t>
+  </si>
+  <si>
+    <t>Mellow</t>
+  </si>
+  <si>
+    <t>French Letter.mp3</t>
+  </si>
+  <si>
+    <t>Herbs</t>
+  </si>
+  <si>
+    <t>French Letter</t>
+  </si>
+  <si>
+    <t>Reggae</t>
+  </si>
+  <si>
+    <t>Average White Band</t>
+  </si>
+  <si>
+    <t>Rickie Lee Jones</t>
+  </si>
+  <si>
+    <t>Flying Cowboys</t>
+  </si>
+  <si>
+    <t>Got The Love - 2009.mp3</t>
+  </si>
+  <si>
+    <t>Got The Love</t>
+  </si>
+  <si>
+    <t>Great Southern Land.mp3</t>
+  </si>
+  <si>
+    <t>Icehouse</t>
+  </si>
+  <si>
+    <t>Great Southern Land</t>
+  </si>
+  <si>
+    <t>Hallelujah.mp3</t>
+  </si>
+  <si>
+    <t>Gin Wigmore</t>
+  </si>
+  <si>
+    <t>Extended Play</t>
+  </si>
+  <si>
+    <t>Hallelujah</t>
+  </si>
+  <si>
+    <t>Hard Travelin' Hootenanny.mp3</t>
+  </si>
+  <si>
+    <t>Hard Travelin' Hootenanny</t>
+  </si>
+  <si>
+    <t>Hineraukatauri (Goddess of Music).mp3</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Mumford &amp; Sons</t>
+  </si>
+  <si>
+    <t>Hopeless Wanderer.mp3</t>
+  </si>
+  <si>
+    <t>Babel</t>
+  </si>
+  <si>
+    <t>Hopeless Wanderer</t>
+  </si>
+  <si>
+    <t>How do you plead.mp3</t>
+  </si>
+  <si>
+    <t>How do you plead</t>
+  </si>
+  <si>
+    <t>How Sweet Can You Get - 2009.mp3</t>
+  </si>
+  <si>
+    <t>How Sweet Can You Get</t>
+  </si>
+  <si>
+    <t>Dixie Chicks</t>
+  </si>
+  <si>
+    <t>I'll Be Long Gone.mp3</t>
+  </si>
+  <si>
+    <t>I'll Be Long Gone</t>
+  </si>
+  <si>
+    <t>New Age</t>
+  </si>
+  <si>
+    <t>I'm in the Mood for Dancing.mp3</t>
+  </si>
+  <si>
+    <t>The Nolans</t>
+  </si>
+  <si>
+    <t>I'm in the Mood for Dancing</t>
+  </si>
+  <si>
+    <t>If I Ever Leave This World Alive.mp3</t>
+  </si>
+  <si>
+    <t>Flogging Molly</t>
+  </si>
+  <si>
+    <t>Drunken Lullabies</t>
+  </si>
+  <si>
+    <t>If I Ever Leave This World Alive</t>
+  </si>
+  <si>
+    <t>Leave a Light On.mp3</t>
+  </si>
+  <si>
+    <t>Belinda Carlisle</t>
+  </si>
+  <si>
+    <t>Leave a Light On</t>
+  </si>
+  <si>
+    <t>Easy Listening - Female</t>
+  </si>
+  <si>
+    <t>Like someone in love.mp3</t>
+  </si>
+  <si>
+    <t>Nancy Wilson</t>
+  </si>
+  <si>
+    <t>The Best of Nancy Wilson</t>
+  </si>
+  <si>
+    <t>Like Someone In Love</t>
+  </si>
+  <si>
+    <t>Vocal</t>
+  </si>
+  <si>
+    <t>Little Black Book.mp3</t>
+  </si>
+  <si>
+    <t>Little Black Book</t>
+  </si>
+  <si>
+    <t>Lost for Words.mp3</t>
+  </si>
+  <si>
+    <t>Ronan Keating</t>
+  </si>
+  <si>
+    <t>10 Years Of Hits</t>
+  </si>
+  <si>
+    <t>Lost For Words</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Marijuana.mp3</t>
+  </si>
+  <si>
+    <t>Marijuana</t>
+  </si>
+  <si>
+    <t>Marooned.mp3</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>The Division Bell</t>
+  </si>
+  <si>
+    <t>Marooned</t>
+  </si>
+  <si>
+    <t>Progressive Rock</t>
+  </si>
+  <si>
+    <t>Messages.mp3</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Northern Lights.mp3</t>
+  </si>
+  <si>
+    <t>St. Vincent</t>
+  </si>
+  <si>
+    <t>Strange Mercy</t>
+  </si>
+  <si>
+    <t>Northern Lights</t>
+  </si>
+  <si>
+    <t>Now There's That Fear Again.mp3</t>
+  </si>
+  <si>
+    <t>Mum</t>
+  </si>
+  <si>
+    <t>Finally We Are No One</t>
+  </si>
+  <si>
+    <t>Now There's That Fear Again</t>
+  </si>
+  <si>
+    <t>Post-Rock</t>
+  </si>
+  <si>
+    <t>One Golden Rule.mp3</t>
+  </si>
+  <si>
+    <t>Chris Rea</t>
+  </si>
+  <si>
+    <t>Shamrock Diaries</t>
+  </si>
+  <si>
+    <t>One Golden Rule</t>
+  </si>
+  <si>
+    <t>Blues</t>
+  </si>
+  <si>
+    <t>One Slip.mp3</t>
+  </si>
+  <si>
+    <t>A Momentary Lapse Of Reason</t>
+  </si>
+  <si>
+    <t>One Slip</t>
+  </si>
+  <si>
+    <t>Parihaka.mp3</t>
+  </si>
+  <si>
+    <t>Parihaka</t>
+  </si>
+  <si>
+    <t>Sarah Slean</t>
+  </si>
+  <si>
+    <t>Fleetwood Mac</t>
+  </si>
+  <si>
+    <t>Radioactive.mp3</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>River.mp3</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Sarah Victoria.mp3</t>
+  </si>
+  <si>
+    <t>Sarah Victoria</t>
+  </si>
+  <si>
+    <t>Chris de Burgh</t>
+  </si>
+  <si>
+    <t>Silent Warrior.mp3</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>The Cross of Changes</t>
+  </si>
+  <si>
+    <t>Silent Warrior</t>
+  </si>
+  <si>
+    <t>Simple Love [#].mp3</t>
+  </si>
+  <si>
+    <t>Slice of Heaven.mp3</t>
+  </si>
+  <si>
+    <t>Slice of Heaven</t>
+  </si>
+  <si>
+    <t>Slow Train.mp3</t>
+  </si>
+  <si>
+    <t>Slow Train Coming</t>
+  </si>
+  <si>
+    <t>Slow Train</t>
+  </si>
+  <si>
+    <t>Music for Lovers</t>
+  </si>
+  <si>
+    <t>Spanish Train.mp3</t>
+  </si>
+  <si>
+    <t>Spanish Train &amp; Other Stories</t>
+  </si>
+  <si>
+    <t>Spanish Train</t>
+  </si>
+  <si>
+    <t>Steal Your Heart Away.mp3</t>
+  </si>
+  <si>
+    <t>Steal Your Heart Away</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t>The Forest Awakes.mp3</t>
+  </si>
+  <si>
+    <t>Love This Giant</t>
+  </si>
+  <si>
+    <t>The Forest Awakes</t>
+  </si>
+  <si>
+    <t>The Horses.mp3</t>
+  </si>
+  <si>
+    <t>The Horses</t>
+  </si>
+  <si>
+    <t>The Mother.mp3</t>
+  </si>
+  <si>
+    <t>The Mother</t>
+  </si>
+  <si>
+    <t>The Sodom And Gomorrah Show.mp3</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys</t>
+  </si>
+  <si>
+    <t>Fundamental</t>
+  </si>
+  <si>
+    <t>The Sodom And Gomorrah Show</t>
+  </si>
+  <si>
+    <t>The Times They Are A-Changin'.mp3</t>
+  </si>
+  <si>
+    <t>The Times They Are A-Changin'</t>
+  </si>
+  <si>
+    <t>The Traveller.mp3</t>
+  </si>
+  <si>
+    <t>The Traveller</t>
+  </si>
+  <si>
+    <t>The Woods.mp3</t>
+  </si>
+  <si>
+    <t>His Young Heart</t>
+  </si>
+  <si>
+    <t>The Woods</t>
+  </si>
+  <si>
+    <t>Til We Outnumber 'Em (This Land Is You Land).mp3</t>
+  </si>
+  <si>
+    <t>Unchain My Heart [90's Version].mp3</t>
+  </si>
+  <si>
+    <t>Joe Cocker</t>
+  </si>
+  <si>
+    <t>Waiting For You.mp3</t>
+  </si>
+  <si>
+    <t>Waiting For You</t>
+  </si>
+  <si>
+    <t>We can let it happen tonight.mp3</t>
+  </si>
+  <si>
+    <t>We can let it happen tonight</t>
+  </si>
+  <si>
+    <t>When Girls Collide.mp3</t>
+  </si>
+  <si>
+    <t>Smilewound</t>
+  </si>
+  <si>
+    <t>When Girls Collide</t>
+  </si>
+  <si>
+    <t>When You Come Back Home.mp3</t>
+  </si>
+  <si>
+    <t>The Front Lawn</t>
+  </si>
+  <si>
+    <t>Songs from the Front Lawn</t>
+  </si>
+  <si>
+    <t>When You Come Back Home</t>
+  </si>
+  <si>
+    <t>Avante-Garde</t>
+  </si>
+  <si>
+    <t>You Probably Couldn't See For The Lights, But You Were Staring Straight At Me.mp3</t>
+  </si>
+  <si>
+    <t>You Probably Couldn't See For The Lights, But You Were Staring Straight At Me</t>
+  </si>
+  <si>
+    <t>You Were Mine.mp3</t>
+  </si>
+  <si>
+    <t>You Were Mine</t>
+  </si>
+  <si>
+    <t>You're Just a Country Boy [#].mp3</t>
+  </si>
+  <si>
+    <t>Zombie.mp3</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Earth And Sky.mp3</t>
+  </si>
+  <si>
+    <t>Hoea</t>
+  </si>
+  <si>
+    <t>Earth &amp; Sky</t>
+  </si>
+  <si>
+    <t>He Aha Ra Te Manu.mp3</t>
+  </si>
+  <si>
+    <t>He Aha Ra Te Manu</t>
+  </si>
+  <si>
+    <t>Ashes By Now.mp3</t>
+  </si>
+  <si>
+    <t>Lee Ann Womack</t>
+  </si>
+  <si>
+    <t>I Hope You Dance</t>
+  </si>
+  <si>
+    <t>Ashes By Now</t>
+  </si>
+  <si>
+    <t>Greatest Hits</t>
+  </si>
+  <si>
+    <t>Free Bird Live [Fox Theater].mp3</t>
+  </si>
+  <si>
+    <t>Lynyrd Skynyrd</t>
+  </si>
+  <si>
+    <t>Maggie.mp3</t>
+  </si>
+  <si>
+    <t>Gael Force</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Wolfstone</t>
+  </si>
+  <si>
+    <t>Mary.mp3</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Shower the People.mp3</t>
+  </si>
+  <si>
+    <t>CMT Crossroads</t>
+  </si>
+  <si>
+    <t>Shower the People</t>
+  </si>
+  <si>
+    <t>James Taylor</t>
+  </si>
+  <si>
+    <t>Slice Of Heaven.mp3</t>
+  </si>
+  <si>
+    <t>Stay.mp3</t>
+  </si>
+  <si>
+    <t>Jackson Browne</t>
+  </si>
+  <si>
+    <t>Running on Empty</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Sweet Baby James.mp3</t>
+  </si>
+  <si>
+    <t>Sweet Baby James</t>
+  </si>
+  <si>
+    <t>Tell me.mp3</t>
+  </si>
+  <si>
+    <t>Wendy Matthews</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Tell me</t>
+  </si>
+  <si>
+    <t>Turn! Turn! Turn! (To Everything There Is A Season).mp3</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Turn! Turn! Turn!.mp3</t>
+  </si>
+  <si>
+    <t>Nina Simone</t>
+  </si>
+  <si>
+    <t>Turn! Turn! Turn!</t>
+  </si>
+  <si>
+    <t>Fields of Fire</t>
+  </si>
+  <si>
+    <t>Formatting Changed</t>
+  </si>
+  <si>
+    <t>Spellcheck</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>A Collection</t>
+  </si>
+  <si>
+    <t>A Place On Earth</t>
+  </si>
+  <si>
+    <t>The Greatest Hits - CD 1/2</t>
+  </si>
+  <si>
+    <t>Deluxe</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Big Jet Plane</t>
+  </si>
+  <si>
+    <t>Continued Silence</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>types;</t>
+  </si>
+  <si>
+    <t>1: Albumn</t>
+  </si>
+  <si>
+    <t>Data swapped</t>
+  </si>
+  <si>
+    <t>Say You Will</t>
+  </si>
+  <si>
+    <t>Jethro Tull</t>
+  </si>
+  <si>
+    <t>The Dixie Chicks</t>
+  </si>
+  <si>
+    <t>Wai.Tai</t>
+  </si>
+  <si>
+    <t>Three Decades Of Males</t>
+  </si>
+  <si>
+    <t>The Bangles</t>
+  </si>
+  <si>
+    <t>3: Playlist</t>
+  </si>
+  <si>
+    <t>4: Public Playlist</t>
+  </si>
+  <si>
+    <t>Footrot Flats</t>
+  </si>
+  <si>
+    <t>A Dog's Tale</t>
+  </si>
+  <si>
+    <t>Gale Force</t>
+  </si>
+  <si>
+    <t>Lights of the Pacific</t>
+  </si>
+  <si>
+    <t>The Very Best Of</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Friday's Child</t>
+  </si>
+  <si>
+    <t>The Very Best of Herbs</t>
+  </si>
+  <si>
+    <t>Live In Texas</t>
+  </si>
+  <si>
+    <t>Data improvised (guessed)</t>
+  </si>
+  <si>
+    <t>Shona Laing</t>
+  </si>
+  <si>
+    <t>St. Germain</t>
+  </si>
+  <si>
+    <t>Wilson Philips</t>
+  </si>
+  <si>
+    <t>track_id</t>
+  </si>
+  <si>
+    <t>Angus Stone</t>
+  </si>
+  <si>
+    <t>Julia Stone</t>
+  </si>
+  <si>
+    <t>Big Country</t>
+  </si>
+  <si>
+    <t>Country Joe</t>
+  </si>
+  <si>
+    <t>The Fish</t>
+  </si>
+  <si>
+    <t>Dave Dobbyn</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Matthew Sweet</t>
+  </si>
+  <si>
+    <t>Susanna Hoffs</t>
+  </si>
+  <si>
+    <t>Shone Laing</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>All Things Bright And Beautiful</t>
+  </si>
+  <si>
+    <t>[EP]</t>
+  </si>
+  <si>
+    <t>Electric Music For The Mind And Body</t>
+  </si>
+  <si>
+    <t>From Detroit to St. Germain</t>
+  </si>
+  <si>
+    <t>A Hundred Miles or More</t>
+  </si>
+  <si>
+    <t>Live!</t>
+  </si>
+  <si>
+    <t>Not Enough Shouting!</t>
+  </si>
+  <si>
+    <t>One More from the Road</t>
+  </si>
+  <si>
+    <t>[MG]</t>
+  </si>
+  <si>
+    <t>Primitive Man</t>
+  </si>
+  <si>
+    <t>Bonus Tracks</t>
+  </si>
+  <si>
+    <t>The Best of Ario Guthrie</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>The Best of Joe Cocker</t>
+  </si>
+  <si>
+    <t>The Collection</t>
+  </si>
+  <si>
+    <t>The Deginitive Collection</t>
+  </si>
+  <si>
+    <t>Til We Outnumber 'Em</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>To Love Somebody</t>
+  </si>
+  <si>
+    <t>Here Comes the Sun</t>
+  </si>
+  <si>
+    <t>Under The Covers</t>
+  </si>
+  <si>
+    <t>Walk Like An Egyption</t>
+  </si>
+  <si>
+    <t>The Best Of</t>
+  </si>
+  <si>
+    <t>UK Single</t>
+  </si>
+  <si>
+    <t>2: Genre</t>
+  </si>
+  <si>
+    <t>Post-Grunge</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Nu-Metal</t>
+  </si>
+  <si>
+    <t>Cont</t>
+  </si>
+  <si>
+    <t>Brit</t>
+  </si>
+  <si>
+    <t>Maori</t>
+  </si>
+  <si>
+    <t>Ethnic</t>
+  </si>
+  <si>
+    <t>Native American</t>
+  </si>
+  <si>
+    <t>Psychdelic</t>
+  </si>
+  <si>
+    <t>Gothic</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>playlist_id</t>
+  </si>
+  <si>
+    <t>artist_name</t>
+  </si>
+  <si>
+    <t>Reformatted</t>
+  </si>
+  <si>
+    <t>Simple Love</t>
+  </si>
+  <si>
+    <t>You're Just a Country Boy</t>
+  </si>
+  <si>
+    <t>Turn! Turn! Turn! - To Everything There Is A Season</t>
+  </si>
+  <si>
+    <t>Unchain My Heart - 90's Version</t>
+  </si>
+  <si>
+    <t>All The Young Dudes - David Bowie</t>
+  </si>
+  <si>
+    <t>Big Jet Plane - Radio Edit</t>
+  </si>
+  <si>
+    <t>Hineraukatauri - Goddess of Music</t>
+  </si>
+  <si>
+    <t>Alice's Restaurant Massacre</t>
+  </si>
+  <si>
+    <t>Till We Outnumber 'Em - This Land Is You Land</t>
+  </si>
+  <si>
+    <t>Fake Tales Of San Francisco</t>
+  </si>
+  <si>
+    <t>Free Bird Live - Fox Theatre</t>
+  </si>
+  <si>
+    <t>Chicken on a Raft.mp3</t>
+  </si>
+  <si>
     <t>2-30.mp3</t>
-  </si>
-  <si>
-    <t>A Flock of Seagulls</t>
-  </si>
-  <si>
-    <t>Listen</t>
-  </si>
-  <si>
-    <t>New Wave</t>
-  </si>
-  <si>
-    <t>A Commotion.mp3</t>
-  </si>
-  <si>
-    <t>Feist</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>A Commotion</t>
-  </si>
-  <si>
-    <t>Folk</t>
-  </si>
-  <si>
-    <t>Alabama Blues.mp3</t>
-  </si>
-  <si>
-    <t>Alabama Blues</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Alice's Restaurant Massacree.mp3</t>
-  </si>
-  <si>
-    <t>Arlo Guthrie</t>
-  </si>
-  <si>
-    <t>Alice's Restaurant Massacree</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>At Budokan</t>
-  </si>
-  <si>
-    <t>All The Young Dudes.mp3</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Alligator Sky.mp3</t>
-  </si>
-  <si>
-    <t>Owl City</t>
-  </si>
-  <si>
-    <t>Alligator Sky</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>American Heart.mp3</t>
-  </si>
-  <si>
-    <t>Faith Hill</t>
-  </si>
-  <si>
-    <t>American Heart</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>American Pie.mp3</t>
-  </si>
-  <si>
-    <t>Don McLean</t>
-  </si>
-  <si>
-    <t>American Pie</t>
-  </si>
-  <si>
-    <t>Easy Listening - Male</t>
-  </si>
-  <si>
-    <t>Jazz</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Aqualung.mp3</t>
-  </si>
-  <si>
-    <t>Aqualung</t>
-  </si>
-  <si>
-    <t>Alison Krauss</t>
-  </si>
-  <si>
-    <t>Bluegrass</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Big Jet Plane (Radio Edit).mp3</t>
-  </si>
-  <si>
-    <t>US Folk</t>
-  </si>
-  <si>
-    <t>Bird Song.mp3</t>
-  </si>
-  <si>
-    <t>The Wailin' Jennys</t>
-  </si>
-  <si>
-    <t>Bright Morning Stars</t>
-  </si>
-  <si>
-    <t>Bird Song</t>
-  </si>
-  <si>
-    <t>Easy Listening - Group</t>
-  </si>
-  <si>
-    <t>Boogie On Reggae Woman.mp3</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Boogie On Reggae Woman</t>
-  </si>
-  <si>
-    <t>R&amp;B</t>
-  </si>
-  <si>
-    <t>Brazilian Stomp.mp3</t>
-  </si>
-  <si>
-    <t>Earl Klugh</t>
-  </si>
-  <si>
-    <t>Brazilian Stomp</t>
-  </si>
-  <si>
-    <t>Bring Me Home.mp3</t>
-  </si>
-  <si>
-    <t>Mother Earth</t>
-  </si>
-  <si>
-    <t>Bring Me Home</t>
-  </si>
-  <si>
-    <t>C'est La Mort.mp3</t>
-  </si>
-  <si>
-    <t>The Civil Wars</t>
-  </si>
-  <si>
-    <t>Barton Hollow</t>
-  </si>
-  <si>
-    <t>C'est La Mort</t>
-  </si>
-  <si>
-    <t>Acoustic Alchemy</t>
-  </si>
-  <si>
-    <t>Early Alchemy</t>
-  </si>
-  <si>
-    <t>Acoustic</t>
-  </si>
-  <si>
-    <t>Alternative</t>
-  </si>
-  <si>
-    <t>Maria Muldaur</t>
-  </si>
-  <si>
-    <t>Don't Think Twice, It's All Right.mp3</t>
-  </si>
-  <si>
-    <t>Don't Think Twice, It's All Right</t>
-  </si>
-  <si>
-    <t>Eagle Plume Dancer.mp3</t>
-  </si>
-  <si>
-    <t>Black Lodge Singers</t>
-  </si>
-  <si>
-    <t>Ceremonial and war dances</t>
-  </si>
-  <si>
-    <t>Eagle Plume Dancer</t>
-  </si>
-  <si>
-    <t>Everybody's Fool.mp3</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Fallen</t>
-  </si>
-  <si>
-    <t>Everybody's Fool</t>
-  </si>
-  <si>
-    <t>Enya</t>
-  </si>
-  <si>
-    <t>Watermark</t>
-  </si>
-  <si>
-    <t>Fake Tales Of San Francisco.mp3</t>
-  </si>
-  <si>
-    <t>Arctic Monkeys</t>
-  </si>
-  <si>
-    <t>Five Minutes With Arctic Monkeys</t>
-  </si>
-  <si>
-    <t>fear.mp3</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Fields of Gold.mp3</t>
-  </si>
-  <si>
-    <t>Varios</t>
-  </si>
-  <si>
-    <t>Celtica 1</t>
-  </si>
-  <si>
-    <t>Fields of Gold</t>
-  </si>
-  <si>
-    <t>Fire.mp3</t>
-  </si>
-  <si>
-    <t>Soul Divas</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Soul</t>
-  </si>
-  <si>
-    <t>Fortune Teller.mp3</t>
-  </si>
-  <si>
-    <t>Xavier Rudd</t>
-  </si>
-  <si>
-    <t>Food In The Belly</t>
-  </si>
-  <si>
-    <t>Fortune Teller</t>
-  </si>
-  <si>
-    <t>Mellow</t>
-  </si>
-  <si>
-    <t>French Letter.mp3</t>
-  </si>
-  <si>
-    <t>Herbs</t>
-  </si>
-  <si>
-    <t>French Letter</t>
-  </si>
-  <si>
-    <t>Reggae</t>
-  </si>
-  <si>
-    <t>Average White Band</t>
-  </si>
-  <si>
-    <t>Rickie Lee Jones</t>
-  </si>
-  <si>
-    <t>Flying Cowboys</t>
-  </si>
-  <si>
-    <t>Got The Love - 2009.mp3</t>
-  </si>
-  <si>
-    <t>Got The Love</t>
-  </si>
-  <si>
-    <t>Great Southern Land.mp3</t>
-  </si>
-  <si>
-    <t>Icehouse</t>
-  </si>
-  <si>
-    <t>Great Southern Land</t>
-  </si>
-  <si>
-    <t>Hallelujah.mp3</t>
-  </si>
-  <si>
-    <t>Gin Wigmore</t>
-  </si>
-  <si>
-    <t>Extended Play</t>
-  </si>
-  <si>
-    <t>Hallelujah</t>
-  </si>
-  <si>
-    <t>Hard Travelin' Hootenanny.mp3</t>
-  </si>
-  <si>
-    <t>Hard Travelin' Hootenanny</t>
-  </si>
-  <si>
-    <t>Hineraukatauri (Goddess of Music).mp3</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Mumford &amp; Sons</t>
-  </si>
-  <si>
-    <t>Hopeless Wanderer.mp3</t>
-  </si>
-  <si>
-    <t>Babel</t>
-  </si>
-  <si>
-    <t>Hopeless Wanderer</t>
-  </si>
-  <si>
-    <t>How do you plead.mp3</t>
-  </si>
-  <si>
-    <t>How do you plead</t>
-  </si>
-  <si>
-    <t>How Sweet Can You Get - 2009.mp3</t>
-  </si>
-  <si>
-    <t>How Sweet Can You Get</t>
-  </si>
-  <si>
-    <t>Dixie Chicks</t>
-  </si>
-  <si>
-    <t>I'll Be Long Gone.mp3</t>
-  </si>
-  <si>
-    <t>I'll Be Long Gone</t>
-  </si>
-  <si>
-    <t>New Age</t>
-  </si>
-  <si>
-    <t>I'm in the Mood for Dancing.mp3</t>
-  </si>
-  <si>
-    <t>The Nolans</t>
-  </si>
-  <si>
-    <t>I'm in the Mood for Dancing</t>
-  </si>
-  <si>
-    <t>If I Ever Leave This World Alive.mp3</t>
-  </si>
-  <si>
-    <t>Flogging Molly</t>
-  </si>
-  <si>
-    <t>Drunken Lullabies</t>
-  </si>
-  <si>
-    <t>If I Ever Leave This World Alive</t>
-  </si>
-  <si>
-    <t>Leave a Light On.mp3</t>
-  </si>
-  <si>
-    <t>Belinda Carlisle</t>
-  </si>
-  <si>
-    <t>Leave a Light On</t>
-  </si>
-  <si>
-    <t>Easy Listening - Female</t>
-  </si>
-  <si>
-    <t>Like someone in love.mp3</t>
-  </si>
-  <si>
-    <t>Nancy Wilson</t>
-  </si>
-  <si>
-    <t>The Best of Nancy Wilson</t>
-  </si>
-  <si>
-    <t>Like Someone In Love</t>
-  </si>
-  <si>
-    <t>Vocal</t>
-  </si>
-  <si>
-    <t>Little Black Book.mp3</t>
-  </si>
-  <si>
-    <t>Little Black Book</t>
-  </si>
-  <si>
-    <t>Lost for Words.mp3</t>
-  </si>
-  <si>
-    <t>Ronan Keating</t>
-  </si>
-  <si>
-    <t>10 Years Of Hits</t>
-  </si>
-  <si>
-    <t>Lost For Words</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Marijuana.mp3</t>
-  </si>
-  <si>
-    <t>Marijuana</t>
-  </si>
-  <si>
-    <t>Marooned.mp3</t>
-  </si>
-  <si>
-    <t>Pink Floyd</t>
-  </si>
-  <si>
-    <t>The Division Bell</t>
-  </si>
-  <si>
-    <t>Marooned</t>
-  </si>
-  <si>
-    <t>Progressive Rock</t>
-  </si>
-  <si>
-    <t>Messages.mp3</t>
-  </si>
-  <si>
-    <t>Messages</t>
-  </si>
-  <si>
-    <t>Northern Lights.mp3</t>
-  </si>
-  <si>
-    <t>St. Vincent</t>
-  </si>
-  <si>
-    <t>Strange Mercy</t>
-  </si>
-  <si>
-    <t>Northern Lights</t>
-  </si>
-  <si>
-    <t>Now There's That Fear Again.mp3</t>
-  </si>
-  <si>
-    <t>Mum</t>
-  </si>
-  <si>
-    <t>Finally We Are No One</t>
-  </si>
-  <si>
-    <t>Now There's That Fear Again</t>
-  </si>
-  <si>
-    <t>Post-Rock</t>
-  </si>
-  <si>
-    <t>One Golden Rule.mp3</t>
-  </si>
-  <si>
-    <t>Chris Rea</t>
-  </si>
-  <si>
-    <t>Shamrock Diaries</t>
-  </si>
-  <si>
-    <t>One Golden Rule</t>
-  </si>
-  <si>
-    <t>Blues</t>
-  </si>
-  <si>
-    <t>One Slip.mp3</t>
-  </si>
-  <si>
-    <t>A Momentary Lapse Of Reason</t>
-  </si>
-  <si>
-    <t>One Slip</t>
-  </si>
-  <si>
-    <t>Parihaka.mp3</t>
-  </si>
-  <si>
-    <t>Parihaka</t>
-  </si>
-  <si>
-    <t>Sarah Slean</t>
-  </si>
-  <si>
-    <t>Fleetwood Mac</t>
-  </si>
-  <si>
-    <t>Radioactive.mp3</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
-    <t>Radioactive</t>
-  </si>
-  <si>
-    <t>River.mp3</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Sarah Victoria.mp3</t>
-  </si>
-  <si>
-    <t>Sarah Victoria</t>
-  </si>
-  <si>
-    <t>Chris de Burgh</t>
-  </si>
-  <si>
-    <t>Silent Warrior.mp3</t>
-  </si>
-  <si>
-    <t>Enigma</t>
-  </si>
-  <si>
-    <t>The Cross of Changes</t>
-  </si>
-  <si>
-    <t>Silent Warrior</t>
-  </si>
-  <si>
-    <t>Simple Love [#].mp3</t>
-  </si>
-  <si>
-    <t>Slice of Heaven.mp3</t>
-  </si>
-  <si>
-    <t>Slice of Heaven</t>
-  </si>
-  <si>
-    <t>Slow Train.mp3</t>
-  </si>
-  <si>
-    <t>Slow Train Coming</t>
-  </si>
-  <si>
-    <t>Slow Train</t>
-  </si>
-  <si>
-    <t>Music for Lovers</t>
-  </si>
-  <si>
-    <t>Spanish Train.mp3</t>
-  </si>
-  <si>
-    <t>Spanish Train &amp; Other Stories</t>
-  </si>
-  <si>
-    <t>Spanish Train</t>
-  </si>
-  <si>
-    <t>Steal Your Heart Away.mp3</t>
-  </si>
-  <si>
-    <t>Steal Your Heart Away</t>
-  </si>
-  <si>
-    <t>Daughter</t>
-  </si>
-  <si>
-    <t>The Forest Awakes.mp3</t>
-  </si>
-  <si>
-    <t>Love This Giant</t>
-  </si>
-  <si>
-    <t>The Forest Awakes</t>
-  </si>
-  <si>
-    <t>The Horses.mp3</t>
-  </si>
-  <si>
-    <t>The Horses</t>
-  </si>
-  <si>
-    <t>The Mother.mp3</t>
-  </si>
-  <si>
-    <t>The Mother</t>
-  </si>
-  <si>
-    <t>The Sodom And Gomorrah Show.mp3</t>
-  </si>
-  <si>
-    <t>Pet Shop Boys</t>
-  </si>
-  <si>
-    <t>Fundamental</t>
-  </si>
-  <si>
-    <t>The Sodom And Gomorrah Show</t>
-  </si>
-  <si>
-    <t>The Times They Are A-Changin'.mp3</t>
-  </si>
-  <si>
-    <t>The Times They Are A-Changin'</t>
-  </si>
-  <si>
-    <t>The Traveller.mp3</t>
-  </si>
-  <si>
-    <t>The Traveller</t>
-  </si>
-  <si>
-    <t>The Woods.mp3</t>
-  </si>
-  <si>
-    <t>His Young Heart</t>
-  </si>
-  <si>
-    <t>The Woods</t>
-  </si>
-  <si>
-    <t>Til We Outnumber 'Em (This Land Is You Land).mp3</t>
-  </si>
-  <si>
-    <t>Unchain My Heart [90's Version].mp3</t>
-  </si>
-  <si>
-    <t>Joe Cocker</t>
-  </si>
-  <si>
-    <t>Waiting For You.mp3</t>
-  </si>
-  <si>
-    <t>Waiting For You</t>
-  </si>
-  <si>
-    <t>We can let it happen tonight.mp3</t>
-  </si>
-  <si>
-    <t>We can let it happen tonight</t>
-  </si>
-  <si>
-    <t>When Girls Collide.mp3</t>
-  </si>
-  <si>
-    <t>Smilewound</t>
-  </si>
-  <si>
-    <t>When Girls Collide</t>
-  </si>
-  <si>
-    <t>When You Come Back Home.mp3</t>
-  </si>
-  <si>
-    <t>The Front Lawn</t>
-  </si>
-  <si>
-    <t>Songs from the Front Lawn</t>
-  </si>
-  <si>
-    <t>When You Come Back Home</t>
-  </si>
-  <si>
-    <t>Avante-Garde</t>
-  </si>
-  <si>
-    <t>You Probably Couldn't See For The Lights, But You Were Staring Straight At Me.mp3</t>
-  </si>
-  <si>
-    <t>You Probably Couldn't See For The Lights, But You Were Staring Straight At Me</t>
-  </si>
-  <si>
-    <t>You Were Mine.mp3</t>
-  </si>
-  <si>
-    <t>You Were Mine</t>
-  </si>
-  <si>
-    <t>You're Just a Country Boy [#].mp3</t>
-  </si>
-  <si>
-    <t>Zombie.mp3</t>
-  </si>
-  <si>
-    <t>The Cranberries</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>Earth And Sky.mp3</t>
-  </si>
-  <si>
-    <t>Hoea</t>
-  </si>
-  <si>
-    <t>Earth &amp; Sky</t>
-  </si>
-  <si>
-    <t>He Aha Ra Te Manu.mp3</t>
-  </si>
-  <si>
-    <t>He Aha Ra Te Manu</t>
-  </si>
-  <si>
-    <t>Ashes By Now.mp3</t>
-  </si>
-  <si>
-    <t>Lee Ann Womack</t>
-  </si>
-  <si>
-    <t>I Hope You Dance</t>
-  </si>
-  <si>
-    <t>Ashes By Now</t>
-  </si>
-  <si>
-    <t>Greatest Hits</t>
-  </si>
-  <si>
-    <t>Free Bird Live [Fox Theater].mp3</t>
-  </si>
-  <si>
-    <t>Lynyrd Skynyrd</t>
-  </si>
-  <si>
-    <t>Maggie.mp3</t>
-  </si>
-  <si>
-    <t>Gael Force</t>
-  </si>
-  <si>
-    <t>Maggie</t>
-  </si>
-  <si>
-    <t>Wolfstone</t>
-  </si>
-  <si>
-    <t>Mary.mp3</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Shower the People.mp3</t>
-  </si>
-  <si>
-    <t>CMT Crossroads</t>
-  </si>
-  <si>
-    <t>Shower the People</t>
-  </si>
-  <si>
-    <t>James Taylor</t>
-  </si>
-  <si>
-    <t>Slice Of Heaven.mp3</t>
-  </si>
-  <si>
-    <t>Stay.mp3</t>
-  </si>
-  <si>
-    <t>Jackson Browne</t>
-  </si>
-  <si>
-    <t>Running on Empty</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Sweet Baby James.mp3</t>
-  </si>
-  <si>
-    <t>Sweet Baby James</t>
-  </si>
-  <si>
-    <t>Tell me.mp3</t>
-  </si>
-  <si>
-    <t>Wendy Matthews</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
-    <t>Tell me</t>
-  </si>
-  <si>
-    <t>Turn! Turn! Turn! (To Everything There Is A Season).mp3</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Turn! Turn! Turn!.mp3</t>
-  </si>
-  <si>
-    <t>Nina Simone</t>
-  </si>
-  <si>
-    <t>Turn! Turn! Turn!</t>
-  </si>
-  <si>
-    <t>Fields of Fire</t>
-  </si>
-  <si>
-    <t>Formatting Changed</t>
-  </si>
-  <si>
-    <t>Spellcheck</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>A Collection</t>
-  </si>
-  <si>
-    <t>A Place On Earth</t>
-  </si>
-  <si>
-    <t>The Greatest Hits - CD 1/2</t>
-  </si>
-  <si>
-    <t>Deluxe</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Big Jet Plane</t>
-  </si>
-  <si>
-    <t>Continued Silence</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>types;</t>
-  </si>
-  <si>
-    <t>1: Albumn</t>
-  </si>
-  <si>
-    <t>Data swapped</t>
-  </si>
-  <si>
-    <t>Fake Tales Of San Fansisco</t>
-  </si>
-  <si>
-    <t>Say You Will</t>
-  </si>
-  <si>
-    <t>Jethro Tull</t>
-  </si>
-  <si>
-    <t>The Dixie Chicks</t>
-  </si>
-  <si>
-    <t>Wai.Tai</t>
-  </si>
-  <si>
-    <t>Three Decades Of Males</t>
-  </si>
-  <si>
-    <t>The Bangles</t>
-  </si>
-  <si>
-    <t>3: Playlist</t>
-  </si>
-  <si>
-    <t>4: Public Playlist</t>
-  </si>
-  <si>
-    <t>Footrot Flats</t>
-  </si>
-  <si>
-    <t>A Dog's Tale</t>
-  </si>
-  <si>
-    <t>Gale Force</t>
-  </si>
-  <si>
-    <t>Lights of the Pacific</t>
-  </si>
-  <si>
-    <t>The Very Best Of</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>Friday's Child</t>
-  </si>
-  <si>
-    <t>The Very Best of Herbs</t>
-  </si>
-  <si>
-    <t>Live In Texas</t>
-  </si>
-  <si>
-    <t>Data improvised (guessed)</t>
-  </si>
-  <si>
-    <t>Shona Laing</t>
-  </si>
-  <si>
-    <t>Fridays Child.mp3</t>
-  </si>
-  <si>
-    <t>St. Germain</t>
-  </si>
-  <si>
-    <t>Wilson Philips</t>
-  </si>
-  <si>
-    <t>track_id</t>
-  </si>
-  <si>
-    <t>Angus Stone</t>
-  </si>
-  <si>
-    <t>Julia Stone</t>
-  </si>
-  <si>
-    <t>Big Country</t>
-  </si>
-  <si>
-    <t>Country Joe</t>
-  </si>
-  <si>
-    <t>The Fish</t>
-  </si>
-  <si>
-    <t>Dave Dobbyn</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Matthew Sweet</t>
-  </si>
-  <si>
-    <t>Susanna Hoffs</t>
-  </si>
-  <si>
-    <t>Shone Laing</t>
-  </si>
-  <si>
-    <t>artist_id</t>
-  </si>
-  <si>
-    <t>All Things Bright And Beautiful</t>
-  </si>
-  <si>
-    <t>[EP]</t>
-  </si>
-  <si>
-    <t>Electric Music For The Mind And Body</t>
-  </si>
-  <si>
-    <t>From Detroit to St. Germain</t>
-  </si>
-  <si>
-    <t>A Hundred Miles or More</t>
-  </si>
-  <si>
-    <t>Live!</t>
-  </si>
-  <si>
-    <t>Not Enough Shouting!</t>
-  </si>
-  <si>
-    <t>One More from the Road</t>
-  </si>
-  <si>
-    <t>[MG]</t>
-  </si>
-  <si>
-    <t>Primitive Man</t>
-  </si>
-  <si>
-    <t>Bonus Tracks</t>
-  </si>
-  <si>
-    <t>The Best of Ario Guthrie</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>The Best of Joe Cocker</t>
-  </si>
-  <si>
-    <t>The Collection</t>
-  </si>
-  <si>
-    <t>The Deginitive Collection</t>
-  </si>
-  <si>
-    <t>Til We Outnumber 'Em</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>To Love Somebody</t>
-  </si>
-  <si>
-    <t>Here Comes the Sun</t>
-  </si>
-  <si>
-    <t>Under The Covers</t>
-  </si>
-  <si>
-    <t>Walk Like An Egyption</t>
-  </si>
-  <si>
-    <t>The Best Of</t>
-  </si>
-  <si>
-    <t>UK Single</t>
-  </si>
-  <si>
-    <t>2: Genre</t>
-  </si>
-  <si>
-    <t>Post-Grunge</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Nu-Metal</t>
-  </si>
-  <si>
-    <t>Cont</t>
-  </si>
-  <si>
-    <t>Brit</t>
-  </si>
-  <si>
-    <t>Maori</t>
-  </si>
-  <si>
-    <t>Ethnic</t>
-  </si>
-  <si>
-    <t>Native American</t>
-  </si>
-  <si>
-    <t>Psychdelic</t>
-  </si>
-  <si>
-    <t>Gothic</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>playlist_id</t>
-  </si>
-  <si>
-    <t>artist_name</t>
-  </si>
-  <si>
-    <t>Reformatted</t>
-  </si>
-  <si>
-    <t>Simple Love</t>
-  </si>
-  <si>
-    <t>You're Just a Country Boy</t>
-  </si>
-  <si>
-    <t>Til We Outnumber 'Em - This Land Is You Land</t>
-  </si>
-  <si>
-    <t>Turn! Turn! Turn! - To Everything There Is A Season</t>
-  </si>
-  <si>
-    <t>Free Bird Live - Fox Theater</t>
-  </si>
-  <si>
-    <t>Unchain My Heart - 90's Version</t>
-  </si>
-  <si>
-    <t>All The Young Dudes - David Bowie</t>
-  </si>
-  <si>
-    <t>Big Jet Plane - Radio Edit</t>
-  </si>
-  <si>
-    <t>Hineraukatauri - Goddess of Music</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1303,6 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,14 +1643,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="1">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="B73" workbookViewId="1">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
   </sheetViews>
@@ -1663,1635 +1664,1655 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="E2">
-        <v>3692</v>
+        <v>6904</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
-        <v>204</v>
+        <v>439</v>
       </c>
       <c r="E3">
-        <v>6488</v>
+        <v>6865</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" t="s">
-        <v>264</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="D4" s="4">
-        <v>233</v>
+        <v>1111</v>
       </c>
       <c r="E4">
-        <v>9109</v>
+        <v>34731</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="D5" s="4">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="E5">
-        <v>11442</v>
+        <v>9081</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="E6">
-        <v>3818</v>
+        <v>6176</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>273</v>
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="4">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="E7">
-        <v>2551</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>184</v>
-      </c>
       <c r="D8" s="4">
-        <v>192</v>
+        <v>512</v>
       </c>
       <c r="E8">
-        <v>7553</v>
+        <v>20045</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="E9">
-        <v>9874</v>
+        <v>11596</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D10" s="4">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="E10">
-        <v>7893</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D11" s="4">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="E11">
-        <v>3408</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D12" s="4">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="E12">
-        <v>4444</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>377</v>
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="4">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E13">
-        <v>3258</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E14">
-        <v>9158</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="E15">
-        <v>5011</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4">
-        <v>270</v>
+        <v>365</v>
       </c>
       <c r="E16">
-        <v>10569</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="E17">
-        <v>6914</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="E18">
-        <v>4101</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="E19">
-        <v>9069</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="E20">
-        <v>2906</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E21">
-        <v>4015</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" t="s">
-        <v>241</v>
+        <v>69</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="D22" s="4">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E22">
-        <v>3409</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="D23" s="4">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E23">
-        <v>9880</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="D24" s="4">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="E24">
-        <v>9851</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="E25">
-        <v>5366</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>215</v>
+        <v>84</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="D26" s="4">
-        <v>319</v>
+        <v>816</v>
       </c>
       <c r="E26">
-        <v>7496</v>
+        <v>25506</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="E27">
-        <v>4006</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>144</v>
+        <v>255</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D28" s="4">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E28">
-        <v>3951</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="E29">
-        <v>5601</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="E30">
-        <v>20045</v>
+        <v>12468</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="D31" s="4">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="E31">
-        <v>11841</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>194</v>
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
       </c>
       <c r="D32" s="4">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E32">
-        <v>9693</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="D33" s="4">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="E33">
-        <v>3338</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D34" s="4">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="E34">
-        <v>6904</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D35" s="4">
-        <v>1111</v>
+        <v>294</v>
       </c>
       <c r="E35">
-        <v>34731</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D36" s="4">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="E36">
-        <v>6588</v>
+        <v>10236</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>378</v>
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
       </c>
       <c r="D37" s="4">
-        <v>157</v>
+        <v>400</v>
       </c>
       <c r="E37">
-        <v>4929</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="E38">
-        <v>11766</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="D39" s="4">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="E39">
-        <v>12854</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="E40">
-        <v>10236</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4">
-        <v>359</v>
+        <v>201</v>
       </c>
       <c r="E41">
-        <v>14107</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4">
-        <v>439</v>
+        <v>256</v>
       </c>
       <c r="E42">
-        <v>6865</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D43" s="4">
-        <v>400</v>
+        <v>142</v>
       </c>
       <c r="E43">
-        <v>6251</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>8959</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="D45" s="4">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="E45">
-        <v>11870</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D46" s="4">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="E46">
-        <v>7414</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="D47" s="4">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E47">
-        <v>8359</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>301</v>
+        <v>148</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D48" s="4">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="E48">
-        <v>7271</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>239</v>
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
       </c>
       <c r="D49" s="4">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E49">
-        <v>5771</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="D50" s="4">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E50">
-        <v>10605</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="D51" s="4">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E51">
-        <v>9784</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D52" s="4">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="E52">
-        <v>3463</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="D53" s="4">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E53">
-        <v>5984</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D54" s="4">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E54">
-        <v>4866</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D55" s="4">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E55">
-        <v>5686</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D56" s="4">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="E56">
-        <v>4594</v>
+        <v>10569</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="D57" s="4">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="E57">
-        <v>4444</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D58" s="4">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="E58">
-        <v>2269</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D59" s="4">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="E59">
-        <v>11141</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>31</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>274</v>
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D60" s="4">
-        <v>369</v>
+        <v>192</v>
       </c>
       <c r="E60">
-        <v>11546</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="D61" s="4">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E61">
-        <v>1446</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="D62" s="4">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="E62">
-        <v>5677</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="D63" s="4">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E63">
-        <v>6176</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>379</v>
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
       </c>
       <c r="D64" s="4">
-        <v>160</v>
+        <v>369</v>
       </c>
       <c r="E64">
-        <v>5025</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
+        <v>267</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="D65" s="4">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E65">
-        <v>4347</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>279</v>
+        <v>191</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="D66" s="4">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="E66">
-        <v>2884</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D67" s="4">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="E67">
-        <v>5550</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D68" s="4">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E68">
-        <v>10086</v>
+        <v>8667</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D69" s="4">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E69">
-        <v>10384</v>
+        <v>14107</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="D70" s="4">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="E70">
-        <v>3575</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
+        <v>268</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="D71" s="4">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="E71">
-        <v>10894</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="D72" s="4">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="E72">
-        <v>8646</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>41</v>
-      </c>
-      <c r="B73" t="s">
-        <v>259</v>
+        <v>36</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D73" s="4">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="E73">
-        <v>8028</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="D74" s="4">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="E74">
-        <v>8667</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="D75" s="4">
-        <v>397</v>
+        <v>174</v>
       </c>
       <c r="E75">
-        <v>11596</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="D76" s="4">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="E76">
-        <v>11428</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="D77" s="4">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E77">
-        <v>9426</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="D78" s="4">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="E78">
-        <v>6818</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>380</v>
+        <v>208</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
       </c>
       <c r="D79" s="4">
-        <v>816</v>
+        <v>195</v>
       </c>
       <c r="E79">
-        <v>25506</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="D80" s="4">
         <v>319</v>
       </c>
       <c r="E80">
-        <v>12468</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="D81" s="4">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="E81">
-        <v>7990</v>
+        <v>12854</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>381</v>
+        <v>216</v>
+      </c>
+      <c r="C82" t="s">
+        <v>217</v>
       </c>
       <c r="D82" s="4">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="E82">
-        <v>11972</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>382</v>
+        <v>218</v>
+      </c>
+      <c r="C83" t="s">
+        <v>220</v>
       </c>
       <c r="D83" s="4">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E83">
-        <v>9081</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>85</v>
+        <v>221</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="D84" s="4">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="E84">
-        <v>8382</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="D85" s="4">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="E85">
-        <v>4722</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>92</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>261</v>
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="D86" s="4">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="E86">
-        <v>7862</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" t="s">
-        <v>88</v>
+        <v>222</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="D87" s="4">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="E87">
-        <v>6465</v>
+        <v>11972</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="D88" s="4">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E88">
-        <v>8874</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D89" s="4">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E89">
-        <v>9330</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="D90" s="4">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="E90">
-        <v>4094</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>383</v>
+        <v>231</v>
+      </c>
+      <c r="C91" t="s">
+        <v>234</v>
       </c>
       <c r="D91" s="4">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E91">
-        <v>8776</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" t="s">
-        <v>141</v>
+        <v>236</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="D92" s="4">
         <v>142</v>
       </c>
       <c r="E92">
-        <v>3368</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>90</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>239</v>
       </c>
       <c r="D93" s="4">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E93">
-        <v>7608</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" t="s">
-        <v>110</v>
+        <v>240</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>373</v>
       </c>
       <c r="D94" s="4">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E94">
-        <v>8263</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="4">
+        <v>252</v>
+      </c>
+      <c r="E95">
+        <v>9874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
         <v>384</v>
       </c>
-      <c r="D95" s="4">
-        <v>294</v>
-      </c>
-      <c r="E95">
-        <v>9222</v>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5">
+        <v>60</v>
+      </c>
+      <c r="E96">
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E95">
+    <sortCondition ref="C2:C95"/>
+  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3306,7 +3327,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A22" workbookViewId="1">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="2">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
@@ -3321,16 +3344,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3338,13 +3361,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3352,16 +3375,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3369,14 +3392,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3384,16 +3407,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3401,16 +3424,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3418,10 +3441,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -3432,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="10">
@@ -3444,7 +3467,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="10">
@@ -3456,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
@@ -3468,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
@@ -3480,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -3492,10 +3515,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -3506,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
@@ -3518,7 +3541,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10">
@@ -3530,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
@@ -3542,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
@@ -3554,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -3566,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
@@ -3578,10 +3601,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -3592,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
@@ -3604,7 +3627,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="10">
@@ -3616,7 +3639,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10">
@@ -3628,7 +3651,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10">
@@ -3640,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10">
@@ -3652,7 +3675,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10">
@@ -3664,7 +3687,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10">
@@ -3676,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -3688,7 +3711,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10">
@@ -3700,7 +3723,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10">
@@ -3712,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
@@ -3724,7 +3747,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
@@ -3736,10 +3759,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -3750,7 +3773,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -3762,7 +3785,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
@@ -3774,7 +3797,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
@@ -3786,7 +3809,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -3798,7 +3821,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -3810,7 +3833,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -3822,7 +3845,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -3834,7 +3857,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -3846,10 +3869,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
@@ -3860,7 +3883,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -3872,10 +3895,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
@@ -3886,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C45" s="13">
         <v>38875</v>
@@ -3900,10 +3923,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
@@ -3914,7 +3937,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -3926,7 +3949,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -3938,7 +3961,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -3950,7 +3973,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
@@ -3962,10 +3985,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -3976,10 +3999,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -3990,7 +4013,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
@@ -4002,7 +4025,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -4014,7 +4037,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -4026,7 +4049,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -4038,7 +4061,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
@@ -4050,7 +4073,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
@@ -4062,7 +4085,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -4074,7 +4097,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10">
@@ -4086,7 +4109,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10">
@@ -4098,7 +4121,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10">
@@ -4110,7 +4133,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10">
@@ -4122,7 +4145,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
@@ -4134,10 +4157,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -4148,7 +4171,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10">
@@ -4160,7 +4183,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10">
@@ -4172,7 +4195,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10">
@@ -4184,7 +4207,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10">
@@ -4196,7 +4219,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10">
@@ -4208,7 +4231,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
@@ -4220,10 +4243,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D72" s="10">
         <v>1</v>
@@ -4234,7 +4257,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C73" s="10">
         <v>1969</v>
@@ -4248,7 +4271,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C74" s="10">
         <v>1971</v>
@@ -4262,7 +4285,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
@@ -4274,10 +4297,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D76" s="10">
         <v>1</v>
@@ -4288,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -4299,10 +4322,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D78" s="14">
         <v>1</v>
@@ -4313,7 +4336,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D79" s="18">
         <v>2</v>
@@ -4324,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D80" s="18">
         <v>2</v>
@@ -4335,7 +4358,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" s="18">
         <v>2</v>
@@ -4346,7 +4369,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D82" s="18">
         <v>2</v>
@@ -4357,7 +4380,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -4368,7 +4391,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D84" s="18">
         <v>2</v>
@@ -4379,7 +4402,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D85" s="18">
         <v>2</v>
@@ -4390,7 +4413,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D86" s="18">
         <v>2</v>
@@ -4401,7 +4424,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D87" s="18">
         <v>2</v>
@@ -4412,7 +4435,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D88" s="18">
         <v>2</v>
@@ -4423,7 +4446,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D89" s="18">
         <v>2</v>
@@ -4434,7 +4457,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D90" s="18">
         <v>2</v>
@@ -4445,7 +4468,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D91" s="18">
         <v>2</v>
@@ -4456,7 +4479,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="18">
         <v>2</v>
@@ -4467,7 +4490,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D93" s="18">
         <v>2</v>
@@ -4478,7 +4501,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
@@ -4489,7 +4512,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
@@ -4500,7 +4523,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
@@ -4511,7 +4534,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
@@ -4522,7 +4545,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
@@ -4533,7 +4556,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
@@ -4544,7 +4567,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
@@ -4555,7 +4578,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
@@ -4566,7 +4589,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -4577,7 +4600,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
@@ -4588,7 +4611,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
@@ -4599,7 +4622,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -4610,7 +4633,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D106" s="18">
         <v>2</v>
@@ -4621,7 +4644,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107" s="18">
         <v>2</v>
@@ -4632,7 +4655,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D108" s="18">
         <v>2</v>
@@ -4643,7 +4666,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D109" s="18">
         <v>2</v>
@@ -4654,7 +4677,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D110" s="18">
         <v>2</v>
@@ -4665,7 +4688,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D111" s="18">
         <v>2</v>
@@ -4676,7 +4699,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D112" s="18">
         <v>2</v>
@@ -4687,7 +4710,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D113" s="18">
         <v>2</v>
@@ -4698,7 +4721,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D114" s="18">
         <v>2</v>
@@ -4709,7 +4732,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -4720,7 +4743,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -4731,7 +4754,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -4744,22 +4767,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="1">
+      <selection activeCell="B218" sqref="B218"/>
+    </sheetView>
     <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6856,6 +6881,22 @@
       <c r="D216" t="e">
         <f>tracks!#REF!</f>
         <v>#REF!</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>96</v>
+      </c>
+      <c r="B217">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>96</v>
+      </c>
+      <c r="B218">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6883,10 +6924,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6894,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -6902,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6910,7 +6951,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -6918,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -6926,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -6934,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -6942,7 +6983,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6950,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -6958,7 +6999,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -6966,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -6974,7 +7015,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -6982,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6990,7 +7031,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6998,7 +7039,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -7006,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -7014,7 +7055,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -7022,7 +7063,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -7030,7 +7071,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -7038,7 +7079,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -7046,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -7054,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -7062,7 +7103,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -7070,7 +7111,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -7078,7 +7119,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -7086,7 +7127,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -7094,7 +7135,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -7102,7 +7143,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -7110,7 +7151,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -7118,7 +7159,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -7126,7 +7167,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -7134,7 +7175,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -7142,7 +7183,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -7150,7 +7191,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -7158,7 +7199,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -7166,7 +7207,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -7174,7 +7215,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -7182,7 +7223,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -7190,7 +7231,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -7198,7 +7239,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -7206,7 +7247,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -7214,7 +7255,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -7222,7 +7263,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -7230,7 +7271,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -7238,7 +7279,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -7246,7 +7287,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -7254,7 +7295,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -7262,7 +7303,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -7270,7 +7311,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -7278,7 +7319,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -7286,7 +7327,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -7294,7 +7335,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -7302,7 +7343,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -7310,7 +7351,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -7318,7 +7359,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -7326,7 +7367,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -7334,7 +7375,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -7342,7 +7383,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -7350,7 +7391,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -7358,7 +7399,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -7366,7 +7407,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -7374,7 +7415,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -7382,7 +7423,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -7390,7 +7431,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -7398,7 +7439,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -7406,7 +7447,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -7414,7 +7455,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -7422,7 +7463,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -7430,7 +7471,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -7438,7 +7479,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -7446,7 +7487,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -7454,7 +7495,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -7462,7 +7503,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -7470,7 +7511,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -7478,7 +7519,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -7486,7 +7527,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7509,16 +7550,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <f>tracks!A2</f>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7527,7 +7568,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>tracks!A3</f>
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7536,7 +7577,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>tracks!A4</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -7545,7 +7586,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>tracks!A5</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -7554,7 +7595,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <f>tracks!A6</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -7563,7 +7604,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <f>tracks!A7</f>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -7572,7 +7613,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>tracks!A8</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -7589,7 +7630,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>tracks!A9</f>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -7598,7 +7639,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>tracks!A10</f>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -7607,7 +7648,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <f>tracks!A11</f>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -7616,7 +7657,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <f>tracks!A12</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -7625,7 +7666,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>tracks!A13</f>
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -7634,7 +7675,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>tracks!A14</f>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -7643,7 +7684,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <f>tracks!A15</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -7652,7 +7693,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <f>tracks!A16</f>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -7661,7 +7702,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <f>tracks!A17</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -7670,7 +7711,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <f>tracks!A18</f>
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -7679,7 +7720,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <f>tracks!A19</f>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -7688,7 +7729,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <f>tracks!A20</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -7697,7 +7738,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <f>tracks!A21</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -7706,7 +7747,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>tracks!A22</f>
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -7715,7 +7756,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <f>tracks!A23</f>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -7724,7 +7765,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <f>tracks!A24</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -7733,7 +7774,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <f>tracks!A25</f>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -7750,7 +7791,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <f>tracks!A26</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -7759,7 +7800,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <f>tracks!A27</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>18</v>
@@ -7776,7 +7817,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <f>tracks!A28</f>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -7793,7 +7834,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <f>tracks!A29</f>
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -7802,7 +7843,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <f>tracks!A30</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>23</v>
@@ -7811,7 +7852,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <f>tracks!A31</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -7820,7 +7861,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <f>tracks!A32</f>
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>25</v>
@@ -7829,7 +7870,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <f>tracks!A33</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -7838,7 +7879,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <f>tracks!A34</f>
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>27</v>
@@ -7847,7 +7888,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <f>tracks!A35</f>
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -7856,7 +7897,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <f>tracks!A36</f>
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>29</v>
@@ -7865,7 +7906,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <f>tracks!A37</f>
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -7874,7 +7915,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <f>tracks!A38</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>31</v>
@@ -7883,7 +7924,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <f>tracks!A39</f>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -7892,7 +7933,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <f>tracks!A40</f>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>19</v>
@@ -7901,7 +7942,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <f>tracks!A41</f>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>19</v>
@@ -7910,7 +7951,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <f>tracks!A42</f>
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>19</v>
@@ -7919,7 +7960,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <f>tracks!A43</f>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>33</v>
@@ -7928,7 +7969,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <f>tracks!A44</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>34</v>
@@ -7937,7 +7978,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <f>tracks!A45</f>
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>35</v>
@@ -7946,7 +7987,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <f>tracks!A46</f>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>36</v>
@@ -7955,7 +7996,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51">
         <f>tracks!A47</f>
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>36</v>
@@ -7964,7 +8005,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52">
         <f>tracks!A48</f>
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>36</v>
@@ -7981,7 +8022,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
         <f>tracks!A49</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>36</v>
@@ -7998,7 +8039,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
         <f>tracks!A50</f>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>38</v>
@@ -8007,7 +8048,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
         <f>tracks!A51</f>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>39</v>
@@ -8016,7 +8057,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
         <f>tracks!A52</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -8025,7 +8066,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
         <f>tracks!A53</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B59">
         <v>40</v>
@@ -8034,7 +8075,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
         <f>tracks!A54</f>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>41</v>
@@ -8043,7 +8084,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
         <f>tracks!A55</f>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>42</v>
@@ -8052,7 +8093,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
         <f>tracks!A56</f>
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>44</v>
@@ -8069,7 +8110,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
         <f>tracks!A57</f>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>46</v>
@@ -8078,7 +8119,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
         <f>tracks!A58</f>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B65">
         <v>46</v>
@@ -8087,7 +8128,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
         <f>tracks!A59</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>47</v>
@@ -8096,7 +8137,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
         <f>tracks!A60</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B67">
         <v>47</v>
@@ -8105,7 +8146,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
         <f>tracks!A61</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <v>48</v>
@@ -8114,7 +8155,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
         <f>tracks!A62</f>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B69">
         <v>49</v>
@@ -8123,7 +8164,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
         <f>tracks!A63</f>
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B70">
         <v>50</v>
@@ -8132,7 +8173,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
         <f>tracks!A64</f>
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -8141,7 +8182,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
         <f>tracks!A65</f>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>52</v>
@@ -8150,7 +8191,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
         <f>tracks!A66</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>53</v>
@@ -8159,7 +8200,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
         <f>tracks!A67</f>
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B74">
         <v>54</v>
@@ -8168,7 +8209,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
         <f>tracks!A68</f>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B75">
         <v>54</v>
@@ -8177,7 +8218,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
         <f>tracks!A69</f>
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B76">
         <v>55</v>
@@ -8186,7 +8227,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
         <f>tracks!A70</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B77">
         <v>56</v>
@@ -8195,7 +8236,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
         <f>tracks!A71</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>57</v>
@@ -8204,7 +8245,7 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
         <f>tracks!A72</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>57</v>
@@ -8213,7 +8254,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
         <f>tracks!A73</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B80">
         <v>58</v>
@@ -8222,7 +8263,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <f>tracks!A74</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B81">
         <v>59</v>
@@ -8231,7 +8272,7 @@
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <f>tracks!A75</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B82">
         <v>60</v>
@@ -8240,7 +8281,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83">
         <f>tracks!A76</f>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>60</v>
@@ -8249,7 +8290,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84">
         <f>tracks!A77</f>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B84">
         <v>61</v>
@@ -8258,7 +8299,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85">
         <f>tracks!A78</f>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B85">
         <v>62</v>
@@ -8267,7 +8308,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86">
         <f>tracks!A79</f>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>63</v>
@@ -8276,7 +8317,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87">
         <f>tracks!A80</f>
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>64</v>
@@ -8285,7 +8326,7 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88">
         <f>tracks!A81</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B88">
         <v>65</v>
@@ -8294,7 +8335,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89">
         <f>tracks!A82</f>
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B89">
         <v>37</v>
@@ -8303,7 +8344,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90">
         <f>tracks!A83</f>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B90">
         <v>66</v>
@@ -8312,7 +8353,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91">
         <f>tracks!A84</f>
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B91">
         <v>67</v>
@@ -8321,7 +8362,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92">
         <f>tracks!A85</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B92">
         <v>68</v>
@@ -8330,7 +8371,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93">
         <f>tracks!A86</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>69</v>
@@ -8339,7 +8380,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94">
         <f>tracks!A87</f>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B94">
         <v>70</v>
@@ -8348,7 +8389,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95">
         <f>tracks!A88</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B95">
         <v>71</v>
@@ -8357,7 +8398,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96">
         <f>tracks!A89</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B96">
         <v>71</v>
@@ -8366,7 +8407,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
         <f>tracks!A90</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B97">
         <v>72</v>
@@ -8375,7 +8416,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
         <f>tracks!A91</f>
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B98">
         <v>73</v>
@@ -8384,7 +8425,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
         <f>tracks!A92</f>
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>74</v>
@@ -8393,7 +8434,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
         <f>tracks!A93</f>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B100">
         <v>75</v>
@@ -8402,7 +8443,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
         <f>tracks!A94</f>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>75</v>
@@ -8411,7 +8452,7 @@
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102">
         <f>tracks!A95</f>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B102">
         <v>75</v>
